--- a/apps/load_data/2023/04/PLMOVMAE.xlsx
+++ b/apps/load_data/2023/04/PLMOVMAE.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NOMBRADOS -2023\HHY0423\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2023\HHY0423\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E82CC1B-524F-408E-A03D-9092289ACAF8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84EB832D-75B3-4D6B-9A6D-C29B49E479F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13050" windowHeight="11040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13050" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CJ$285</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CJ$285</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12084" uniqueCount="3290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12064" uniqueCount="3287">
   <si>
     <t>CODEJE</t>
   </si>
@@ -6787,9 +6788,6 @@
     <t>08771747</t>
   </si>
   <si>
-    <t>S/N</t>
-  </si>
-  <si>
     <t>Mjhjfeeh11111d1flüjmhhfkgkech</t>
   </si>
   <si>
@@ -7939,9 +7937,6 @@
     <t>06567208</t>
   </si>
   <si>
-    <t>S/M</t>
-  </si>
-  <si>
     <t>6501080BIHTE003</t>
   </si>
   <si>
@@ -8243,9 +8238,6 @@
   </si>
   <si>
     <t>09842316</t>
-  </si>
-  <si>
-    <t>SUSPENSION</t>
   </si>
   <si>
     <t>7306280HYLAM000</t>
@@ -9898,7 +9890,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -10738,10 +10730,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CJ285"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD171" sqref="AC171:AD242"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -42446,12 +42440,7 @@
       <c r="AB171" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AC171" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD171" s="1" t="s">
-        <v>2254</v>
-      </c>
+      <c r="AC171" s="3"/>
       <c r="AF171" s="1" t="s">
         <v>107</v>
       </c>
@@ -42504,16 +42493,16 @@
         <v>23</v>
       </c>
       <c r="BD171" s="1" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="BG171" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH171" s="1" t="s">
+        <v>2255</v>
+      </c>
+      <c r="BI171" s="1" t="s">
         <v>2256</v>
-      </c>
-      <c r="BI171" s="1" t="s">
-        <v>2257</v>
       </c>
       <c r="BN171" s="1" t="s">
         <v>117</v>
@@ -42528,13 +42517,13 @@
         <v>160</v>
       </c>
       <c r="BS171" s="1" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="BT171" s="3">
         <v>36225</v>
       </c>
       <c r="BU171" s="1" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="BV171" s="1" t="s">
         <v>121</v>
@@ -42555,16 +42544,16 @@
         <v>102</v>
       </c>
       <c r="CD171" s="1" t="s">
+        <v>2259</v>
+      </c>
+      <c r="CE171" s="1" t="s">
         <v>2260</v>
       </c>
-      <c r="CE171" s="1" t="s">
+      <c r="CF171" s="1" t="s">
         <v>2261</v>
       </c>
-      <c r="CF171" s="1" t="s">
+      <c r="CH171" s="1" t="s">
         <v>2262</v>
-      </c>
-      <c r="CH171" s="1" t="s">
-        <v>2263</v>
       </c>
       <c r="CI171" s="1" t="s">
         <v>2066</v>
@@ -42605,16 +42594,16 @@
         <v>97</v>
       </c>
       <c r="K172" s="1" t="s">
+        <v>2263</v>
+      </c>
+      <c r="L172" s="1" t="s">
         <v>2264</v>
-      </c>
-      <c r="L172" s="1" t="s">
-        <v>2265</v>
       </c>
       <c r="M172" s="1" t="s">
         <v>103</v>
       </c>
       <c r="N172" s="1" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="O172" s="1" t="s">
         <v>101</v>
@@ -42646,12 +42635,7 @@
       <c r="AB172" s="1" t="s">
         <v>1221</v>
       </c>
-      <c r="AC172" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD172" s="1" t="s">
-        <v>2254</v>
-      </c>
+      <c r="AC172" s="3"/>
       <c r="AF172" s="1" t="s">
         <v>107</v>
       </c>
@@ -42698,7 +42682,7 @@
         <v>102</v>
       </c>
       <c r="AZ172" s="1" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="BB172" s="1">
         <v>4</v>
@@ -42707,13 +42691,13 @@
         <v>23</v>
       </c>
       <c r="BD172" s="1" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="BG172" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH172" s="1" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="BN172" s="1" t="s">
         <v>117</v>
@@ -42725,13 +42709,13 @@
         <v>103</v>
       </c>
       <c r="BS172" s="1" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="BT172" s="3">
         <v>36949</v>
       </c>
       <c r="BU172" s="1" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="BV172" s="1" t="s">
         <v>121</v>
@@ -42755,13 +42739,13 @@
         <v>102</v>
       </c>
       <c r="CD172" s="1" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="CE172" s="1" t="s">
         <v>1969</v>
       </c>
       <c r="CF172" s="1" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="CH172" s="1" t="s">
         <v>466</v>
@@ -42799,16 +42783,16 @@
         <v>95</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K173" s="1" t="s">
+        <v>2274</v>
+      </c>
+      <c r="L173" s="1" t="s">
         <v>2275</v>
-      </c>
-      <c r="L173" s="1" t="s">
-        <v>2276</v>
       </c>
       <c r="O173" s="1" t="s">
         <v>101</v>
@@ -42831,12 +42815,7 @@
       <c r="AB173" s="1" t="s">
         <v>1221</v>
       </c>
-      <c r="AC173" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD173" s="1" t="s">
-        <v>2254</v>
-      </c>
+      <c r="AC173" s="3"/>
       <c r="AF173" s="1" t="s">
         <v>107</v>
       </c>
@@ -42883,7 +42862,7 @@
         <v>102</v>
       </c>
       <c r="AZ173" s="1" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="BB173" s="1">
         <v>5</v>
@@ -42892,7 +42871,7 @@
         <v>22</v>
       </c>
       <c r="BD173" s="1" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="BN173" s="1" t="s">
         <v>117</v>
@@ -42919,7 +42898,7 @@
         <v>111</v>
       </c>
       <c r="CA173" s="1" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="CB173" s="1" t="s">
         <v>123</v>
@@ -42928,10 +42907,10 @@
         <v>102</v>
       </c>
       <c r="CD173" s="1" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="CH173" s="1" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="CI173" s="1" t="s">
         <v>129</v>
@@ -42972,13 +42951,13 @@
         <v>97</v>
       </c>
       <c r="K174" s="1" t="s">
+        <v>2280</v>
+      </c>
+      <c r="L174" s="1" t="s">
         <v>2281</v>
       </c>
-      <c r="L174" s="1" t="s">
+      <c r="N174" s="1" t="s">
         <v>2282</v>
-      </c>
-      <c r="N174" s="1" t="s">
-        <v>2283</v>
       </c>
       <c r="O174" s="1" t="s">
         <v>101</v>
@@ -43007,12 +42986,7 @@
       <c r="AA174" s="1">
         <v>0</v>
       </c>
-      <c r="AC174" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD174" s="1" t="s">
-        <v>2254</v>
-      </c>
+      <c r="AC174" s="3"/>
       <c r="AF174" s="1" t="s">
         <v>107</v>
       </c>
@@ -43062,7 +43036,7 @@
         <v>102</v>
       </c>
       <c r="AZ174" s="1" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="BB174" s="1">
         <v>4</v>
@@ -43071,13 +43045,13 @@
         <v>23</v>
       </c>
       <c r="BD174" s="1" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="BG174" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH174" s="1" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="BN174" s="1" t="s">
         <v>117</v>
@@ -43086,7 +43060,7 @@
         <v>106</v>
       </c>
       <c r="BU174" s="1" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="BV174" s="1" t="s">
         <v>121</v>
@@ -43104,16 +43078,16 @@
         <v>102</v>
       </c>
       <c r="CD174" s="1" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="CE174" s="1" t="s">
         <v>1214</v>
       </c>
       <c r="CF174" s="1" t="s">
+        <v>2288</v>
+      </c>
+      <c r="CH174" s="1" t="s">
         <v>2289</v>
-      </c>
-      <c r="CH174" s="1" t="s">
-        <v>2290</v>
       </c>
       <c r="CI174" s="1" t="s">
         <v>129</v>
@@ -43154,13 +43128,13 @@
         <v>97</v>
       </c>
       <c r="K175" s="1" t="s">
+        <v>2290</v>
+      </c>
+      <c r="L175" s="1" t="s">
         <v>2291</v>
       </c>
-      <c r="L175" s="1" t="s">
+      <c r="N175" s="1" t="s">
         <v>2292</v>
-      </c>
-      <c r="N175" s="1" t="s">
-        <v>2293</v>
       </c>
       <c r="O175" s="1" t="s">
         <v>101</v>
@@ -43192,12 +43166,7 @@
       <c r="AB175" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AC175" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD175" s="1" t="s">
-        <v>2254</v>
-      </c>
+      <c r="AC175" s="3"/>
       <c r="AF175" s="1" t="s">
         <v>107</v>
       </c>
@@ -43247,7 +43216,7 @@
         <v>102</v>
       </c>
       <c r="AZ175" s="1" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="BB175" s="1">
         <v>4</v>
@@ -43256,13 +43225,13 @@
         <v>23</v>
       </c>
       <c r="BD175" s="1" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="BG175" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH175" s="1" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="BN175" s="1" t="s">
         <v>117</v>
@@ -43271,7 +43240,7 @@
         <v>106</v>
       </c>
       <c r="BU175" s="1" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="BV175" s="1" t="s">
         <v>121</v>
@@ -43292,13 +43261,13 @@
         <v>673</v>
       </c>
       <c r="CE175" s="1" t="s">
+        <v>2297</v>
+      </c>
+      <c r="CF175" s="1" t="s">
         <v>2298</v>
       </c>
-      <c r="CF175" s="1" t="s">
+      <c r="CH175" s="1" t="s">
         <v>2299</v>
-      </c>
-      <c r="CH175" s="1" t="s">
-        <v>2300</v>
       </c>
       <c r="CI175" s="1" t="s">
         <v>129</v>
@@ -43339,13 +43308,13 @@
         <v>97</v>
       </c>
       <c r="K176" s="1" t="s">
+        <v>2300</v>
+      </c>
+      <c r="L176" s="1" t="s">
         <v>2301</v>
       </c>
-      <c r="L176" s="1" t="s">
+      <c r="N176" s="1" t="s">
         <v>2302</v>
-      </c>
-      <c r="N176" s="1" t="s">
-        <v>2303</v>
       </c>
       <c r="O176" s="1" t="s">
         <v>101</v>
@@ -43374,12 +43343,7 @@
       <c r="AA176" s="1">
         <v>0</v>
       </c>
-      <c r="AC176" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD176" s="1" t="s">
-        <v>2254</v>
-      </c>
+      <c r="AC176" s="3"/>
       <c r="AF176" s="1" t="s">
         <v>107</v>
       </c>
@@ -43429,7 +43393,7 @@
         <v>102</v>
       </c>
       <c r="AZ176" s="1" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="BB176" s="1">
         <v>4</v>
@@ -43438,13 +43402,13 @@
         <v>23</v>
       </c>
       <c r="BD176" s="1" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="BG176" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH176" s="1" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="BI176" s="1" t="s">
         <v>582</v>
@@ -43456,7 +43420,7 @@
         <v>106</v>
       </c>
       <c r="BU176" s="1" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="BV176" s="1" t="s">
         <v>121</v>
@@ -43474,16 +43438,16 @@
         <v>102</v>
       </c>
       <c r="CD176" s="1" t="s">
+        <v>2307</v>
+      </c>
+      <c r="CE176" s="1" t="s">
+        <v>2307</v>
+      </c>
+      <c r="CF176" s="1" t="s">
         <v>2308</v>
       </c>
-      <c r="CE176" s="1" t="s">
-        <v>2308</v>
-      </c>
-      <c r="CF176" s="1" t="s">
+      <c r="CH176" s="1" t="s">
         <v>2309</v>
-      </c>
-      <c r="CH176" s="1" t="s">
-        <v>2310</v>
       </c>
       <c r="CI176" s="1" t="s">
         <v>589</v>
@@ -43524,13 +43488,13 @@
         <v>97</v>
       </c>
       <c r="K177" s="1" t="s">
+        <v>2310</v>
+      </c>
+      <c r="L177" s="1" t="s">
         <v>2311</v>
       </c>
-      <c r="L177" s="1" t="s">
+      <c r="N177" s="1" t="s">
         <v>2312</v>
-      </c>
-      <c r="N177" s="1" t="s">
-        <v>2313</v>
       </c>
       <c r="O177" s="1" t="s">
         <v>101</v>
@@ -43568,12 +43532,7 @@
       <c r="AB177" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AC177" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD177" s="1" t="s">
-        <v>2254</v>
-      </c>
+      <c r="AC177" s="3"/>
       <c r="AF177" s="1" t="s">
         <v>107</v>
       </c>
@@ -43620,7 +43579,7 @@
         <v>102</v>
       </c>
       <c r="AZ177" s="1" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="BB177" s="1">
         <v>4</v>
@@ -43629,16 +43588,16 @@
         <v>23</v>
       </c>
       <c r="BD177" s="1" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="BG177" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH177" s="1" t="s">
+        <v>2315</v>
+      </c>
+      <c r="BI177" s="1" t="s">
         <v>2316</v>
-      </c>
-      <c r="BI177" s="1" t="s">
-        <v>2317</v>
       </c>
       <c r="BN177" s="1" t="s">
         <v>117</v>
@@ -43650,13 +43609,13 @@
         <v>118</v>
       </c>
       <c r="BS177" s="1" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="BT177" s="3">
         <v>35243</v>
       </c>
       <c r="BU177" s="1" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="BV177" s="1" t="s">
         <v>121</v>
@@ -43674,19 +43633,19 @@
         <v>102</v>
       </c>
       <c r="CD177" s="1" t="s">
+        <v>2319</v>
+      </c>
+      <c r="CE177" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="CE177" s="1" t="s">
+      <c r="CF177" s="1" t="s">
         <v>2321</v>
       </c>
-      <c r="CF177" s="1" t="s">
+      <c r="CH177" s="1" t="s">
         <v>2322</v>
       </c>
-      <c r="CH177" s="1" t="s">
+      <c r="CI177" s="1" t="s">
         <v>2323</v>
-      </c>
-      <c r="CI177" s="1" t="s">
-        <v>2324</v>
       </c>
       <c r="CJ177" s="1" t="s">
         <v>129</v>
@@ -43724,13 +43683,13 @@
         <v>97</v>
       </c>
       <c r="K178" s="1" t="s">
+        <v>2324</v>
+      </c>
+      <c r="L178" s="1" t="s">
         <v>2325</v>
       </c>
-      <c r="L178" s="1" t="s">
+      <c r="N178" s="1" t="s">
         <v>2326</v>
-      </c>
-      <c r="N178" s="1" t="s">
-        <v>2327</v>
       </c>
       <c r="O178" s="1" t="s">
         <v>101</v>
@@ -43759,12 +43718,7 @@
       <c r="AA178" s="1">
         <v>0</v>
       </c>
-      <c r="AC178" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD178" s="1" t="s">
-        <v>2254</v>
-      </c>
+      <c r="AC178" s="3"/>
       <c r="AF178" s="1" t="s">
         <v>107</v>
       </c>
@@ -43814,7 +43768,7 @@
         <v>102</v>
       </c>
       <c r="AZ178" s="1" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="BB178" s="1">
         <v>4</v>
@@ -43823,13 +43777,13 @@
         <v>23</v>
       </c>
       <c r="BD178" s="1" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="BG178" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH178" s="1" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="BI178" s="1" t="s">
         <v>928</v>
@@ -43841,7 +43795,7 @@
         <v>106</v>
       </c>
       <c r="BU178" s="1" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="BV178" s="1" t="s">
         <v>121</v>
@@ -43859,16 +43813,16 @@
         <v>102</v>
       </c>
       <c r="CD178" s="1" t="s">
+        <v>2331</v>
+      </c>
+      <c r="CE178" s="1" t="s">
         <v>2332</v>
       </c>
-      <c r="CE178" s="1" t="s">
+      <c r="CF178" s="1" t="s">
         <v>2333</v>
       </c>
-      <c r="CF178" s="1" t="s">
+      <c r="CH178" s="1" t="s">
         <v>2334</v>
-      </c>
-      <c r="CH178" s="1" t="s">
-        <v>2335</v>
       </c>
       <c r="CI178" s="1" t="s">
         <v>933</v>
@@ -43909,13 +43863,13 @@
         <v>97</v>
       </c>
       <c r="K179" s="1" t="s">
+        <v>2335</v>
+      </c>
+      <c r="L179" s="1" t="s">
         <v>2336</v>
       </c>
-      <c r="L179" s="1" t="s">
+      <c r="N179" s="1" t="s">
         <v>2337</v>
-      </c>
-      <c r="N179" s="1" t="s">
-        <v>2338</v>
       </c>
       <c r="O179" s="1" t="s">
         <v>101</v>
@@ -43944,12 +43898,7 @@
       <c r="AA179" s="1">
         <v>0</v>
       </c>
-      <c r="AC179" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD179" s="1" t="s">
-        <v>2254</v>
-      </c>
+      <c r="AC179" s="3"/>
       <c r="AF179" s="1" t="s">
         <v>107</v>
       </c>
@@ -43999,7 +43948,7 @@
         <v>102</v>
       </c>
       <c r="AZ179" s="1" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="BB179" s="1">
         <v>4</v>
@@ -44008,13 +43957,13 @@
         <v>23</v>
       </c>
       <c r="BD179" s="1" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="BG179" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH179" s="1" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="BI179" s="1" t="s">
         <v>582</v>
@@ -44029,7 +43978,7 @@
         <v>160</v>
       </c>
       <c r="BU179" s="1" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="BV179" s="1" t="s">
         <v>121</v>
@@ -44047,16 +43996,16 @@
         <v>102</v>
       </c>
       <c r="CD179" s="1" t="s">
+        <v>2342</v>
+      </c>
+      <c r="CE179" s="1" t="s">
         <v>2343</v>
       </c>
-      <c r="CE179" s="1" t="s">
+      <c r="CF179" s="1" t="s">
         <v>2344</v>
       </c>
-      <c r="CF179" s="1" t="s">
+      <c r="CH179" s="1" t="s">
         <v>2345</v>
-      </c>
-      <c r="CH179" s="1" t="s">
-        <v>2346</v>
       </c>
       <c r="CI179" s="1" t="s">
         <v>589</v>
@@ -44091,19 +44040,19 @@
         <v>95</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K180" s="1" t="s">
+        <v>2347</v>
+      </c>
+      <c r="L180" s="1" t="s">
         <v>2348</v>
       </c>
-      <c r="L180" s="1" t="s">
+      <c r="N180" s="1" t="s">
         <v>2349</v>
-      </c>
-      <c r="N180" s="1" t="s">
-        <v>2350</v>
       </c>
       <c r="O180" s="1" t="s">
         <v>101</v>
@@ -44138,12 +44087,7 @@
       <c r="AA180" s="1">
         <v>0</v>
       </c>
-      <c r="AC180" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD180" s="1" t="s">
-        <v>2254</v>
-      </c>
+      <c r="AC180" s="3"/>
       <c r="AF180" s="1" t="s">
         <v>107</v>
       </c>
@@ -44193,7 +44137,7 @@
         <v>102</v>
       </c>
       <c r="AZ180" s="1" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="BB180" s="1">
         <v>4</v>
@@ -44202,13 +44146,13 @@
         <v>23</v>
       </c>
       <c r="BD180" s="1" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="BG180" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH180" s="1" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="BN180" s="1" t="s">
         <v>117</v>
@@ -44217,7 +44161,7 @@
         <v>106</v>
       </c>
       <c r="BU180" s="1" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="BV180" s="1" t="s">
         <v>121</v>
@@ -44229,7 +44173,7 @@
         <v>111</v>
       </c>
       <c r="CA180" s="1" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="CB180" s="1" t="s">
         <v>123</v>
@@ -44238,16 +44182,16 @@
         <v>102</v>
       </c>
       <c r="CD180" s="1" t="s">
+        <v>2355</v>
+      </c>
+      <c r="CE180" s="1" t="s">
         <v>2356</v>
       </c>
-      <c r="CE180" s="1" t="s">
+      <c r="CF180" s="1" t="s">
         <v>2357</v>
       </c>
-      <c r="CF180" s="1" t="s">
+      <c r="CH180" s="1" t="s">
         <v>2358</v>
-      </c>
-      <c r="CH180" s="1" t="s">
-        <v>2359</v>
       </c>
       <c r="CI180" s="1" t="s">
         <v>129</v>
@@ -44288,13 +44232,13 @@
         <v>97</v>
       </c>
       <c r="K181" s="1" t="s">
+        <v>2359</v>
+      </c>
+      <c r="L181" s="1" t="s">
         <v>2360</v>
       </c>
-      <c r="L181" s="1" t="s">
+      <c r="N181" s="1" t="s">
         <v>2361</v>
-      </c>
-      <c r="N181" s="1" t="s">
-        <v>2362</v>
       </c>
       <c r="O181" s="1" t="s">
         <v>101</v>
@@ -44323,12 +44267,7 @@
       <c r="AA181" s="1">
         <v>0</v>
       </c>
-      <c r="AC181" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD181" s="1" t="s">
-        <v>2254</v>
-      </c>
+      <c r="AC181" s="3"/>
       <c r="AF181" s="1" t="s">
         <v>107</v>
       </c>
@@ -44375,7 +44314,7 @@
         <v>102</v>
       </c>
       <c r="AZ181" s="1" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="BB181" s="1">
         <v>4</v>
@@ -44384,16 +44323,16 @@
         <v>23</v>
       </c>
       <c r="BD181" s="1" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="BG181" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH181" s="1" t="s">
+        <v>2364</v>
+      </c>
+      <c r="BI181" s="1" t="s">
         <v>2365</v>
-      </c>
-      <c r="BI181" s="1" t="s">
-        <v>2366</v>
       </c>
       <c r="BN181" s="1" t="s">
         <v>117</v>
@@ -44405,13 +44344,13 @@
         <v>118</v>
       </c>
       <c r="BS181" s="1" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="BT181" s="3">
         <v>35950</v>
       </c>
       <c r="BU181" s="1" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="BV181" s="1" t="s">
         <v>121</v>
@@ -44429,19 +44368,19 @@
         <v>102</v>
       </c>
       <c r="CD181" s="1" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="CE181" s="1" t="s">
         <v>1781</v>
       </c>
       <c r="CF181" s="1" t="s">
+        <v>2369</v>
+      </c>
+      <c r="CH181" s="1" t="s">
         <v>2370</v>
       </c>
-      <c r="CH181" s="1" t="s">
+      <c r="CI181" s="1" t="s">
         <v>2371</v>
-      </c>
-      <c r="CI181" s="1" t="s">
-        <v>2372</v>
       </c>
       <c r="CJ181" s="1" t="s">
         <v>129</v>
@@ -44479,13 +44418,13 @@
         <v>97</v>
       </c>
       <c r="K182" s="1" t="s">
+        <v>2372</v>
+      </c>
+      <c r="L182" s="1" t="s">
         <v>2373</v>
       </c>
-      <c r="L182" s="1" t="s">
+      <c r="N182" s="1" t="s">
         <v>2374</v>
-      </c>
-      <c r="N182" s="1" t="s">
-        <v>2375</v>
       </c>
       <c r="O182" s="1" t="s">
         <v>101</v>
@@ -44566,7 +44505,7 @@
         <v>102</v>
       </c>
       <c r="AZ182" s="1" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="BB182" s="1">
         <v>4</v>
@@ -44575,13 +44514,13 @@
         <v>23</v>
       </c>
       <c r="BD182" s="1" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="BG182" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH182" s="1" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="BN182" s="1" t="s">
         <v>117</v>
@@ -44593,7 +44532,7 @@
         <v>160</v>
       </c>
       <c r="BU182" s="1" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="BV182" s="1" t="s">
         <v>121</v>
@@ -44611,16 +44550,16 @@
         <v>102</v>
       </c>
       <c r="CD182" s="1" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="CE182" s="1" t="s">
         <v>420</v>
       </c>
       <c r="CF182" s="1" t="s">
+        <v>2380</v>
+      </c>
+      <c r="CH182" s="1" t="s">
         <v>2381</v>
-      </c>
-      <c r="CH182" s="1" t="s">
-        <v>2382</v>
       </c>
       <c r="CI182" s="1" t="s">
         <v>129</v>
@@ -44661,13 +44600,13 @@
         <v>97</v>
       </c>
       <c r="K183" s="1" t="s">
+        <v>2382</v>
+      </c>
+      <c r="L183" s="1" t="s">
         <v>2383</v>
       </c>
-      <c r="L183" s="1" t="s">
+      <c r="N183" s="1" t="s">
         <v>2384</v>
-      </c>
-      <c r="N183" s="1" t="s">
-        <v>2385</v>
       </c>
       <c r="O183" s="1" t="s">
         <v>101</v>
@@ -44742,7 +44681,7 @@
         <v>102</v>
       </c>
       <c r="AZ183" s="1" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="BB183" s="1">
         <v>4</v>
@@ -44751,13 +44690,13 @@
         <v>23</v>
       </c>
       <c r="BD183" s="1" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="BG183" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH183" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="BI183" s="1" t="s">
         <v>1830</v>
@@ -44772,13 +44711,13 @@
         <v>229</v>
       </c>
       <c r="BS183" s="1" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="BT183" s="3">
         <v>36099</v>
       </c>
       <c r="BU183" s="1" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="BV183" s="1" t="s">
         <v>121</v>
@@ -44796,16 +44735,16 @@
         <v>102</v>
       </c>
       <c r="CD183" s="1" t="s">
+        <v>2390</v>
+      </c>
+      <c r="CE183" s="1" t="s">
         <v>2391</v>
       </c>
-      <c r="CE183" s="1" t="s">
+      <c r="CF183" s="1" t="s">
         <v>2392</v>
       </c>
-      <c r="CF183" s="1" t="s">
+      <c r="CH183" s="1" t="s">
         <v>2393</v>
-      </c>
-      <c r="CH183" s="1" t="s">
-        <v>2394</v>
       </c>
       <c r="CI183" s="1" t="s">
         <v>1836</v>
@@ -44846,13 +44785,13 @@
         <v>97</v>
       </c>
       <c r="K184" s="1" t="s">
+        <v>2394</v>
+      </c>
+      <c r="L184" s="1" t="s">
         <v>2395</v>
       </c>
-      <c r="L184" s="1" t="s">
+      <c r="N184" s="1" t="s">
         <v>2396</v>
-      </c>
-      <c r="N184" s="1" t="s">
-        <v>2397</v>
       </c>
       <c r="O184" s="1" t="s">
         <v>101</v>
@@ -44927,7 +44866,7 @@
         <v>102</v>
       </c>
       <c r="AZ184" s="1" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="BB184" s="1">
         <v>4</v>
@@ -44936,16 +44875,16 @@
         <v>23</v>
       </c>
       <c r="BD184" s="1" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="BG184" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH184" s="1" t="s">
+        <v>2399</v>
+      </c>
+      <c r="BI184" s="1" t="s">
         <v>2400</v>
-      </c>
-      <c r="BI184" s="1" t="s">
-        <v>2401</v>
       </c>
       <c r="BN184" s="1" t="s">
         <v>117</v>
@@ -44957,13 +44896,13 @@
         <v>103</v>
       </c>
       <c r="BS184" s="1" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="BT184" s="3">
         <v>37735</v>
       </c>
       <c r="BU184" s="1" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="BV184" s="1" t="s">
         <v>121</v>
@@ -44981,19 +44920,19 @@
         <v>102</v>
       </c>
       <c r="CD184" s="1" t="s">
+        <v>2403</v>
+      </c>
+      <c r="CE184" s="1" t="s">
         <v>2404</v>
       </c>
-      <c r="CE184" s="1" t="s">
+      <c r="CF184" s="1" t="s">
         <v>2405</v>
       </c>
-      <c r="CF184" s="1" t="s">
+      <c r="CH184" s="1" t="s">
         <v>2406</v>
       </c>
-      <c r="CH184" s="1" t="s">
+      <c r="CI184" s="1" t="s">
         <v>2407</v>
-      </c>
-      <c r="CI184" s="1" t="s">
-        <v>2408</v>
       </c>
       <c r="CJ184" s="1" t="s">
         <v>129</v>
@@ -45031,13 +44970,13 @@
         <v>97</v>
       </c>
       <c r="K185" s="1" t="s">
+        <v>2408</v>
+      </c>
+      <c r="L185" s="1" t="s">
         <v>2409</v>
       </c>
-      <c r="L185" s="1" t="s">
+      <c r="N185" s="1" t="s">
         <v>2410</v>
-      </c>
-      <c r="N185" s="1" t="s">
-        <v>2411</v>
       </c>
       <c r="O185" s="1" t="s">
         <v>101</v>
@@ -45115,7 +45054,7 @@
         <v>102</v>
       </c>
       <c r="AZ185" s="1" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="BB185" s="1">
         <v>4</v>
@@ -45124,13 +45063,13 @@
         <v>23</v>
       </c>
       <c r="BD185" s="1" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="BG185" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH185" s="1" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="BN185" s="1" t="s">
         <v>117</v>
@@ -45139,7 +45078,7 @@
         <v>106</v>
       </c>
       <c r="BU185" s="1" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="BV185" s="1" t="s">
         <v>121</v>
@@ -45157,16 +45096,16 @@
         <v>102</v>
       </c>
       <c r="CD185" s="1" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="CE185" s="1" t="s">
         <v>859</v>
       </c>
       <c r="CF185" s="1" t="s">
+        <v>2416</v>
+      </c>
+      <c r="CH185" s="1" t="s">
         <v>2417</v>
-      </c>
-      <c r="CH185" s="1" t="s">
-        <v>2418</v>
       </c>
       <c r="CI185" s="1" t="s">
         <v>129</v>
@@ -45207,13 +45146,13 @@
         <v>97</v>
       </c>
       <c r="K186" s="1" t="s">
+        <v>2418</v>
+      </c>
+      <c r="L186" s="1" t="s">
         <v>2419</v>
       </c>
-      <c r="L186" s="1" t="s">
+      <c r="N186" s="1" t="s">
         <v>2420</v>
-      </c>
-      <c r="N186" s="1" t="s">
-        <v>2421</v>
       </c>
       <c r="O186" s="1" t="s">
         <v>101</v>
@@ -45249,10 +45188,10 @@
         <v>107</v>
       </c>
       <c r="AG186" s="1" t="s">
+        <v>2421</v>
+      </c>
+      <c r="AH186" s="1" t="s">
         <v>2422</v>
-      </c>
-      <c r="AH186" s="1" t="s">
-        <v>2423</v>
       </c>
       <c r="AI186" s="1" t="s">
         <v>102</v>
@@ -45294,7 +45233,7 @@
         <v>102</v>
       </c>
       <c r="AZ186" s="1" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="BB186" s="1">
         <v>4</v>
@@ -45303,13 +45242,13 @@
         <v>23</v>
       </c>
       <c r="BD186" s="1" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="BG186" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH186" s="1" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="BN186" s="1" t="s">
         <v>117</v>
@@ -45318,7 +45257,7 @@
         <v>106</v>
       </c>
       <c r="BU186" s="1" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="BV186" s="1" t="s">
         <v>121</v>
@@ -45339,13 +45278,13 @@
         <v>1570</v>
       </c>
       <c r="CE186" s="1" t="s">
+        <v>2427</v>
+      </c>
+      <c r="CF186" s="1" t="s">
         <v>2428</v>
       </c>
-      <c r="CF186" s="1" t="s">
+      <c r="CH186" s="1" t="s">
         <v>2429</v>
-      </c>
-      <c r="CH186" s="1" t="s">
-        <v>2430</v>
       </c>
       <c r="CI186" s="1" t="s">
         <v>129</v>
@@ -45386,13 +45325,13 @@
         <v>97</v>
       </c>
       <c r="K187" s="1" t="s">
+        <v>2430</v>
+      </c>
+      <c r="L187" s="1" t="s">
         <v>2431</v>
       </c>
-      <c r="L187" s="1" t="s">
+      <c r="N187" s="1" t="s">
         <v>2432</v>
-      </c>
-      <c r="N187" s="1" t="s">
-        <v>2433</v>
       </c>
       <c r="O187" s="1" t="s">
         <v>101</v>
@@ -45470,7 +45409,7 @@
         <v>102</v>
       </c>
       <c r="AZ187" s="1" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="BB187" s="1">
         <v>4</v>
@@ -45479,13 +45418,13 @@
         <v>23</v>
       </c>
       <c r="BD187" s="1" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="BG187" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH187" s="1" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="BI187" s="1" t="s">
         <v>2060</v>
@@ -45500,13 +45439,13 @@
         <v>103</v>
       </c>
       <c r="BS187" s="1" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="BT187" s="3">
         <v>43602</v>
       </c>
       <c r="BU187" s="1" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="BV187" s="1" t="s">
         <v>121</v>
@@ -45530,10 +45469,10 @@
         <v>942</v>
       </c>
       <c r="CF187" s="1" t="s">
+        <v>2438</v>
+      </c>
+      <c r="CH187" s="1" t="s">
         <v>2439</v>
-      </c>
-      <c r="CH187" s="1" t="s">
-        <v>2440</v>
       </c>
       <c r="CI187" s="1" t="s">
         <v>2066</v>
@@ -45574,13 +45513,13 @@
         <v>97</v>
       </c>
       <c r="K188" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="L188" s="1" t="s">
         <v>2441</v>
       </c>
-      <c r="L188" s="1" t="s">
+      <c r="N188" s="1" t="s">
         <v>2442</v>
-      </c>
-      <c r="N188" s="1" t="s">
-        <v>2443</v>
       </c>
       <c r="O188" s="1" t="s">
         <v>101</v>
@@ -45658,7 +45597,7 @@
         <v>102</v>
       </c>
       <c r="AZ188" s="1" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="BB188" s="1">
         <v>4</v>
@@ -45667,13 +45606,13 @@
         <v>23</v>
       </c>
       <c r="BD188" s="1" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="BG188" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH188" s="1" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="BI188" s="1" t="s">
         <v>928</v>
@@ -45685,7 +45624,7 @@
         <v>106</v>
       </c>
       <c r="BU188" s="1" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="BV188" s="1" t="s">
         <v>121</v>
@@ -45703,16 +45642,16 @@
         <v>102</v>
       </c>
       <c r="CD188" s="1" t="s">
+        <v>2447</v>
+      </c>
+      <c r="CE188" s="1" t="s">
         <v>2448</v>
       </c>
-      <c r="CE188" s="1" t="s">
+      <c r="CF188" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="CF188" s="1" t="s">
+      <c r="CH188" s="1" t="s">
         <v>2450</v>
-      </c>
-      <c r="CH188" s="1" t="s">
-        <v>2451</v>
       </c>
       <c r="CI188" s="1" t="s">
         <v>933</v>
@@ -45753,13 +45692,13 @@
         <v>97</v>
       </c>
       <c r="K189" s="1" t="s">
+        <v>2451</v>
+      </c>
+      <c r="L189" s="1" t="s">
         <v>2452</v>
       </c>
-      <c r="L189" s="1" t="s">
+      <c r="N189" s="1" t="s">
         <v>2453</v>
-      </c>
-      <c r="N189" s="1" t="s">
-        <v>2454</v>
       </c>
       <c r="O189" s="1" t="s">
         <v>101</v>
@@ -45798,7 +45737,7 @@
         <v>42247</v>
       </c>
       <c r="AD189" s="1" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="AF189" s="1" t="s">
         <v>107</v>
@@ -45852,16 +45791,16 @@
         <v>23</v>
       </c>
       <c r="BD189" s="1" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="BG189" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH189" s="1" t="s">
+        <v>2456</v>
+      </c>
+      <c r="BI189" s="1" t="s">
         <v>2457</v>
-      </c>
-      <c r="BI189" s="1" t="s">
-        <v>2458</v>
       </c>
       <c r="BN189" s="1" t="s">
         <v>117</v>
@@ -45873,13 +45812,13 @@
         <v>229</v>
       </c>
       <c r="BS189" s="1" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="BT189" s="3">
         <v>36580</v>
       </c>
       <c r="BU189" s="1" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="BV189" s="1" t="s">
         <v>121</v>
@@ -45900,7 +45839,7 @@
         <v>102</v>
       </c>
       <c r="CD189" s="1" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="CE189" s="1" t="s">
         <v>299</v>
@@ -45909,10 +45848,10 @@
         <v>1602</v>
       </c>
       <c r="CH189" s="1" t="s">
+        <v>2461</v>
+      </c>
+      <c r="CI189" s="1" t="s">
         <v>2462</v>
-      </c>
-      <c r="CI189" s="1" t="s">
-        <v>2463</v>
       </c>
       <c r="CJ189" s="1" t="s">
         <v>129</v>
@@ -45950,13 +45889,13 @@
         <v>97</v>
       </c>
       <c r="K190" s="1" t="s">
+        <v>2463</v>
+      </c>
+      <c r="L190" s="1" t="s">
         <v>2464</v>
       </c>
-      <c r="L190" s="1" t="s">
+      <c r="N190" s="1" t="s">
         <v>2465</v>
-      </c>
-      <c r="N190" s="1" t="s">
-        <v>2466</v>
       </c>
       <c r="O190" s="1" t="s">
         <v>101</v>
@@ -46040,13 +45979,13 @@
         <v>23</v>
       </c>
       <c r="BD190" s="1" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="BG190" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH190" s="1" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="BI190" s="1" t="s">
         <v>1820</v>
@@ -46061,13 +46000,13 @@
         <v>118</v>
       </c>
       <c r="BS190" s="1" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="BT190" s="3">
         <v>37747</v>
       </c>
       <c r="BU190" s="1" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="BV190" s="1" t="s">
         <v>121</v>
@@ -46091,10 +46030,10 @@
         <v>658</v>
       </c>
       <c r="CF190" s="1" t="s">
+        <v>2470</v>
+      </c>
+      <c r="CH190" s="1" t="s">
         <v>2471</v>
-      </c>
-      <c r="CH190" s="1" t="s">
-        <v>2472</v>
       </c>
       <c r="CI190" s="1" t="s">
         <v>1824</v>
@@ -46135,13 +46074,13 @@
         <v>97</v>
       </c>
       <c r="K191" s="1" t="s">
+        <v>2472</v>
+      </c>
+      <c r="L191" s="1" t="s">
         <v>2473</v>
       </c>
-      <c r="L191" s="1" t="s">
+      <c r="N191" s="1" t="s">
         <v>2474</v>
-      </c>
-      <c r="N191" s="1" t="s">
-        <v>2475</v>
       </c>
       <c r="O191" s="1" t="s">
         <v>101</v>
@@ -46225,13 +46164,13 @@
         <v>23</v>
       </c>
       <c r="BD191" s="1" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="BG191" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH191" s="1" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="BN191" s="1" t="s">
         <v>117</v>
@@ -46240,7 +46179,7 @@
         <v>106</v>
       </c>
       <c r="BU191" s="1" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="BV191" s="1" t="s">
         <v>121</v>
@@ -46258,16 +46197,16 @@
         <v>102</v>
       </c>
       <c r="CD191" s="1" t="s">
+        <v>2478</v>
+      </c>
+      <c r="CE191" s="1" t="s">
         <v>2479</v>
       </c>
-      <c r="CE191" s="1" t="s">
+      <c r="CF191" s="1" t="s">
         <v>2480</v>
       </c>
-      <c r="CF191" s="1" t="s">
+      <c r="CH191" s="1" t="s">
         <v>2481</v>
-      </c>
-      <c r="CH191" s="1" t="s">
-        <v>2482</v>
       </c>
       <c r="CI191" s="1" t="s">
         <v>129</v>
@@ -46308,13 +46247,13 @@
         <v>97</v>
       </c>
       <c r="K192" s="1" t="s">
+        <v>2482</v>
+      </c>
+      <c r="L192" s="1" t="s">
         <v>2483</v>
       </c>
-      <c r="L192" s="1" t="s">
+      <c r="N192" s="1" t="s">
         <v>2484</v>
-      </c>
-      <c r="N192" s="1" t="s">
-        <v>2485</v>
       </c>
       <c r="O192" s="1" t="s">
         <v>101</v>
@@ -46401,13 +46340,13 @@
         <v>23</v>
       </c>
       <c r="BD192" s="1" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="BG192" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH192" s="1" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="BI192" s="1" t="s">
         <v>582</v>
@@ -46422,7 +46361,7 @@
         <v>160</v>
       </c>
       <c r="BU192" s="1" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="BV192" s="1" t="s">
         <v>121</v>
@@ -46440,16 +46379,16 @@
         <v>102</v>
       </c>
       <c r="CD192" s="1" t="s">
+        <v>2488</v>
+      </c>
+      <c r="CE192" s="1" t="s">
         <v>2489</v>
       </c>
-      <c r="CE192" s="1" t="s">
+      <c r="CF192" s="1" t="s">
         <v>2490</v>
       </c>
-      <c r="CF192" s="1" t="s">
+      <c r="CH192" s="1" t="s">
         <v>2491</v>
-      </c>
-      <c r="CH192" s="1" t="s">
-        <v>2492</v>
       </c>
       <c r="CI192" s="1" t="s">
         <v>589</v>
@@ -46490,13 +46429,13 @@
         <v>97</v>
       </c>
       <c r="K193" s="1" t="s">
+        <v>2492</v>
+      </c>
+      <c r="L193" s="1" t="s">
         <v>2493</v>
       </c>
-      <c r="L193" s="1" t="s">
+      <c r="N193" s="1" t="s">
         <v>2494</v>
-      </c>
-      <c r="N193" s="1" t="s">
-        <v>2495</v>
       </c>
       <c r="O193" s="1" t="s">
         <v>101</v>
@@ -46577,16 +46516,16 @@
         <v>23</v>
       </c>
       <c r="BD193" s="1" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="BG193" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH193" s="1" t="s">
+        <v>2496</v>
+      </c>
+      <c r="BI193" s="1" t="s">
         <v>2497</v>
-      </c>
-      <c r="BI193" s="1" t="s">
-        <v>2498</v>
       </c>
       <c r="BN193" s="1" t="s">
         <v>117</v>
@@ -46598,13 +46537,13 @@
         <v>103</v>
       </c>
       <c r="BS193" s="1" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="BT193" s="3">
         <v>37334</v>
       </c>
       <c r="BU193" s="1" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="BV193" s="1" t="s">
         <v>121</v>
@@ -46625,16 +46564,16 @@
         <v>506</v>
       </c>
       <c r="CE193" s="1" t="s">
+        <v>2500</v>
+      </c>
+      <c r="CF193" s="1" t="s">
         <v>2501</v>
       </c>
-      <c r="CF193" s="1" t="s">
+      <c r="CH193" s="1" t="s">
         <v>2502</v>
       </c>
-      <c r="CH193" s="1" t="s">
+      <c r="CI193" s="1" t="s">
         <v>2503</v>
-      </c>
-      <c r="CI193" s="1" t="s">
-        <v>2504</v>
       </c>
       <c r="CJ193" s="1" t="s">
         <v>129</v>
@@ -46672,13 +46611,13 @@
         <v>97</v>
       </c>
       <c r="K194" s="1" t="s">
+        <v>2504</v>
+      </c>
+      <c r="L194" s="1" t="s">
         <v>2505</v>
       </c>
-      <c r="L194" s="1" t="s">
+      <c r="N194" s="1" t="s">
         <v>2506</v>
-      </c>
-      <c r="N194" s="1" t="s">
-        <v>2507</v>
       </c>
       <c r="O194" s="1" t="s">
         <v>101</v>
@@ -46762,16 +46701,16 @@
         <v>23</v>
       </c>
       <c r="BD194" s="1" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="BG194" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH194" s="1" t="s">
+        <v>2508</v>
+      </c>
+      <c r="BI194" s="1" t="s">
         <v>2509</v>
-      </c>
-      <c r="BI194" s="1" t="s">
-        <v>2510</v>
       </c>
       <c r="BN194" s="1" t="s">
         <v>117</v>
@@ -46783,13 +46722,13 @@
         <v>103</v>
       </c>
       <c r="BS194" s="1" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="BT194" s="3">
         <v>37904</v>
       </c>
       <c r="BU194" s="1" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="BV194" s="1" t="s">
         <v>121</v>
@@ -46810,16 +46749,16 @@
         <v>942</v>
       </c>
       <c r="CE194" s="1" t="s">
+        <v>2512</v>
+      </c>
+      <c r="CF194" s="1" t="s">
         <v>2513</v>
       </c>
-      <c r="CF194" s="1" t="s">
+      <c r="CH194" s="1" t="s">
         <v>2514</v>
       </c>
-      <c r="CH194" s="1" t="s">
+      <c r="CI194" s="1" t="s">
         <v>2515</v>
-      </c>
-      <c r="CI194" s="1" t="s">
-        <v>2516</v>
       </c>
       <c r="CJ194" s="1" t="s">
         <v>129</v>
@@ -46857,13 +46796,13 @@
         <v>97</v>
       </c>
       <c r="K195" s="1" t="s">
+        <v>2516</v>
+      </c>
+      <c r="L195" s="1" t="s">
         <v>2517</v>
       </c>
-      <c r="L195" s="1" t="s">
+      <c r="N195" s="1" t="s">
         <v>2518</v>
-      </c>
-      <c r="N195" s="1" t="s">
-        <v>2519</v>
       </c>
       <c r="O195" s="1" t="s">
         <v>101</v>
@@ -46947,13 +46886,13 @@
         <v>23</v>
       </c>
       <c r="BD195" s="1" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="BG195" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH195" s="1" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="BN195" s="1" t="s">
         <v>117</v>
@@ -46965,13 +46904,13 @@
         <v>118</v>
       </c>
       <c r="BS195" s="1" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="BT195" s="3">
         <v>36111</v>
       </c>
       <c r="BU195" s="1" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="BV195" s="1" t="s">
         <v>121</v>
@@ -46989,16 +46928,16 @@
         <v>102</v>
       </c>
       <c r="CD195" s="1" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="CE195" s="1" t="s">
         <v>1127</v>
       </c>
       <c r="CF195" s="1" t="s">
+        <v>2524</v>
+      </c>
+      <c r="CH195" s="1" t="s">
         <v>2525</v>
-      </c>
-      <c r="CH195" s="1" t="s">
-        <v>2526</v>
       </c>
       <c r="CI195" s="1" t="s">
         <v>129</v>
@@ -47039,13 +46978,13 @@
         <v>97</v>
       </c>
       <c r="K196" s="1" t="s">
+        <v>2526</v>
+      </c>
+      <c r="L196" s="1" t="s">
         <v>2527</v>
       </c>
-      <c r="L196" s="1" t="s">
+      <c r="N196" s="1" t="s">
         <v>2528</v>
-      </c>
-      <c r="N196" s="1" t="s">
-        <v>2529</v>
       </c>
       <c r="O196" s="1" t="s">
         <v>101</v>
@@ -47126,13 +47065,13 @@
         <v>23</v>
       </c>
       <c r="BD196" s="1" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="BG196" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH196" s="1" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="BI196" s="1" t="s">
         <v>1111</v>
@@ -47147,13 +47086,13 @@
         <v>118</v>
       </c>
       <c r="BS196" s="1" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="BT196" s="3">
         <v>37785</v>
       </c>
       <c r="BU196" s="1" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="BV196" s="1" t="s">
         <v>121</v>
@@ -47171,16 +47110,16 @@
         <v>102</v>
       </c>
       <c r="CD196" s="1" t="s">
+        <v>2533</v>
+      </c>
+      <c r="CE196" s="1" t="s">
         <v>2534</v>
       </c>
-      <c r="CE196" s="1" t="s">
+      <c r="CF196" s="1" t="s">
         <v>2535</v>
       </c>
-      <c r="CF196" s="1" t="s">
+      <c r="CH196" s="1" t="s">
         <v>2536</v>
-      </c>
-      <c r="CH196" s="1" t="s">
-        <v>2537</v>
       </c>
       <c r="CI196" s="1" t="s">
         <v>1117</v>
@@ -47215,16 +47154,16 @@
         <v>95</v>
       </c>
       <c r="I197" s="1" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K197" s="1" t="s">
+        <v>2538</v>
+      </c>
+      <c r="L197" s="1" t="s">
         <v>2539</v>
-      </c>
-      <c r="L197" s="1" t="s">
-        <v>2540</v>
       </c>
       <c r="O197" s="1" t="s">
         <v>101</v>
@@ -47302,7 +47241,7 @@
         <v>20</v>
       </c>
       <c r="BD197" s="1" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="BN197" s="1" t="s">
         <v>117</v>
@@ -47317,7 +47256,7 @@
         <v>0</v>
       </c>
       <c r="CA197" s="1" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="CB197" s="1" t="s">
         <v>123</v>
@@ -47326,7 +47265,7 @@
         <v>102</v>
       </c>
       <c r="CD197" s="1" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="CH197" s="1" t="s">
         <v>129</v>
@@ -47370,13 +47309,13 @@
         <v>97</v>
       </c>
       <c r="K198" s="1" t="s">
+        <v>2542</v>
+      </c>
+      <c r="L198" s="1" t="s">
         <v>2543</v>
       </c>
-      <c r="L198" s="1" t="s">
+      <c r="N198" s="1" t="s">
         <v>2544</v>
-      </c>
-      <c r="N198" s="1" t="s">
-        <v>2545</v>
       </c>
       <c r="O198" s="1" t="s">
         <v>101</v>
@@ -47454,7 +47393,7 @@
         <v>102</v>
       </c>
       <c r="AZ198" s="1" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="BB198" s="1">
         <v>4</v>
@@ -47463,13 +47402,13 @@
         <v>23</v>
       </c>
       <c r="BD198" s="1" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="BG198" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH198" s="1" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="BN198" s="1" t="s">
         <v>117</v>
@@ -47478,7 +47417,7 @@
         <v>106</v>
       </c>
       <c r="BU198" s="1" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="BV198" s="1" t="s">
         <v>121</v>
@@ -47496,16 +47435,16 @@
         <v>102</v>
       </c>
       <c r="CD198" s="1" t="s">
+        <v>2549</v>
+      </c>
+      <c r="CE198" s="1" t="s">
         <v>2550</v>
       </c>
-      <c r="CE198" s="1" t="s">
+      <c r="CF198" s="1" t="s">
         <v>2551</v>
       </c>
-      <c r="CF198" s="1" t="s">
+      <c r="CH198" s="1" t="s">
         <v>2552</v>
-      </c>
-      <c r="CH198" s="1" t="s">
-        <v>2553</v>
       </c>
       <c r="CI198" s="1" t="s">
         <v>129</v>
@@ -47546,13 +47485,13 @@
         <v>97</v>
       </c>
       <c r="K199" s="1" t="s">
+        <v>2553</v>
+      </c>
+      <c r="L199" s="1" t="s">
         <v>2554</v>
       </c>
-      <c r="L199" s="1" t="s">
+      <c r="N199" s="1" t="s">
         <v>2555</v>
-      </c>
-      <c r="N199" s="1" t="s">
-        <v>2556</v>
       </c>
       <c r="O199" s="1" t="s">
         <v>101</v>
@@ -47630,7 +47569,7 @@
         <v>102</v>
       </c>
       <c r="AZ199" s="1" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="BB199" s="1">
         <v>4</v>
@@ -47639,13 +47578,13 @@
         <v>23</v>
       </c>
       <c r="BD199" s="1" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="BG199" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH199" s="1" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="BI199" s="1" t="s">
         <v>1111</v>
@@ -47657,7 +47596,7 @@
         <v>106</v>
       </c>
       <c r="BU199" s="1" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="BV199" s="1" t="s">
         <v>121</v>
@@ -47675,16 +47614,16 @@
         <v>102</v>
       </c>
       <c r="CD199" s="1" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="CE199" s="1" t="s">
         <v>1101</v>
       </c>
       <c r="CF199" s="1" t="s">
+        <v>2561</v>
+      </c>
+      <c r="CH199" s="1" t="s">
         <v>2562</v>
-      </c>
-      <c r="CH199" s="1" t="s">
-        <v>2563</v>
       </c>
       <c r="CI199" s="1" t="s">
         <v>1117</v>
@@ -47725,13 +47664,13 @@
         <v>97</v>
       </c>
       <c r="K200" s="1" t="s">
+        <v>2563</v>
+      </c>
+      <c r="L200" s="1" t="s">
         <v>2564</v>
       </c>
-      <c r="L200" s="1" t="s">
+      <c r="N200" s="1" t="s">
         <v>2565</v>
-      </c>
-      <c r="N200" s="1" t="s">
-        <v>2566</v>
       </c>
       <c r="O200" s="1" t="s">
         <v>101</v>
@@ -47809,7 +47748,7 @@
         <v>102</v>
       </c>
       <c r="AZ200" s="1" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="BB200" s="1">
         <v>4</v>
@@ -47818,13 +47757,13 @@
         <v>23</v>
       </c>
       <c r="BD200" s="1" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="BG200" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH200" s="1" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="BN200" s="1" t="s">
         <v>117</v>
@@ -47833,7 +47772,7 @@
         <v>106</v>
       </c>
       <c r="BU200" s="1" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="BV200" s="1" t="s">
         <v>121</v>
@@ -47854,13 +47793,13 @@
         <v>1101</v>
       </c>
       <c r="CE200" s="1" t="s">
+        <v>2570</v>
+      </c>
+      <c r="CF200" s="1" t="s">
         <v>2571</v>
       </c>
-      <c r="CF200" s="1" t="s">
+      <c r="CH200" s="1" t="s">
         <v>2572</v>
-      </c>
-      <c r="CH200" s="1" t="s">
-        <v>2573</v>
       </c>
       <c r="CI200" s="1" t="s">
         <v>129</v>
@@ -47901,13 +47840,13 @@
         <v>97</v>
       </c>
       <c r="K201" s="1" t="s">
+        <v>2573</v>
+      </c>
+      <c r="L201" s="1" t="s">
         <v>2574</v>
       </c>
-      <c r="L201" s="1" t="s">
+      <c r="N201" s="1" t="s">
         <v>2575</v>
-      </c>
-      <c r="N201" s="1" t="s">
-        <v>2576</v>
       </c>
       <c r="O201" s="1" t="s">
         <v>101</v>
@@ -47985,7 +47924,7 @@
         <v>102</v>
       </c>
       <c r="AZ201" s="1" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="BB201" s="1">
         <v>4</v>
@@ -47994,13 +47933,13 @@
         <v>23</v>
       </c>
       <c r="BD201" s="1" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="BG201" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH201" s="1" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="BI201" s="1" t="s">
         <v>1820</v>
@@ -48018,13 +47957,13 @@
         <v>160</v>
       </c>
       <c r="BS201" s="1" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="BT201" s="3">
         <v>37513</v>
       </c>
       <c r="BU201" s="1" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="BV201" s="1" t="s">
         <v>121</v>
@@ -48042,16 +47981,16 @@
         <v>102</v>
       </c>
       <c r="CD201" s="1" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="CE201" s="1" t="s">
         <v>125</v>
       </c>
       <c r="CF201" s="1" t="s">
+        <v>2582</v>
+      </c>
+      <c r="CH201" s="1" t="s">
         <v>2583</v>
-      </c>
-      <c r="CH201" s="1" t="s">
-        <v>2584</v>
       </c>
       <c r="CI201" s="1" t="s">
         <v>1824</v>
@@ -48092,13 +48031,13 @@
         <v>97</v>
       </c>
       <c r="K202" s="1" t="s">
+        <v>2584</v>
+      </c>
+      <c r="L202" s="1" t="s">
         <v>2585</v>
       </c>
-      <c r="L202" s="1" t="s">
+      <c r="N202" s="1" t="s">
         <v>2586</v>
-      </c>
-      <c r="N202" s="1" t="s">
-        <v>2587</v>
       </c>
       <c r="O202" s="1" t="s">
         <v>101</v>
@@ -48182,16 +48121,16 @@
         <v>23</v>
       </c>
       <c r="BD202" s="1" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="BG202" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH202" s="1" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="BI202" s="1" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="BN202" s="1" t="s">
         <v>117</v>
@@ -48203,13 +48142,13 @@
         <v>229</v>
       </c>
       <c r="BS202" s="1" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="BT202" s="3">
         <v>41024</v>
       </c>
       <c r="BU202" s="1" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="BV202" s="1" t="s">
         <v>121</v>
@@ -48227,19 +48166,19 @@
         <v>102</v>
       </c>
       <c r="CD202" s="1" t="s">
+        <v>2591</v>
+      </c>
+      <c r="CE202" s="1" t="s">
         <v>2592</v>
       </c>
-      <c r="CE202" s="1" t="s">
+      <c r="CF202" s="1" t="s">
         <v>2593</v>
       </c>
-      <c r="CF202" s="1" t="s">
+      <c r="CH202" s="1" t="s">
+        <v>2514</v>
+      </c>
+      <c r="CI202" s="1" t="s">
         <v>2594</v>
-      </c>
-      <c r="CH202" s="1" t="s">
-        <v>2515</v>
-      </c>
-      <c r="CI202" s="1" t="s">
-        <v>2595</v>
       </c>
       <c r="CJ202" s="1" t="s">
         <v>129</v>
@@ -48277,10 +48216,10 @@
         <v>97</v>
       </c>
       <c r="K203" s="1" t="s">
+        <v>2595</v>
+      </c>
+      <c r="L203" s="1" t="s">
         <v>2596</v>
-      </c>
-      <c r="L203" s="1" t="s">
-        <v>2597</v>
       </c>
       <c r="O203" s="1" t="s">
         <v>101</v>
@@ -48307,10 +48246,10 @@
         <v>107</v>
       </c>
       <c r="AG203" s="1" t="s">
+        <v>2421</v>
+      </c>
+      <c r="AH203" s="1" t="s">
         <v>2422</v>
-      </c>
-      <c r="AH203" s="1" t="s">
-        <v>2423</v>
       </c>
       <c r="AJ203" s="1" t="s">
         <v>110</v>
@@ -48352,7 +48291,7 @@
         <v>102</v>
       </c>
       <c r="AZ203" s="1" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="BB203" s="1">
         <v>2</v>
@@ -48361,7 +48300,7 @@
         <v>21</v>
       </c>
       <c r="BD203" s="1" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="BN203" s="1" t="s">
         <v>117</v>
@@ -48388,7 +48327,7 @@
         <v>102</v>
       </c>
       <c r="CD203" s="1" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="CH203" s="1" t="s">
         <v>1814</v>
@@ -48432,13 +48371,13 @@
         <v>97</v>
       </c>
       <c r="K204" s="1" t="s">
+        <v>2599</v>
+      </c>
+      <c r="L204" s="1" t="s">
         <v>2600</v>
       </c>
-      <c r="L204" s="1" t="s">
+      <c r="N204" s="1" t="s">
         <v>2601</v>
-      </c>
-      <c r="N204" s="1" t="s">
-        <v>2602</v>
       </c>
       <c r="O204" s="1" t="s">
         <v>101</v>
@@ -48513,7 +48452,7 @@
         <v>102</v>
       </c>
       <c r="AZ204" s="1" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="BB204" s="1">
         <v>4</v>
@@ -48522,13 +48461,13 @@
         <v>23</v>
       </c>
       <c r="BD204" s="1" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="BG204" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH204" s="1" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="BI204" s="1" t="s">
         <v>731</v>
@@ -48543,13 +48482,13 @@
         <v>103</v>
       </c>
       <c r="BS204" s="1" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="BT204" s="3">
         <v>37336</v>
       </c>
       <c r="BU204" s="1" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="BV204" s="1" t="s">
         <v>121</v>
@@ -48567,16 +48506,16 @@
         <v>102</v>
       </c>
       <c r="CD204" s="1" t="s">
+        <v>2607</v>
+      </c>
+      <c r="CE204" s="1" t="s">
         <v>2608</v>
       </c>
-      <c r="CE204" s="1" t="s">
+      <c r="CF204" s="1" t="s">
         <v>2609</v>
       </c>
-      <c r="CF204" s="1" t="s">
+      <c r="CH204" s="1" t="s">
         <v>2610</v>
-      </c>
-      <c r="CH204" s="1" t="s">
-        <v>2611</v>
       </c>
       <c r="CI204" s="1" t="s">
         <v>737</v>
@@ -48617,13 +48556,13 @@
         <v>97</v>
       </c>
       <c r="K205" s="1" t="s">
+        <v>2611</v>
+      </c>
+      <c r="L205" s="1" t="s">
         <v>2612</v>
       </c>
-      <c r="L205" s="1" t="s">
+      <c r="N205" s="1" t="s">
         <v>2613</v>
-      </c>
-      <c r="N205" s="1" t="s">
-        <v>2614</v>
       </c>
       <c r="O205" s="1" t="s">
         <v>101</v>
@@ -48701,7 +48640,7 @@
         <v>102</v>
       </c>
       <c r="AZ205" s="1" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="BB205" s="1">
         <v>4</v>
@@ -48710,16 +48649,16 @@
         <v>23</v>
       </c>
       <c r="BD205" s="1" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="BG205" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH205" s="1" t="s">
+        <v>2616</v>
+      </c>
+      <c r="BI205" s="1" t="s">
         <v>2617</v>
-      </c>
-      <c r="BI205" s="1" t="s">
-        <v>2618</v>
       </c>
       <c r="BN205" s="1" t="s">
         <v>117</v>
@@ -48728,7 +48667,7 @@
         <v>106</v>
       </c>
       <c r="BU205" s="1" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="BV205" s="1" t="s">
         <v>121</v>
@@ -48746,19 +48685,19 @@
         <v>102</v>
       </c>
       <c r="CD205" s="1" t="s">
+        <v>2619</v>
+      </c>
+      <c r="CE205" s="1" t="s">
         <v>2620</v>
       </c>
-      <c r="CE205" s="1" t="s">
+      <c r="CF205" s="1" t="s">
         <v>2621</v>
       </c>
-      <c r="CF205" s="1" t="s">
+      <c r="CH205" s="1" t="s">
         <v>2622</v>
       </c>
-      <c r="CH205" s="1" t="s">
+      <c r="CI205" s="1" t="s">
         <v>2623</v>
-      </c>
-      <c r="CI205" s="1" t="s">
-        <v>2624</v>
       </c>
       <c r="CJ205" s="1" t="s">
         <v>129</v>
@@ -48796,13 +48735,13 @@
         <v>97</v>
       </c>
       <c r="K206" s="1" t="s">
+        <v>2624</v>
+      </c>
+      <c r="L206" s="1" t="s">
         <v>2625</v>
       </c>
-      <c r="L206" s="1" t="s">
+      <c r="N206" s="1" t="s">
         <v>2626</v>
-      </c>
-      <c r="N206" s="1" t="s">
-        <v>2627</v>
       </c>
       <c r="O206" s="1" t="s">
         <v>101</v>
@@ -48889,13 +48828,13 @@
         <v>23</v>
       </c>
       <c r="BD206" s="1" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="BG206" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH206" s="1" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="BN206" s="1" t="s">
         <v>117</v>
@@ -48904,7 +48843,7 @@
         <v>106</v>
       </c>
       <c r="BU206" s="1" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="BV206" s="1" t="s">
         <v>121</v>
@@ -48922,16 +48861,16 @@
         <v>102</v>
       </c>
       <c r="CD206" s="1" t="s">
+        <v>2630</v>
+      </c>
+      <c r="CE206" s="1" t="s">
         <v>2631</v>
       </c>
-      <c r="CE206" s="1" t="s">
+      <c r="CF206" s="1" t="s">
         <v>2632</v>
       </c>
-      <c r="CF206" s="1" t="s">
+      <c r="CH206" s="1" t="s">
         <v>2633</v>
-      </c>
-      <c r="CH206" s="1" t="s">
-        <v>2634</v>
       </c>
       <c r="CI206" s="1" t="s">
         <v>129</v>
@@ -48972,13 +48911,13 @@
         <v>97</v>
       </c>
       <c r="K207" s="1" t="s">
+        <v>2634</v>
+      </c>
+      <c r="L207" s="1" t="s">
         <v>2635</v>
       </c>
-      <c r="L207" s="1" t="s">
+      <c r="N207" s="1" t="s">
         <v>2636</v>
-      </c>
-      <c r="N207" s="1" t="s">
-        <v>2637</v>
       </c>
       <c r="O207" s="1" t="s">
         <v>101</v>
@@ -49016,12 +48955,7 @@
       <c r="AB207" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AC207" s="3">
-        <v>43008</v>
-      </c>
-      <c r="AD207" s="1" t="s">
-        <v>2638</v>
-      </c>
+      <c r="AC207" s="3"/>
       <c r="AF207" s="1" t="s">
         <v>107</v>
       </c>
@@ -49071,7 +49005,7 @@
         <v>102</v>
       </c>
       <c r="AZ207" s="1" t="s">
-        <v>2639</v>
+        <v>2637</v>
       </c>
       <c r="BB207" s="1">
         <v>4</v>
@@ -49080,16 +49014,16 @@
         <v>23</v>
       </c>
       <c r="BD207" s="1" t="s">
-        <v>2640</v>
+        <v>2638</v>
       </c>
       <c r="BG207" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH207" s="1" t="s">
-        <v>2641</v>
+        <v>2639</v>
       </c>
       <c r="BI207" s="1" t="s">
-        <v>2642</v>
+        <v>2640</v>
       </c>
       <c r="BN207" s="1" t="s">
         <v>117</v>
@@ -49098,7 +49032,7 @@
         <v>106</v>
       </c>
       <c r="BU207" s="1" t="s">
-        <v>2643</v>
+        <v>2641</v>
       </c>
       <c r="BV207" s="1" t="s">
         <v>121</v>
@@ -49122,16 +49056,16 @@
         <v>1154</v>
       </c>
       <c r="CE207" s="1" t="s">
+        <v>2642</v>
+      </c>
+      <c r="CF207" s="1" t="s">
+        <v>2643</v>
+      </c>
+      <c r="CH207" s="1" t="s">
         <v>2644</v>
       </c>
-      <c r="CF207" s="1" t="s">
+      <c r="CI207" s="1" t="s">
         <v>2645</v>
-      </c>
-      <c r="CH207" s="1" t="s">
-        <v>2646</v>
-      </c>
-      <c r="CI207" s="1" t="s">
-        <v>2647</v>
       </c>
       <c r="CJ207" s="1" t="s">
         <v>129</v>
@@ -49151,7 +49085,7 @@
         <v>1415</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>2648</v>
+        <v>2646</v>
       </c>
       <c r="F208" s="1" t="s">
         <v>102</v>
@@ -49163,16 +49097,16 @@
         <v>95</v>
       </c>
       <c r="I208" s="1" t="s">
-        <v>2649</v>
+        <v>2647</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K208" s="1" t="s">
-        <v>2650</v>
+        <v>2648</v>
       </c>
       <c r="L208" s="1" t="s">
-        <v>2651</v>
+        <v>2649</v>
       </c>
       <c r="O208" s="1" t="s">
         <v>111</v>
@@ -49196,7 +49130,7 @@
         <v>107</v>
       </c>
       <c r="AG208" s="1" t="s">
-        <v>2652</v>
+        <v>2650</v>
       </c>
       <c r="AH208" s="1" t="s">
         <v>373</v>
@@ -49241,7 +49175,7 @@
         <v>0</v>
       </c>
       <c r="CA208" s="1" t="s">
-        <v>2653</v>
+        <v>2651</v>
       </c>
       <c r="CB208" s="1" t="s">
         <v>123</v>
@@ -49250,10 +49184,10 @@
         <v>102</v>
       </c>
       <c r="CD208" s="1" t="s">
-        <v>2654</v>
+        <v>2652</v>
       </c>
       <c r="CF208" s="1" t="s">
-        <v>2651</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="209" spans="1:88" x14ac:dyDescent="0.25">
@@ -49270,7 +49204,7 @@
         <v>1415</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>2655</v>
+        <v>2653</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>102</v>
@@ -49282,16 +49216,16 @@
         <v>95</v>
       </c>
       <c r="I209" s="1" t="s">
-        <v>2656</v>
+        <v>2654</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K209" s="1" t="s">
-        <v>2657</v>
+        <v>2655</v>
       </c>
       <c r="L209" s="1" t="s">
-        <v>2658</v>
+        <v>2656</v>
       </c>
       <c r="O209" s="1" t="s">
         <v>111</v>
@@ -49318,7 +49252,7 @@
         <v>107</v>
       </c>
       <c r="AG209" s="1" t="s">
-        <v>2652</v>
+        <v>2650</v>
       </c>
       <c r="AH209" s="1" t="s">
         <v>373</v>
@@ -49363,7 +49297,7 @@
         <v>0</v>
       </c>
       <c r="CA209" s="1" t="s">
-        <v>2659</v>
+        <v>2657</v>
       </c>
       <c r="CB209" s="1" t="s">
         <v>123</v>
@@ -49372,10 +49306,10 @@
         <v>102</v>
       </c>
       <c r="CD209" s="1" t="s">
-        <v>2654</v>
+        <v>2652</v>
       </c>
       <c r="CF209" s="1" t="s">
-        <v>2658</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="210" spans="1:88" x14ac:dyDescent="0.25">
@@ -49410,10 +49344,10 @@
         <v>97</v>
       </c>
       <c r="K210" s="1" t="s">
-        <v>2660</v>
+        <v>2658</v>
       </c>
       <c r="L210" s="1" t="s">
-        <v>2661</v>
+        <v>2659</v>
       </c>
       <c r="O210" s="1" t="s">
         <v>111</v>
@@ -49437,7 +49371,7 @@
         <v>107</v>
       </c>
       <c r="AG210" s="1" t="s">
-        <v>2652</v>
+        <v>2650</v>
       </c>
       <c r="AH210" s="1" t="s">
         <v>373</v>
@@ -49491,10 +49425,10 @@
         <v>102</v>
       </c>
       <c r="CD210" s="1" t="s">
-        <v>2654</v>
+        <v>2652</v>
       </c>
       <c r="CF210" s="1" t="s">
-        <v>2661</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="211" spans="1:88" x14ac:dyDescent="0.25">
@@ -49511,7 +49445,7 @@
         <v>185</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>2662</v>
+        <v>2660</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>93</v>
@@ -49523,16 +49457,16 @@
         <v>95</v>
       </c>
       <c r="I211" s="1" t="s">
-        <v>2663</v>
+        <v>2661</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K211" s="1" t="s">
-        <v>2664</v>
+        <v>2662</v>
       </c>
       <c r="L211" s="1" t="s">
-        <v>2665</v>
+        <v>2663</v>
       </c>
       <c r="O211" s="1" t="s">
         <v>111</v>
@@ -49601,7 +49535,7 @@
         <v>0</v>
       </c>
       <c r="CA211" s="1" t="s">
-        <v>2666</v>
+        <v>2664</v>
       </c>
       <c r="CB211" s="1" t="s">
         <v>123</v>
@@ -49610,10 +49544,10 @@
         <v>102</v>
       </c>
       <c r="CD211" s="1" t="s">
-        <v>2654</v>
+        <v>2652</v>
       </c>
       <c r="CF211" s="1" t="s">
-        <v>2665</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="212" spans="1:88" x14ac:dyDescent="0.25">
@@ -49630,7 +49564,7 @@
         <v>1415</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>2648</v>
+        <v>2646</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>93</v>
@@ -49642,16 +49576,16 @@
         <v>95</v>
       </c>
       <c r="I212" s="1" t="s">
-        <v>2649</v>
+        <v>2647</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K212" s="1" t="s">
-        <v>2667</v>
+        <v>2665</v>
       </c>
       <c r="L212" s="1" t="s">
-        <v>2668</v>
+        <v>2666</v>
       </c>
       <c r="O212" s="1" t="s">
         <v>111</v>
@@ -49720,7 +49654,7 @@
         <v>0</v>
       </c>
       <c r="CA212" s="1" t="s">
-        <v>2653</v>
+        <v>2651</v>
       </c>
       <c r="CB212" s="1" t="s">
         <v>123</v>
@@ -49729,10 +49663,10 @@
         <v>102</v>
       </c>
       <c r="CD212" s="1" t="s">
-        <v>2654</v>
+        <v>2652</v>
       </c>
       <c r="CF212" s="1" t="s">
-        <v>2668</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="213" spans="1:88" x14ac:dyDescent="0.25">
@@ -49749,7 +49683,7 @@
         <v>185</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>2662</v>
+        <v>2660</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>93</v>
@@ -49761,16 +49695,16 @@
         <v>95</v>
       </c>
       <c r="I213" s="1" t="s">
-        <v>2663</v>
+        <v>2661</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K213" s="1" t="s">
-        <v>2669</v>
+        <v>2667</v>
       </c>
       <c r="L213" s="1" t="s">
-        <v>2670</v>
+        <v>2668</v>
       </c>
       <c r="O213" s="1" t="s">
         <v>111</v>
@@ -49839,7 +49773,7 @@
         <v>0</v>
       </c>
       <c r="CA213" s="1" t="s">
-        <v>2666</v>
+        <v>2664</v>
       </c>
       <c r="CB213" s="1" t="s">
         <v>123</v>
@@ -49848,10 +49782,10 @@
         <v>102</v>
       </c>
       <c r="CD213" s="1" t="s">
-        <v>2654</v>
+        <v>2652</v>
       </c>
       <c r="CF213" s="1" t="s">
-        <v>2670</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="214" spans="1:88" x14ac:dyDescent="0.25">
@@ -49886,10 +49820,10 @@
         <v>97</v>
       </c>
       <c r="K214" s="1" t="s">
-        <v>2671</v>
+        <v>2669</v>
       </c>
       <c r="L214" s="1" t="s">
-        <v>2672</v>
+        <v>2670</v>
       </c>
       <c r="O214" s="1" t="s">
         <v>111</v>
@@ -49967,10 +49901,10 @@
         <v>102</v>
       </c>
       <c r="CD214" s="1" t="s">
-        <v>2654</v>
+        <v>2652</v>
       </c>
       <c r="CF214" s="1" t="s">
-        <v>2672</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="215" spans="1:88" x14ac:dyDescent="0.25">
@@ -50005,13 +49939,13 @@
         <v>97</v>
       </c>
       <c r="K215" s="1" t="s">
+        <v>2671</v>
+      </c>
+      <c r="L215" s="1" t="s">
+        <v>2672</v>
+      </c>
+      <c r="N215" s="1" t="s">
         <v>2673</v>
-      </c>
-      <c r="L215" s="1" t="s">
-        <v>2674</v>
-      </c>
-      <c r="N215" s="1" t="s">
-        <v>2675</v>
       </c>
       <c r="O215" s="1" t="s">
         <v>101</v>
@@ -50040,12 +49974,7 @@
       <c r="AA215" s="1">
         <v>0</v>
       </c>
-      <c r="AC215" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD215" s="1" t="s">
-        <v>2638</v>
-      </c>
+      <c r="AC215" s="3"/>
       <c r="AF215" s="1" t="s">
         <v>107</v>
       </c>
@@ -50098,13 +50027,13 @@
         <v>23</v>
       </c>
       <c r="BD215" s="1" t="s">
-        <v>2676</v>
+        <v>2674</v>
       </c>
       <c r="BG215" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH215" s="1" t="s">
-        <v>2677</v>
+        <v>2675</v>
       </c>
       <c r="BI215" s="1" t="s">
         <v>377</v>
@@ -50119,13 +50048,13 @@
         <v>103</v>
       </c>
       <c r="BS215" s="1" t="s">
-        <v>2678</v>
+        <v>2676</v>
       </c>
       <c r="BT215" s="3">
         <v>36306</v>
       </c>
       <c r="BU215" s="1" t="s">
-        <v>2679</v>
+        <v>2677</v>
       </c>
       <c r="BV215" s="1" t="s">
         <v>121</v>
@@ -50143,16 +50072,16 @@
         <v>102</v>
       </c>
       <c r="CD215" s="1" t="s">
+        <v>2678</v>
+      </c>
+      <c r="CE215" s="1" t="s">
+        <v>2679</v>
+      </c>
+      <c r="CF215" s="1" t="s">
         <v>2680</v>
       </c>
-      <c r="CE215" s="1" t="s">
+      <c r="CH215" s="1" t="s">
         <v>2681</v>
-      </c>
-      <c r="CF215" s="1" t="s">
-        <v>2682</v>
-      </c>
-      <c r="CH215" s="1" t="s">
-        <v>2683</v>
       </c>
       <c r="CI215" s="1" t="s">
         <v>384</v>
@@ -50193,13 +50122,13 @@
         <v>97</v>
       </c>
       <c r="K216" s="1" t="s">
+        <v>2682</v>
+      </c>
+      <c r="L216" s="1" t="s">
+        <v>2683</v>
+      </c>
+      <c r="N216" s="1" t="s">
         <v>2684</v>
-      </c>
-      <c r="L216" s="1" t="s">
-        <v>2685</v>
-      </c>
-      <c r="N216" s="1" t="s">
-        <v>2686</v>
       </c>
       <c r="O216" s="1" t="s">
         <v>101</v>
@@ -50228,12 +50157,7 @@
       <c r="AA216" s="1">
         <v>0</v>
       </c>
-      <c r="AC216" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD216" s="1" t="s">
-        <v>2638</v>
-      </c>
+      <c r="AC216" s="3"/>
       <c r="AF216" s="1" t="s">
         <v>107</v>
       </c>
@@ -50289,13 +50213,13 @@
         <v>23</v>
       </c>
       <c r="BD216" s="1" t="s">
-        <v>2687</v>
+        <v>2685</v>
       </c>
       <c r="BG216" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH216" s="1" t="s">
-        <v>2688</v>
+        <v>2686</v>
       </c>
       <c r="BN216" s="1" t="s">
         <v>117</v>
@@ -50304,7 +50228,7 @@
         <v>106</v>
       </c>
       <c r="BU216" s="1" t="s">
-        <v>2689</v>
+        <v>2687</v>
       </c>
       <c r="BV216" s="1" t="s">
         <v>121</v>
@@ -50322,16 +50246,16 @@
         <v>102</v>
       </c>
       <c r="CD216" s="1" t="s">
-        <v>2690</v>
+        <v>2688</v>
       </c>
       <c r="CE216" s="1" t="s">
         <v>125</v>
       </c>
       <c r="CF216" s="1" t="s">
-        <v>2691</v>
+        <v>2689</v>
       </c>
       <c r="CH216" s="1" t="s">
-        <v>2692</v>
+        <v>2690</v>
       </c>
       <c r="CI216" s="1" t="s">
         <v>129</v>
@@ -50372,13 +50296,13 @@
         <v>97</v>
       </c>
       <c r="K217" s="1" t="s">
+        <v>2691</v>
+      </c>
+      <c r="L217" s="1" t="s">
+        <v>2692</v>
+      </c>
+      <c r="N217" s="1" t="s">
         <v>2693</v>
-      </c>
-      <c r="L217" s="1" t="s">
-        <v>2694</v>
-      </c>
-      <c r="N217" s="1" t="s">
-        <v>2695</v>
       </c>
       <c r="O217" s="1" t="s">
         <v>101</v>
@@ -50410,12 +50334,7 @@
       <c r="AB217" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AC217" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD217" s="1" t="s">
-        <v>2638</v>
-      </c>
+      <c r="AC217" s="3"/>
       <c r="AF217" s="1" t="s">
         <v>107</v>
       </c>
@@ -50468,13 +50387,13 @@
         <v>23</v>
       </c>
       <c r="BD217" s="1" t="s">
-        <v>2696</v>
+        <v>2694</v>
       </c>
       <c r="BG217" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH217" s="1" t="s">
-        <v>2697</v>
+        <v>2695</v>
       </c>
       <c r="BI217" s="1" t="s">
         <v>1111</v>
@@ -50489,13 +50408,13 @@
         <v>103</v>
       </c>
       <c r="BS217" s="1" t="s">
-        <v>2698</v>
+        <v>2696</v>
       </c>
       <c r="BT217" s="3">
         <v>38234</v>
       </c>
       <c r="BU217" s="1" t="s">
-        <v>2699</v>
+        <v>2697</v>
       </c>
       <c r="BV217" s="1" t="s">
         <v>121</v>
@@ -50513,16 +50432,16 @@
         <v>102</v>
       </c>
       <c r="CD217" s="1" t="s">
-        <v>2700</v>
+        <v>2698</v>
       </c>
       <c r="CE217" s="1" t="s">
         <v>993</v>
       </c>
       <c r="CF217" s="1" t="s">
-        <v>2701</v>
+        <v>2699</v>
       </c>
       <c r="CH217" s="1" t="s">
-        <v>2702</v>
+        <v>2700</v>
       </c>
       <c r="CI217" s="1" t="s">
         <v>1117</v>
@@ -50563,13 +50482,13 @@
         <v>97</v>
       </c>
       <c r="K218" s="1" t="s">
+        <v>2701</v>
+      </c>
+      <c r="L218" s="1" t="s">
+        <v>2702</v>
+      </c>
+      <c r="N218" s="1" t="s">
         <v>2703</v>
-      </c>
-      <c r="L218" s="1" t="s">
-        <v>2704</v>
-      </c>
-      <c r="N218" s="1" t="s">
-        <v>2705</v>
       </c>
       <c r="O218" s="1" t="s">
         <v>101</v>
@@ -50598,12 +50517,7 @@
       <c r="AA218" s="1">
         <v>0</v>
       </c>
-      <c r="AC218" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD218" s="1" t="s">
-        <v>2638</v>
-      </c>
+      <c r="AC218" s="3"/>
       <c r="AF218" s="1" t="s">
         <v>107</v>
       </c>
@@ -50659,16 +50573,16 @@
         <v>23</v>
       </c>
       <c r="BD218" s="1" t="s">
-        <v>2706</v>
+        <v>2704</v>
       </c>
       <c r="BG218" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH218" s="1" t="s">
-        <v>2707</v>
+        <v>2705</v>
       </c>
       <c r="BI218" s="1" t="s">
-        <v>2708</v>
+        <v>2706</v>
       </c>
       <c r="BN218" s="1" t="s">
         <v>117</v>
@@ -50677,7 +50591,7 @@
         <v>106</v>
       </c>
       <c r="BU218" s="1" t="s">
-        <v>2709</v>
+        <v>2707</v>
       </c>
       <c r="BV218" s="1" t="s">
         <v>121</v>
@@ -50695,19 +50609,19 @@
         <v>102</v>
       </c>
       <c r="CD218" s="1" t="s">
+        <v>2708</v>
+      </c>
+      <c r="CE218" s="1" t="s">
+        <v>2709</v>
+      </c>
+      <c r="CF218" s="1" t="s">
         <v>2710</v>
       </c>
-      <c r="CE218" s="1" t="s">
+      <c r="CH218" s="1" t="s">
         <v>2711</v>
       </c>
-      <c r="CF218" s="1" t="s">
+      <c r="CI218" s="1" t="s">
         <v>2712</v>
-      </c>
-      <c r="CH218" s="1" t="s">
-        <v>2713</v>
-      </c>
-      <c r="CI218" s="1" t="s">
-        <v>2714</v>
       </c>
       <c r="CJ218" s="1" t="s">
         <v>129</v>
@@ -50745,13 +50659,13 @@
         <v>97</v>
       </c>
       <c r="K219" s="1" t="s">
+        <v>2713</v>
+      </c>
+      <c r="L219" s="1" t="s">
+        <v>2714</v>
+      </c>
+      <c r="N219" s="1" t="s">
         <v>2715</v>
-      </c>
-      <c r="L219" s="1" t="s">
-        <v>2716</v>
-      </c>
-      <c r="N219" s="1" t="s">
-        <v>2717</v>
       </c>
       <c r="O219" s="1" t="s">
         <v>101</v>
@@ -50780,12 +50694,7 @@
       <c r="AA219" s="1">
         <v>0</v>
       </c>
-      <c r="AC219" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD219" s="1" t="s">
-        <v>2638</v>
-      </c>
+      <c r="AC219" s="3"/>
       <c r="AF219" s="1" t="s">
         <v>107</v>
       </c>
@@ -50838,16 +50747,16 @@
         <v>23</v>
       </c>
       <c r="BD219" s="1" t="s">
-        <v>2718</v>
+        <v>2716</v>
       </c>
       <c r="BG219" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH219" s="1" t="s">
-        <v>2719</v>
+        <v>2717</v>
       </c>
       <c r="BI219" s="1" t="s">
-        <v>2720</v>
+        <v>2718</v>
       </c>
       <c r="BN219" s="1" t="s">
         <v>117</v>
@@ -50859,13 +50768,13 @@
         <v>229</v>
       </c>
       <c r="BS219" s="1" t="s">
-        <v>2721</v>
+        <v>2719</v>
       </c>
       <c r="BT219" s="3">
         <v>37069</v>
       </c>
       <c r="BU219" s="1" t="s">
-        <v>2722</v>
+        <v>2720</v>
       </c>
       <c r="BV219" s="1" t="s">
         <v>121</v>
@@ -50886,16 +50795,16 @@
         <v>746</v>
       </c>
       <c r="CE219" s="1" t="s">
+        <v>2721</v>
+      </c>
+      <c r="CF219" s="1" t="s">
+        <v>2722</v>
+      </c>
+      <c r="CH219" s="1" t="s">
         <v>2723</v>
       </c>
-      <c r="CF219" s="1" t="s">
+      <c r="CI219" s="1" t="s">
         <v>2724</v>
-      </c>
-      <c r="CH219" s="1" t="s">
-        <v>2725</v>
-      </c>
-      <c r="CI219" s="1" t="s">
-        <v>2726</v>
       </c>
       <c r="CJ219" s="1" t="s">
         <v>129</v>
@@ -50933,13 +50842,13 @@
         <v>97</v>
       </c>
       <c r="K220" s="1" t="s">
+        <v>2725</v>
+      </c>
+      <c r="L220" s="1" t="s">
+        <v>2726</v>
+      </c>
+      <c r="N220" s="1" t="s">
         <v>2727</v>
-      </c>
-      <c r="L220" s="1" t="s">
-        <v>2728</v>
-      </c>
-      <c r="N220" s="1" t="s">
-        <v>2729</v>
       </c>
       <c r="O220" s="1" t="s">
         <v>101</v>
@@ -50968,12 +50877,7 @@
       <c r="AA220" s="1">
         <v>0</v>
       </c>
-      <c r="AC220" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD220" s="1" t="s">
-        <v>2638</v>
-      </c>
+      <c r="AC220" s="3"/>
       <c r="AF220" s="1" t="s">
         <v>107</v>
       </c>
@@ -51029,13 +50933,13 @@
         <v>23</v>
       </c>
       <c r="BD220" s="1" t="s">
-        <v>2730</v>
+        <v>2728</v>
       </c>
       <c r="BG220" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH220" s="1" t="s">
-        <v>2731</v>
+        <v>2729</v>
       </c>
       <c r="BN220" s="1" t="s">
         <v>117</v>
@@ -51044,7 +50948,7 @@
         <v>106</v>
       </c>
       <c r="BU220" s="1" t="s">
-        <v>2732</v>
+        <v>2730</v>
       </c>
       <c r="BV220" s="1" t="s">
         <v>121</v>
@@ -51062,16 +50966,16 @@
         <v>102</v>
       </c>
       <c r="CD220" s="1" t="s">
+        <v>2731</v>
+      </c>
+      <c r="CE220" s="1" t="s">
+        <v>2732</v>
+      </c>
+      <c r="CF220" s="1" t="s">
         <v>2733</v>
       </c>
-      <c r="CE220" s="1" t="s">
+      <c r="CH220" s="1" t="s">
         <v>2734</v>
-      </c>
-      <c r="CF220" s="1" t="s">
-        <v>2735</v>
-      </c>
-      <c r="CH220" s="1" t="s">
-        <v>2736</v>
       </c>
       <c r="CI220" s="1" t="s">
         <v>129</v>
@@ -51112,13 +51016,13 @@
         <v>97</v>
       </c>
       <c r="K221" s="1" t="s">
+        <v>2735</v>
+      </c>
+      <c r="L221" s="1" t="s">
+        <v>2736</v>
+      </c>
+      <c r="N221" s="1" t="s">
         <v>2737</v>
-      </c>
-      <c r="L221" s="1" t="s">
-        <v>2738</v>
-      </c>
-      <c r="N221" s="1" t="s">
-        <v>2739</v>
       </c>
       <c r="O221" s="1" t="s">
         <v>101</v>
@@ -51147,12 +51051,7 @@
       <c r="AA221" s="1">
         <v>0</v>
       </c>
-      <c r="AC221" s="3">
-        <v>43404</v>
-      </c>
-      <c r="AD221" s="1" t="s">
-        <v>2740</v>
-      </c>
+      <c r="AC221" s="3"/>
       <c r="AF221" s="1" t="s">
         <v>107</v>
       </c>
@@ -51199,7 +51098,7 @@
         <v>102</v>
       </c>
       <c r="AZ221" s="1" t="s">
-        <v>2741</v>
+        <v>2738</v>
       </c>
       <c r="BB221" s="1">
         <v>4</v>
@@ -51208,16 +51107,16 @@
         <v>23</v>
       </c>
       <c r="BD221" s="1" t="s">
-        <v>2742</v>
+        <v>2739</v>
       </c>
       <c r="BG221" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH221" s="1" t="s">
-        <v>2743</v>
+        <v>2740</v>
       </c>
       <c r="BI221" s="1" t="s">
-        <v>2744</v>
+        <v>2741</v>
       </c>
       <c r="BN221" s="1" t="s">
         <v>117</v>
@@ -51229,13 +51128,13 @@
         <v>229</v>
       </c>
       <c r="BS221" s="1" t="s">
-        <v>2745</v>
+        <v>2742</v>
       </c>
       <c r="BT221" s="3">
         <v>35125</v>
       </c>
       <c r="BU221" s="1" t="s">
-        <v>2746</v>
+        <v>2743</v>
       </c>
       <c r="BV221" s="1" t="s">
         <v>121</v>
@@ -51253,19 +51152,19 @@
         <v>102</v>
       </c>
       <c r="CD221" s="1" t="s">
-        <v>2747</v>
+        <v>2744</v>
       </c>
       <c r="CE221" s="1" t="s">
         <v>124</v>
       </c>
       <c r="CF221" s="1" t="s">
-        <v>2748</v>
+        <v>2745</v>
       </c>
       <c r="CH221" s="1" t="s">
-        <v>2749</v>
+        <v>2746</v>
       </c>
       <c r="CI221" s="1" t="s">
-        <v>2750</v>
+        <v>2747</v>
       </c>
       <c r="CJ221" s="1" t="s">
         <v>129</v>
@@ -51303,13 +51202,13 @@
         <v>97</v>
       </c>
       <c r="K222" s="1" t="s">
-        <v>2751</v>
+        <v>2748</v>
       </c>
       <c r="L222" s="1" t="s">
-        <v>2752</v>
+        <v>2749</v>
       </c>
       <c r="N222" s="1" t="s">
-        <v>2753</v>
+        <v>2750</v>
       </c>
       <c r="O222" s="1" t="s">
         <v>101</v>
@@ -51345,7 +51244,7 @@
         <v>107</v>
       </c>
       <c r="AG222" s="1" t="s">
-        <v>2754</v>
+        <v>2751</v>
       </c>
       <c r="AH222" s="1" t="s">
         <v>2111</v>
@@ -51396,7 +51295,7 @@
         <v>23</v>
       </c>
       <c r="BD222" s="1" t="s">
-        <v>2755</v>
+        <v>2752</v>
       </c>
       <c r="BG222" s="1" t="s">
         <v>114</v>
@@ -51405,7 +51304,7 @@
         <v>117</v>
       </c>
       <c r="BU222" s="1" t="s">
-        <v>2756</v>
+        <v>2753</v>
       </c>
       <c r="BV222" s="1" t="s">
         <v>121</v>
@@ -51423,13 +51322,13 @@
         <v>102</v>
       </c>
       <c r="CD222" s="1" t="s">
-        <v>2757</v>
+        <v>2754</v>
       </c>
       <c r="CE222" s="1" t="s">
-        <v>2758</v>
+        <v>2755</v>
       </c>
       <c r="CF222" s="1" t="s">
-        <v>2759</v>
+        <v>2756</v>
       </c>
       <c r="CH222" s="1" t="s">
         <v>129</v>
@@ -51473,13 +51372,13 @@
         <v>97</v>
       </c>
       <c r="K223" s="1" t="s">
-        <v>2760</v>
+        <v>2757</v>
       </c>
       <c r="L223" s="1" t="s">
-        <v>2761</v>
+        <v>2758</v>
       </c>
       <c r="N223" s="1" t="s">
-        <v>2762</v>
+        <v>2759</v>
       </c>
       <c r="O223" s="1" t="s">
         <v>101</v>
@@ -51566,13 +51465,13 @@
         <v>23</v>
       </c>
       <c r="BD223" s="1" t="s">
-        <v>2763</v>
+        <v>2760</v>
       </c>
       <c r="BG223" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH223" s="1" t="s">
-        <v>2764</v>
+        <v>2761</v>
       </c>
       <c r="BN223" s="1" t="s">
         <v>117</v>
@@ -51581,7 +51480,7 @@
         <v>106</v>
       </c>
       <c r="BU223" s="1" t="s">
-        <v>2765</v>
+        <v>2762</v>
       </c>
       <c r="BV223" s="1" t="s">
         <v>121</v>
@@ -51602,13 +51501,13 @@
         <v>334</v>
       </c>
       <c r="CE223" s="1" t="s">
-        <v>2766</v>
+        <v>2763</v>
       </c>
       <c r="CF223" s="1" t="s">
-        <v>2767</v>
+        <v>2764</v>
       </c>
       <c r="CH223" s="1" t="s">
-        <v>2768</v>
+        <v>2765</v>
       </c>
       <c r="CI223" s="1" t="s">
         <v>129</v>
@@ -51649,13 +51548,13 @@
         <v>97</v>
       </c>
       <c r="K224" s="1" t="s">
-        <v>2769</v>
+        <v>2766</v>
       </c>
       <c r="L224" s="1" t="s">
-        <v>2770</v>
+        <v>2767</v>
       </c>
       <c r="N224" s="1" t="s">
-        <v>2771</v>
+        <v>2768</v>
       </c>
       <c r="O224" s="1" t="s">
         <v>101</v>
@@ -51739,16 +51638,16 @@
         <v>23</v>
       </c>
       <c r="BD224" s="1" t="s">
-        <v>2772</v>
+        <v>2769</v>
       </c>
       <c r="BG224" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH224" s="1" t="s">
-        <v>2773</v>
+        <v>2770</v>
       </c>
       <c r="BI224" s="1" t="s">
-        <v>2774</v>
+        <v>2771</v>
       </c>
       <c r="BN224" s="1" t="s">
         <v>117</v>
@@ -51760,13 +51659,13 @@
         <v>229</v>
       </c>
       <c r="BS224" s="1" t="s">
-        <v>2775</v>
+        <v>2772</v>
       </c>
       <c r="BT224" s="3">
         <v>34307</v>
       </c>
       <c r="BU224" s="1" t="s">
-        <v>2776</v>
+        <v>2773</v>
       </c>
       <c r="BV224" s="1" t="s">
         <v>121</v>
@@ -51784,19 +51683,19 @@
         <v>102</v>
       </c>
       <c r="CD224" s="1" t="s">
-        <v>2777</v>
+        <v>2774</v>
       </c>
       <c r="CE224" s="1" t="s">
         <v>420</v>
       </c>
       <c r="CF224" s="1" t="s">
-        <v>2778</v>
+        <v>2775</v>
       </c>
       <c r="CH224" s="1" t="s">
-        <v>2779</v>
+        <v>2776</v>
       </c>
       <c r="CI224" s="1" t="s">
-        <v>2780</v>
+        <v>2777</v>
       </c>
       <c r="CJ224" s="1" t="s">
         <v>129</v>
@@ -51834,13 +51733,13 @@
         <v>97</v>
       </c>
       <c r="K225" s="1" t="s">
-        <v>2781</v>
+        <v>2778</v>
       </c>
       <c r="L225" s="1" t="s">
-        <v>2782</v>
+        <v>2779</v>
       </c>
       <c r="N225" s="1" t="s">
-        <v>2783</v>
+        <v>2780</v>
       </c>
       <c r="O225" s="1" t="s">
         <v>101</v>
@@ -51930,13 +51829,13 @@
         <v>23</v>
       </c>
       <c r="BD225" s="1" t="s">
-        <v>2784</v>
+        <v>2781</v>
       </c>
       <c r="BG225" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH225" s="1" t="s">
-        <v>2785</v>
+        <v>2782</v>
       </c>
       <c r="BN225" s="1" t="s">
         <v>117</v>
@@ -51945,7 +51844,7 @@
         <v>106</v>
       </c>
       <c r="BU225" s="1" t="s">
-        <v>2786</v>
+        <v>2783</v>
       </c>
       <c r="BV225" s="1" t="s">
         <v>121</v>
@@ -51975,10 +51874,10 @@
         <v>1214</v>
       </c>
       <c r="CF225" s="1" t="s">
-        <v>2787</v>
+        <v>2784</v>
       </c>
       <c r="CH225" s="1" t="s">
-        <v>2788</v>
+        <v>2785</v>
       </c>
       <c r="CI225" s="1" t="s">
         <v>129</v>
@@ -52019,13 +51918,13 @@
         <v>97</v>
       </c>
       <c r="K226" s="1" t="s">
-        <v>2789</v>
+        <v>2786</v>
       </c>
       <c r="L226" s="1" t="s">
-        <v>2790</v>
+        <v>2787</v>
       </c>
       <c r="N226" s="1" t="s">
-        <v>2791</v>
+        <v>2788</v>
       </c>
       <c r="O226" s="1" t="s">
         <v>101</v>
@@ -52112,13 +52011,13 @@
         <v>23</v>
       </c>
       <c r="BD226" s="1" t="s">
-        <v>2792</v>
+        <v>2789</v>
       </c>
       <c r="BG226" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH226" s="1" t="s">
-        <v>2793</v>
+        <v>2790</v>
       </c>
       <c r="BN226" s="1" t="s">
         <v>117</v>
@@ -52133,13 +52032,13 @@
         <v>160</v>
       </c>
       <c r="BS226" s="1" t="s">
-        <v>2794</v>
+        <v>2791</v>
       </c>
       <c r="BT226" s="3">
         <v>5347</v>
       </c>
       <c r="BU226" s="1" t="s">
-        <v>2795</v>
+        <v>2792</v>
       </c>
       <c r="BV226" s="1" t="s">
         <v>121</v>
@@ -52163,16 +52062,16 @@
         <v>102</v>
       </c>
       <c r="CD226" s="1" t="s">
-        <v>2796</v>
+        <v>2793</v>
       </c>
       <c r="CE226" s="1" t="s">
         <v>450</v>
       </c>
       <c r="CF226" s="1" t="s">
-        <v>2797</v>
+        <v>2794</v>
       </c>
       <c r="CH226" s="1" t="s">
-        <v>2798</v>
+        <v>2795</v>
       </c>
       <c r="CI226" s="1" t="s">
         <v>129</v>
@@ -52213,10 +52112,10 @@
         <v>97</v>
       </c>
       <c r="K227" s="1" t="s">
-        <v>2799</v>
+        <v>2796</v>
       </c>
       <c r="L227" s="1" t="s">
-        <v>2800</v>
+        <v>2797</v>
       </c>
       <c r="O227" s="1" t="s">
         <v>101</v>
@@ -52294,7 +52193,7 @@
         <v>22</v>
       </c>
       <c r="BD227" s="1" t="s">
-        <v>2801</v>
+        <v>2798</v>
       </c>
       <c r="BN227" s="1" t="s">
         <v>117</v>
@@ -52324,7 +52223,7 @@
         <v>102</v>
       </c>
       <c r="CD227" s="1" t="s">
-        <v>2799</v>
+        <v>2796</v>
       </c>
       <c r="CH227" s="1" t="s">
         <v>129</v>
@@ -52368,10 +52267,10 @@
         <v>97</v>
       </c>
       <c r="K228" s="1" t="s">
-        <v>2802</v>
+        <v>2799</v>
       </c>
       <c r="L228" s="1" t="s">
-        <v>2752</v>
+        <v>2749</v>
       </c>
       <c r="O228" s="1" t="s">
         <v>101</v>
@@ -52401,10 +52300,10 @@
         <v>107</v>
       </c>
       <c r="AG228" s="1" t="s">
-        <v>2649</v>
+        <v>2647</v>
       </c>
       <c r="AH228" s="1" t="s">
-        <v>2803</v>
+        <v>2800</v>
       </c>
       <c r="AJ228" s="1" t="s">
         <v>110</v>
@@ -52452,7 +52351,7 @@
         <v>21</v>
       </c>
       <c r="BD228" s="1" t="s">
-        <v>2804</v>
+        <v>2801</v>
       </c>
       <c r="BN228" s="1" t="s">
         <v>117</v>
@@ -52482,7 +52381,7 @@
         <v>93</v>
       </c>
       <c r="CD228" s="1" t="s">
-        <v>2802</v>
+        <v>2799</v>
       </c>
       <c r="CH228" s="1" t="s">
         <v>129</v>
@@ -52526,10 +52425,10 @@
         <v>97</v>
       </c>
       <c r="K229" s="1" t="s">
-        <v>2805</v>
+        <v>2802</v>
       </c>
       <c r="L229" s="1" t="s">
-        <v>2806</v>
+        <v>2803</v>
       </c>
       <c r="O229" s="1" t="s">
         <v>101</v>
@@ -52559,10 +52458,10 @@
         <v>107</v>
       </c>
       <c r="AG229" s="1" t="s">
-        <v>2649</v>
+        <v>2647</v>
       </c>
       <c r="AH229" s="1" t="s">
-        <v>2803</v>
+        <v>2800</v>
       </c>
       <c r="AJ229" s="1" t="s">
         <v>110</v>
@@ -52610,7 +52509,7 @@
         <v>21</v>
       </c>
       <c r="BD229" s="1" t="s">
-        <v>2807</v>
+        <v>2804</v>
       </c>
       <c r="BN229" s="1" t="s">
         <v>117</v>
@@ -52637,7 +52536,7 @@
         <v>93</v>
       </c>
       <c r="CD229" s="1" t="s">
-        <v>2805</v>
+        <v>2802</v>
       </c>
       <c r="CH229" s="1" t="s">
         <v>129</v>
@@ -52681,13 +52580,13 @@
         <v>97</v>
       </c>
       <c r="K230" s="1" t="s">
-        <v>2808</v>
+        <v>2805</v>
       </c>
       <c r="L230" s="1" t="s">
-        <v>2809</v>
+        <v>2806</v>
       </c>
       <c r="N230" s="1" t="s">
-        <v>2810</v>
+        <v>2807</v>
       </c>
       <c r="O230" s="1" t="s">
         <v>101</v>
@@ -52777,7 +52676,7 @@
         <v>23</v>
       </c>
       <c r="BD230" s="1" t="s">
-        <v>2811</v>
+        <v>2808</v>
       </c>
       <c r="BG230" s="1" t="s">
         <v>114</v>
@@ -52786,7 +52685,7 @@
         <v>117</v>
       </c>
       <c r="BU230" s="1" t="s">
-        <v>2812</v>
+        <v>2809</v>
       </c>
       <c r="BV230" s="1" t="s">
         <v>121</v>
@@ -52807,13 +52706,13 @@
         <v>102</v>
       </c>
       <c r="CD230" s="1" t="s">
-        <v>2813</v>
+        <v>2810</v>
       </c>
       <c r="CE230" s="1" t="s">
-        <v>2814</v>
+        <v>2811</v>
       </c>
       <c r="CF230" s="1" t="s">
-        <v>2815</v>
+        <v>2812</v>
       </c>
       <c r="CH230" s="1" t="s">
         <v>129</v>
@@ -52857,13 +52756,13 @@
         <v>97</v>
       </c>
       <c r="K231" s="1" t="s">
-        <v>2816</v>
+        <v>2813</v>
       </c>
       <c r="L231" s="1" t="s">
-        <v>2817</v>
+        <v>2814</v>
       </c>
       <c r="N231" s="1" t="s">
-        <v>2818</v>
+        <v>2815</v>
       </c>
       <c r="O231" s="1" t="s">
         <v>101</v>
@@ -52950,13 +52849,13 @@
         <v>23</v>
       </c>
       <c r="BD231" s="1" t="s">
-        <v>2819</v>
+        <v>2816</v>
       </c>
       <c r="BG231" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH231" s="1" t="s">
-        <v>2820</v>
+        <v>2817</v>
       </c>
       <c r="BN231" s="1" t="s">
         <v>117</v>
@@ -52968,13 +52867,13 @@
         <v>118</v>
       </c>
       <c r="BS231" s="1" t="s">
-        <v>2821</v>
+        <v>2818</v>
       </c>
       <c r="BT231" s="3">
         <v>35278</v>
       </c>
       <c r="BU231" s="1" t="s">
-        <v>2822</v>
+        <v>2819</v>
       </c>
       <c r="BV231" s="1" t="s">
         <v>121</v>
@@ -52995,16 +52894,16 @@
         <v>102</v>
       </c>
       <c r="CD231" s="1" t="s">
+        <v>2820</v>
+      </c>
+      <c r="CE231" s="1" t="s">
+        <v>2821</v>
+      </c>
+      <c r="CF231" s="1" t="s">
+        <v>2822</v>
+      </c>
+      <c r="CH231" s="1" t="s">
         <v>2823</v>
-      </c>
-      <c r="CE231" s="1" t="s">
-        <v>2824</v>
-      </c>
-      <c r="CF231" s="1" t="s">
-        <v>2825</v>
-      </c>
-      <c r="CH231" s="1" t="s">
-        <v>2826</v>
       </c>
       <c r="CI231" s="1" t="s">
         <v>129</v>
@@ -53045,13 +52944,13 @@
         <v>97</v>
       </c>
       <c r="K232" s="1" t="s">
-        <v>2827</v>
+        <v>2824</v>
       </c>
       <c r="L232" s="1" t="s">
-        <v>2828</v>
+        <v>2825</v>
       </c>
       <c r="N232" s="1" t="s">
-        <v>2829</v>
+        <v>2826</v>
       </c>
       <c r="O232" s="1" t="s">
         <v>101</v>
@@ -53141,19 +53040,19 @@
         <v>23</v>
       </c>
       <c r="BD232" s="1" t="s">
-        <v>2830</v>
+        <v>2827</v>
       </c>
       <c r="BG232" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH232" s="1" t="s">
-        <v>2831</v>
+        <v>2828</v>
       </c>
       <c r="BN232" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU232" s="1" t="s">
-        <v>2832</v>
+        <v>2829</v>
       </c>
       <c r="BV232" s="1" t="s">
         <v>121</v>
@@ -53174,16 +53073,16 @@
         <v>102</v>
       </c>
       <c r="CD232" s="1" t="s">
-        <v>2833</v>
+        <v>2830</v>
       </c>
       <c r="CE232" s="1" t="s">
         <v>451</v>
       </c>
       <c r="CF232" s="1" t="s">
-        <v>2834</v>
+        <v>2831</v>
       </c>
       <c r="CH232" s="1" t="s">
-        <v>2835</v>
+        <v>2832</v>
       </c>
       <c r="CI232" s="1" t="s">
         <v>129</v>
@@ -53224,10 +53123,10 @@
         <v>97</v>
       </c>
       <c r="K233" s="1" t="s">
-        <v>2836</v>
+        <v>2833</v>
       </c>
       <c r="L233" s="1" t="s">
-        <v>2837</v>
+        <v>2834</v>
       </c>
       <c r="O233" s="1" t="s">
         <v>101</v>
@@ -53257,10 +53156,10 @@
         <v>107</v>
       </c>
       <c r="AG233" s="1" t="s">
-        <v>2838</v>
+        <v>2835</v>
       </c>
       <c r="AH233" s="1" t="s">
-        <v>2803</v>
+        <v>2800</v>
       </c>
       <c r="AJ233" s="1" t="s">
         <v>110</v>
@@ -53305,7 +53204,7 @@
         <v>22</v>
       </c>
       <c r="BD233" s="1" t="s">
-        <v>2839</v>
+        <v>2836</v>
       </c>
       <c r="BN233" s="1" t="s">
         <v>117</v>
@@ -53332,7 +53231,7 @@
         <v>93</v>
       </c>
       <c r="CD233" s="1" t="s">
-        <v>2836</v>
+        <v>2833</v>
       </c>
       <c r="CH233" s="1" t="s">
         <v>129</v>
@@ -53376,10 +53275,10 @@
         <v>97</v>
       </c>
       <c r="K234" s="1" t="s">
-        <v>2840</v>
+        <v>2837</v>
       </c>
       <c r="L234" s="1" t="s">
-        <v>2841</v>
+        <v>2838</v>
       </c>
       <c r="O234" s="1" t="s">
         <v>101</v>
@@ -53454,7 +53353,7 @@
         <v>23</v>
       </c>
       <c r="BD234" s="1" t="s">
-        <v>2842</v>
+        <v>2839</v>
       </c>
       <c r="BN234" s="1" t="s">
         <v>117</v>
@@ -53481,7 +53380,7 @@
         <v>102</v>
       </c>
       <c r="CD234" s="1" t="s">
-        <v>2840</v>
+        <v>2837</v>
       </c>
       <c r="CH234" s="1" t="s">
         <v>1814</v>
@@ -53507,7 +53406,7 @@
         <v>185</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>2843</v>
+        <v>2840</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>93</v>
@@ -53519,22 +53418,22 @@
         <v>95</v>
       </c>
       <c r="I235" s="1" t="s">
-        <v>2844</v>
+        <v>2841</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K235" s="1" t="s">
+        <v>2842</v>
+      </c>
+      <c r="L235" s="1" t="s">
+        <v>2843</v>
+      </c>
+      <c r="M235" s="1" t="s">
+        <v>2844</v>
+      </c>
+      <c r="N235" s="1" t="s">
         <v>2845</v>
-      </c>
-      <c r="L235" s="1" t="s">
-        <v>2846</v>
-      </c>
-      <c r="M235" s="1" t="s">
-        <v>2847</v>
-      </c>
-      <c r="N235" s="1" t="s">
-        <v>2848</v>
       </c>
       <c r="Q235" s="3">
         <v>17060</v>
@@ -53567,13 +53466,13 @@
         <v>42628</v>
       </c>
       <c r="AD235" s="1" t="s">
-        <v>2849</v>
+        <v>2846</v>
       </c>
       <c r="AF235" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG235" s="1" t="s">
-        <v>2850</v>
+        <v>2847</v>
       </c>
       <c r="AH235" s="1" t="s">
         <v>136</v>
@@ -53618,22 +53517,22 @@
         <v>102</v>
       </c>
       <c r="AZ235" s="1" t="s">
+        <v>2848</v>
+      </c>
+      <c r="BB235" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC235" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD235" s="1" t="s">
+        <v>2849</v>
+      </c>
+      <c r="BH235" s="1" t="s">
+        <v>2850</v>
+      </c>
+      <c r="BI235" s="1" t="s">
         <v>2851</v>
-      </c>
-      <c r="BB235" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC235" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD235" s="1" t="s">
-        <v>2852</v>
-      </c>
-      <c r="BH235" s="1" t="s">
-        <v>2853</v>
-      </c>
-      <c r="BI235" s="1" t="s">
-        <v>2854</v>
       </c>
       <c r="BN235" s="1" t="s">
         <v>117</v>
@@ -53642,7 +53541,7 @@
         <v>106</v>
       </c>
       <c r="BU235" s="1" t="s">
-        <v>2855</v>
+        <v>2852</v>
       </c>
       <c r="BV235" s="1" t="s">
         <v>121</v>
@@ -53666,13 +53565,13 @@
         <v>125</v>
       </c>
       <c r="CF235" s="1" t="s">
-        <v>2856</v>
+        <v>2853</v>
       </c>
       <c r="CH235" s="1" t="s">
-        <v>2857</v>
+        <v>2854</v>
       </c>
       <c r="CI235" s="1" t="s">
-        <v>2858</v>
+        <v>2855</v>
       </c>
       <c r="CJ235" s="1" t="s">
         <v>129</v>
@@ -53686,13 +53585,13 @@
         <v>89</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>2859</v>
+        <v>2856</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>2844</v>
+        <v>2841</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>2860</v>
+        <v>2857</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>102</v>
@@ -53704,22 +53603,22 @@
         <v>95</v>
       </c>
       <c r="I236" s="1" t="s">
-        <v>2861</v>
+        <v>2858</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K236" s="1" t="s">
-        <v>2862</v>
+        <v>2859</v>
       </c>
       <c r="L236" s="1" t="s">
-        <v>2863</v>
+        <v>2860</v>
       </c>
       <c r="M236" s="1" t="s">
-        <v>2847</v>
+        <v>2844</v>
       </c>
       <c r="N236" s="1" t="s">
-        <v>2864</v>
+        <v>2861</v>
       </c>
       <c r="Q236" s="3">
         <v>26864</v>
@@ -53752,7 +53651,7 @@
         <v>42735</v>
       </c>
       <c r="AD236" s="1" t="s">
-        <v>2865</v>
+        <v>2862</v>
       </c>
       <c r="AF236" s="1" t="s">
         <v>107</v>
@@ -53806,10 +53705,10 @@
         <v>0</v>
       </c>
       <c r="BD236" s="1" t="s">
-        <v>2866</v>
+        <v>2863</v>
       </c>
       <c r="BH236" s="1" t="s">
-        <v>2867</v>
+        <v>2864</v>
       </c>
       <c r="BN236" s="1" t="s">
         <v>117</v>
@@ -53821,13 +53720,13 @@
         <v>229</v>
       </c>
       <c r="BS236" s="1" t="s">
-        <v>2868</v>
+        <v>2865</v>
       </c>
       <c r="BT236" s="3">
         <v>102</v>
       </c>
       <c r="BU236" s="1" t="s">
-        <v>2869</v>
+        <v>2866</v>
       </c>
       <c r="BV236" s="1" t="s">
         <v>121</v>
@@ -53839,7 +53738,7 @@
         <v>111</v>
       </c>
       <c r="CA236" s="1" t="s">
-        <v>2870</v>
+        <v>2867</v>
       </c>
       <c r="CB236" s="1" t="s">
         <v>123</v>
@@ -53848,16 +53747,16 @@
         <v>102</v>
       </c>
       <c r="CD236" s="1" t="s">
-        <v>2871</v>
+        <v>2868</v>
       </c>
       <c r="CE236" s="1" t="s">
-        <v>2872</v>
+        <v>2869</v>
       </c>
       <c r="CF236" s="1" t="s">
-        <v>2873</v>
+        <v>2870</v>
       </c>
       <c r="CH236" s="1" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="CI236" s="1" t="s">
         <v>129</v>
@@ -53898,16 +53797,16 @@
         <v>97</v>
       </c>
       <c r="K237" s="1" t="s">
-        <v>2874</v>
+        <v>2871</v>
       </c>
       <c r="L237" s="1" t="s">
-        <v>2875</v>
+        <v>2872</v>
       </c>
       <c r="M237" s="1" t="s">
-        <v>2847</v>
+        <v>2844</v>
       </c>
       <c r="N237" s="1" t="s">
-        <v>2876</v>
+        <v>2873</v>
       </c>
       <c r="Q237" s="3">
         <v>25379</v>
@@ -53937,7 +53836,7 @@
         <v>39800</v>
       </c>
       <c r="AD237" s="1" t="s">
-        <v>2877</v>
+        <v>2874</v>
       </c>
       <c r="AF237" s="1" t="s">
         <v>243</v>
@@ -53991,10 +53890,10 @@
         <v>0</v>
       </c>
       <c r="BD237" s="1" t="s">
-        <v>2878</v>
+        <v>2875</v>
       </c>
       <c r="BH237" s="1" t="s">
-        <v>2879</v>
+        <v>2876</v>
       </c>
       <c r="BN237" s="1" t="s">
         <v>117</v>
@@ -54006,13 +53905,13 @@
         <v>1620</v>
       </c>
       <c r="BS237" s="1" t="s">
-        <v>2880</v>
+        <v>2877</v>
       </c>
       <c r="BT237" s="3">
         <v>35915</v>
       </c>
       <c r="BU237" s="1" t="s">
-        <v>2881</v>
+        <v>2878</v>
       </c>
       <c r="BV237" s="1" t="s">
         <v>121</v>
@@ -54042,10 +53941,10 @@
         <v>636</v>
       </c>
       <c r="CF237" s="1" t="s">
-        <v>2882</v>
+        <v>2879</v>
       </c>
       <c r="CH237" s="1" t="s">
-        <v>2857</v>
+        <v>2854</v>
       </c>
       <c r="CI237" s="1" t="s">
         <v>129</v>
@@ -54068,7 +53967,7 @@
         <v>91</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>2883</v>
+        <v>2880</v>
       </c>
       <c r="F238" s="1" t="s">
         <v>102</v>
@@ -54080,22 +53979,22 @@
         <v>95</v>
       </c>
       <c r="I238" s="1" t="s">
-        <v>2884</v>
+        <v>2881</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K238" s="1" t="s">
-        <v>2885</v>
+        <v>2882</v>
       </c>
       <c r="L238" s="1" t="s">
-        <v>2886</v>
+        <v>2883</v>
       </c>
       <c r="M238" s="1" t="s">
-        <v>2847</v>
+        <v>2844</v>
       </c>
       <c r="N238" s="1" t="s">
-        <v>2887</v>
+        <v>2884</v>
       </c>
       <c r="Q238" s="3">
         <v>17470</v>
@@ -54125,7 +54024,7 @@
         <v>43100</v>
       </c>
       <c r="AD238" s="1" t="s">
-        <v>2849</v>
+        <v>2846</v>
       </c>
       <c r="AF238" s="1" t="s">
         <v>107</v>
@@ -54182,10 +54081,10 @@
         <v>0</v>
       </c>
       <c r="BD238" s="1" t="s">
-        <v>2888</v>
+        <v>2885</v>
       </c>
       <c r="BH238" s="1" t="s">
-        <v>2889</v>
+        <v>2886</v>
       </c>
       <c r="BN238" s="1" t="s">
         <v>117</v>
@@ -54194,7 +54093,7 @@
         <v>106</v>
       </c>
       <c r="BU238" s="1" t="s">
-        <v>2890</v>
+        <v>2887</v>
       </c>
       <c r="BV238" s="1" t="s">
         <v>121</v>
@@ -54218,16 +54117,16 @@
         <v>102</v>
       </c>
       <c r="CD238" s="1" t="s">
-        <v>2891</v>
+        <v>2888</v>
       </c>
       <c r="CE238" s="1" t="s">
-        <v>2892</v>
+        <v>2889</v>
       </c>
       <c r="CF238" s="1" t="s">
-        <v>2893</v>
+        <v>2890</v>
       </c>
       <c r="CH238" s="1" t="s">
-        <v>2857</v>
+        <v>2854</v>
       </c>
       <c r="CI238" s="1" t="s">
         <v>129</v>
@@ -54250,7 +54149,7 @@
         <v>91</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>2894</v>
+        <v>2891</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>102</v>
@@ -54262,22 +54161,22 @@
         <v>95</v>
       </c>
       <c r="I239" s="1" t="s">
-        <v>2895</v>
+        <v>2892</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K239" s="1" t="s">
-        <v>2896</v>
+        <v>2893</v>
       </c>
       <c r="L239" s="1" t="s">
-        <v>2897</v>
+        <v>2894</v>
       </c>
       <c r="M239" s="1" t="s">
-        <v>2847</v>
+        <v>2844</v>
       </c>
       <c r="N239" s="1" t="s">
-        <v>2898</v>
+        <v>2895</v>
       </c>
       <c r="Q239" s="3">
         <v>23356</v>
@@ -54304,7 +54203,7 @@
         <v>43105</v>
       </c>
       <c r="AD239" s="1" t="s">
-        <v>2899</v>
+        <v>2896</v>
       </c>
       <c r="AF239" s="1" t="s">
         <v>107</v>
@@ -54358,10 +54257,10 @@
         <v>0</v>
       </c>
       <c r="BD239" s="1" t="s">
-        <v>2900</v>
+        <v>2897</v>
       </c>
       <c r="BH239" s="1" t="s">
-        <v>2901</v>
+        <v>2898</v>
       </c>
       <c r="BN239" s="1" t="s">
         <v>117</v>
@@ -54373,13 +54272,13 @@
         <v>103</v>
       </c>
       <c r="BS239" s="1" t="s">
-        <v>2902</v>
+        <v>2899</v>
       </c>
       <c r="BT239" s="3">
         <v>34412</v>
       </c>
       <c r="BU239" s="1" t="s">
-        <v>2903</v>
+        <v>2900</v>
       </c>
       <c r="BV239" s="1" t="s">
         <v>121</v>
@@ -54388,7 +54287,7 @@
         <v>0</v>
       </c>
       <c r="CA239" s="1" t="s">
-        <v>2666</v>
+        <v>2664</v>
       </c>
       <c r="CB239" s="1" t="s">
         <v>123</v>
@@ -54397,16 +54296,16 @@
         <v>102</v>
       </c>
       <c r="CD239" s="1" t="s">
+        <v>2901</v>
+      </c>
+      <c r="CE239" s="1" t="s">
+        <v>2902</v>
+      </c>
+      <c r="CF239" s="1" t="s">
+        <v>2903</v>
+      </c>
+      <c r="CH239" s="1" t="s">
         <v>2904</v>
-      </c>
-      <c r="CE239" s="1" t="s">
-        <v>2905</v>
-      </c>
-      <c r="CF239" s="1" t="s">
-        <v>2906</v>
-      </c>
-      <c r="CH239" s="1" t="s">
-        <v>2907</v>
       </c>
       <c r="CI239" s="1" t="s">
         <v>129</v>
@@ -54429,7 +54328,7 @@
         <v>1415</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>2655</v>
+        <v>2653</v>
       </c>
       <c r="F240" s="1" t="s">
         <v>93</v>
@@ -54441,22 +54340,22 @@
         <v>95</v>
       </c>
       <c r="I240" s="1" t="s">
-        <v>2656</v>
+        <v>2654</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K240" s="1" t="s">
-        <v>2908</v>
+        <v>2905</v>
       </c>
       <c r="L240" s="1" t="s">
-        <v>2909</v>
+        <v>2906</v>
       </c>
       <c r="M240" s="1" t="s">
-        <v>2847</v>
+        <v>2844</v>
       </c>
       <c r="N240" s="1" t="s">
-        <v>2910</v>
+        <v>2907</v>
       </c>
       <c r="Q240" s="3">
         <v>17726</v>
@@ -54492,7 +54391,7 @@
         <v>43312</v>
       </c>
       <c r="AD240" s="1" t="s">
-        <v>2849</v>
+        <v>2846</v>
       </c>
       <c r="AF240" s="1" t="s">
         <v>243</v>
@@ -54543,7 +54442,7 @@
         <v>102</v>
       </c>
       <c r="AZ240" s="1" t="s">
-        <v>2911</v>
+        <v>2908</v>
       </c>
       <c r="BB240" s="1">
         <v>0</v>
@@ -54552,10 +54451,10 @@
         <v>0</v>
       </c>
       <c r="BD240" s="1" t="s">
-        <v>2912</v>
+        <v>2909</v>
       </c>
       <c r="BH240" s="1" t="s">
-        <v>2913</v>
+        <v>2910</v>
       </c>
       <c r="BN240" s="1" t="s">
         <v>117</v>
@@ -54564,7 +54463,7 @@
         <v>106</v>
       </c>
       <c r="BU240" s="1" t="s">
-        <v>2914</v>
+        <v>2911</v>
       </c>
       <c r="BV240" s="1" t="s">
         <v>121</v>
@@ -54573,7 +54472,7 @@
         <v>0</v>
       </c>
       <c r="CA240" s="1" t="s">
-        <v>2659</v>
+        <v>2657</v>
       </c>
       <c r="CB240" s="1" t="s">
         <v>123</v>
@@ -54582,16 +54481,16 @@
         <v>102</v>
       </c>
       <c r="CD240" s="1" t="s">
-        <v>2915</v>
+        <v>2912</v>
       </c>
       <c r="CE240" s="1" t="s">
-        <v>2916</v>
+        <v>2913</v>
       </c>
       <c r="CF240" s="1" t="s">
         <v>883</v>
       </c>
       <c r="CH240" s="1" t="s">
-        <v>2857</v>
+        <v>2854</v>
       </c>
       <c r="CI240" s="1" t="s">
         <v>129</v>
@@ -54614,7 +54513,7 @@
         <v>1415</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>2917</v>
+        <v>2914</v>
       </c>
       <c r="F241" s="1" t="s">
         <v>93</v>
@@ -54626,22 +54525,22 @@
         <v>95</v>
       </c>
       <c r="I241" s="1" t="s">
-        <v>2918</v>
+        <v>2915</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K241" s="1" t="s">
-        <v>2919</v>
+        <v>2916</v>
       </c>
       <c r="L241" s="1" t="s">
-        <v>2920</v>
+        <v>2917</v>
       </c>
       <c r="M241" s="1" t="s">
-        <v>2847</v>
+        <v>2844</v>
       </c>
       <c r="N241" s="1" t="s">
-        <v>2921</v>
+        <v>2918</v>
       </c>
       <c r="Q241" s="3">
         <v>17041</v>
@@ -54671,13 +54570,13 @@
         <v>42735</v>
       </c>
       <c r="AD241" s="1" t="s">
-        <v>2849</v>
+        <v>2846</v>
       </c>
       <c r="AF241" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG241" s="1" t="s">
-        <v>2754</v>
+        <v>2751</v>
       </c>
       <c r="AH241" s="1" t="s">
         <v>2111</v>
@@ -54728,7 +54627,7 @@
         <v>0</v>
       </c>
       <c r="BD241" s="1" t="s">
-        <v>2922</v>
+        <v>2919</v>
       </c>
       <c r="BN241" s="1" t="s">
         <v>117</v>
@@ -54737,7 +54636,7 @@
         <v>106</v>
       </c>
       <c r="BU241" s="1" t="s">
-        <v>2923</v>
+        <v>2920</v>
       </c>
       <c r="BV241" s="1" t="s">
         <v>121</v>
@@ -54749,7 +54648,7 @@
         <v>111</v>
       </c>
       <c r="CA241" s="1" t="s">
-        <v>2924</v>
+        <v>2921</v>
       </c>
       <c r="CB241" s="1" t="s">
         <v>123</v>
@@ -54758,13 +54657,13 @@
         <v>102</v>
       </c>
       <c r="CD241" s="1" t="s">
-        <v>2925</v>
+        <v>2922</v>
       </c>
       <c r="CE241" s="1" t="s">
-        <v>2926</v>
+        <v>2923</v>
       </c>
       <c r="CF241" s="1" t="s">
-        <v>2927</v>
+        <v>2924</v>
       </c>
       <c r="CH241" s="1" t="s">
         <v>129</v>
@@ -54790,7 +54689,7 @@
         <v>1415</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>2928</v>
+        <v>2925</v>
       </c>
       <c r="F242" s="1" t="s">
         <v>102</v>
@@ -54802,22 +54701,22 @@
         <v>95</v>
       </c>
       <c r="I242" s="1" t="s">
-        <v>2929</v>
+        <v>2926</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K242" s="1" t="s">
-        <v>2930</v>
+        <v>2927</v>
       </c>
       <c r="L242" s="1" t="s">
-        <v>2931</v>
+        <v>2928</v>
       </c>
       <c r="M242" s="1" t="s">
-        <v>2847</v>
+        <v>2844</v>
       </c>
       <c r="N242" s="1" t="s">
-        <v>2932</v>
+        <v>2929</v>
       </c>
       <c r="Q242" s="3">
         <v>30147</v>
@@ -54843,17 +54742,12 @@
       <c r="AA242" s="1">
         <v>0</v>
       </c>
-      <c r="AC242" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD242" s="1" t="s">
-        <v>2638</v>
-      </c>
+      <c r="AC242" s="3"/>
       <c r="AF242" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG242" s="1" t="s">
-        <v>2652</v>
+        <v>2650</v>
       </c>
       <c r="AH242" s="1" t="s">
         <v>373</v>
@@ -54901,10 +54795,10 @@
         <v>0</v>
       </c>
       <c r="BD242" s="1" t="s">
-        <v>2933</v>
+        <v>2930</v>
       </c>
       <c r="BH242" s="1" t="s">
-        <v>2934</v>
+        <v>2931</v>
       </c>
       <c r="BN242" s="1" t="s">
         <v>117</v>
@@ -54916,13 +54810,13 @@
         <v>103</v>
       </c>
       <c r="BS242" s="1" t="s">
-        <v>2935</v>
+        <v>2932</v>
       </c>
       <c r="BT242" s="3">
         <v>37124</v>
       </c>
       <c r="BU242" s="1" t="s">
-        <v>2936</v>
+        <v>2933</v>
       </c>
       <c r="BV242" s="1" t="s">
         <v>121</v>
@@ -54931,7 +54825,7 @@
         <v>0</v>
       </c>
       <c r="CA242" s="1" t="s">
-        <v>2937</v>
+        <v>2934</v>
       </c>
       <c r="CB242" s="1" t="s">
         <v>123</v>
@@ -54940,16 +54834,16 @@
         <v>102</v>
       </c>
       <c r="CD242" s="1" t="s">
-        <v>2938</v>
+        <v>2935</v>
       </c>
       <c r="CE242" s="1" t="s">
         <v>1127</v>
       </c>
       <c r="CF242" s="1" t="s">
-        <v>2939</v>
+        <v>2936</v>
       </c>
       <c r="CH242" s="1" t="s">
-        <v>2907</v>
+        <v>2904</v>
       </c>
       <c r="CI242" s="1" t="s">
         <v>129</v>
@@ -54972,7 +54866,7 @@
         <v>91</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>2940</v>
+        <v>2937</v>
       </c>
       <c r="F243" s="1" t="s">
         <v>102</v>
@@ -54984,22 +54878,22 @@
         <v>95</v>
       </c>
       <c r="I243" s="1" t="s">
-        <v>2941</v>
+        <v>2938</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K243" s="1" t="s">
-        <v>2942</v>
+        <v>2939</v>
       </c>
       <c r="L243" s="1" t="s">
-        <v>2806</v>
+        <v>2803</v>
       </c>
       <c r="M243" s="1" t="s">
-        <v>2847</v>
+        <v>2844</v>
       </c>
       <c r="N243" s="1" t="s">
-        <v>2943</v>
+        <v>2940</v>
       </c>
       <c r="Q243" s="3">
         <v>17821</v>
@@ -55035,7 +54929,7 @@
         <v>43388</v>
       </c>
       <c r="AD243" s="1" t="s">
-        <v>2849</v>
+        <v>2846</v>
       </c>
       <c r="AF243" s="1" t="s">
         <v>107</v>
@@ -55086,25 +54980,25 @@
         <v>102</v>
       </c>
       <c r="AZ243" s="1" t="s">
+        <v>2941</v>
+      </c>
+      <c r="BB243" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC243" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD243" s="1" t="s">
+        <v>2942</v>
+      </c>
+      <c r="BE243" s="1" t="s">
+        <v>2943</v>
+      </c>
+      <c r="BF243" s="1" t="s">
         <v>2944</v>
       </c>
-      <c r="BB243" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC243" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD243" s="1" t="s">
+      <c r="BH243" s="1" t="s">
         <v>2945</v>
-      </c>
-      <c r="BE243" s="1" t="s">
-        <v>2946</v>
-      </c>
-      <c r="BF243" s="1" t="s">
-        <v>2947</v>
-      </c>
-      <c r="BH243" s="1" t="s">
-        <v>2948</v>
       </c>
       <c r="BN243" s="1" t="s">
         <v>117</v>
@@ -55113,7 +55007,7 @@
         <v>106</v>
       </c>
       <c r="BU243" s="1" t="s">
-        <v>2949</v>
+        <v>2946</v>
       </c>
       <c r="BV243" s="1" t="s">
         <v>121</v>
@@ -55122,7 +55016,7 @@
         <v>0</v>
       </c>
       <c r="CA243" s="1" t="s">
-        <v>2950</v>
+        <v>2947</v>
       </c>
       <c r="CB243" s="1" t="s">
         <v>123</v>
@@ -55131,16 +55025,16 @@
         <v>102</v>
       </c>
       <c r="CD243" s="1" t="s">
-        <v>2951</v>
+        <v>2948</v>
       </c>
       <c r="CE243" s="1" t="s">
-        <v>2952</v>
+        <v>2949</v>
       </c>
       <c r="CF243" s="1" t="s">
         <v>492</v>
       </c>
       <c r="CH243" s="1" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="CI243" s="1" t="s">
         <v>129</v>
@@ -55181,16 +55075,16 @@
         <v>97</v>
       </c>
       <c r="K244" s="1" t="s">
-        <v>2874</v>
+        <v>2871</v>
       </c>
       <c r="L244" s="1" t="s">
-        <v>2953</v>
+        <v>2950</v>
       </c>
       <c r="M244" s="1" t="s">
-        <v>2847</v>
+        <v>2844</v>
       </c>
       <c r="N244" s="1" t="s">
-        <v>2876</v>
+        <v>2873</v>
       </c>
       <c r="O244" s="1" t="s">
         <v>101</v>
@@ -55223,7 +55117,7 @@
         <v>43980</v>
       </c>
       <c r="AD244" s="1" t="s">
-        <v>2954</v>
+        <v>2951</v>
       </c>
       <c r="AF244" s="1" t="s">
         <v>107</v>
@@ -55277,10 +55171,10 @@
         <v>20</v>
       </c>
       <c r="BD244" s="1" t="s">
-        <v>2878</v>
+        <v>2875</v>
       </c>
       <c r="BH244" s="1" t="s">
-        <v>2955</v>
+        <v>2952</v>
       </c>
       <c r="BN244" s="1" t="s">
         <v>117</v>
@@ -55292,13 +55186,13 @@
         <v>1620</v>
       </c>
       <c r="BS244" s="1" t="s">
-        <v>2880</v>
+        <v>2877</v>
       </c>
       <c r="BT244" s="3">
         <v>35915</v>
       </c>
       <c r="BU244" s="1" t="s">
-        <v>2881</v>
+        <v>2878</v>
       </c>
       <c r="BV244" s="1" t="s">
         <v>121</v>
@@ -55322,7 +55216,7 @@
         <v>636</v>
       </c>
       <c r="CF244" s="1" t="s">
-        <v>2882</v>
+        <v>2879</v>
       </c>
       <c r="CH244" s="1" t="s">
         <v>1814</v>
@@ -55360,22 +55254,22 @@
         <v>95</v>
       </c>
       <c r="I245" s="1" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K245" s="1" t="s">
-        <v>2956</v>
+        <v>2953</v>
       </c>
       <c r="L245" s="1" t="s">
-        <v>2957</v>
+        <v>2954</v>
       </c>
       <c r="M245" s="1" t="s">
-        <v>2847</v>
+        <v>2844</v>
       </c>
       <c r="N245" s="1" t="s">
-        <v>2958</v>
+        <v>2955</v>
       </c>
       <c r="O245" s="1" t="s">
         <v>101</v>
@@ -55411,7 +55305,7 @@
         <v>44135</v>
       </c>
       <c r="AD245" s="1" t="s">
-        <v>2959</v>
+        <v>2956</v>
       </c>
       <c r="AF245" s="1" t="s">
         <v>107</v>
@@ -55468,10 +55362,10 @@
         <v>20</v>
       </c>
       <c r="BD245" s="1" t="s">
-        <v>2960</v>
+        <v>2957</v>
       </c>
       <c r="BH245" s="1" t="s">
-        <v>2961</v>
+        <v>2958</v>
       </c>
       <c r="BN245" s="1" t="s">
         <v>117</v>
@@ -55480,7 +55374,7 @@
         <v>106</v>
       </c>
       <c r="BU245" s="1" t="s">
-        <v>2962</v>
+        <v>2959</v>
       </c>
       <c r="BV245" s="1" t="s">
         <v>121</v>
@@ -55489,7 +55383,7 @@
         <v>0</v>
       </c>
       <c r="CA245" s="1" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="CB245" s="1" t="s">
         <v>123</v>
@@ -55501,10 +55395,10 @@
         <v>1246</v>
       </c>
       <c r="CE245" s="1" t="s">
-        <v>2963</v>
+        <v>2960</v>
       </c>
       <c r="CF245" s="1" t="s">
-        <v>2964</v>
+        <v>2961</v>
       </c>
       <c r="CH245" s="1" t="s">
         <v>1814</v>
@@ -55548,16 +55442,16 @@
         <v>97</v>
       </c>
       <c r="K246" s="1" t="s">
-        <v>2965</v>
+        <v>2962</v>
       </c>
       <c r="L246" s="1" t="s">
-        <v>2966</v>
+        <v>2963</v>
       </c>
       <c r="M246" s="1" t="s">
-        <v>2847</v>
+        <v>2844</v>
       </c>
       <c r="N246" s="1" t="s">
-        <v>2967</v>
+        <v>2964</v>
       </c>
       <c r="O246" s="1" t="s">
         <v>101</v>
@@ -55590,16 +55484,16 @@
         <v>43847</v>
       </c>
       <c r="AD246" s="1" t="s">
-        <v>2968</v>
+        <v>2965</v>
       </c>
       <c r="AF246" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG246" s="1" t="s">
+        <v>2421</v>
+      </c>
+      <c r="AH246" s="1" t="s">
         <v>2422</v>
-      </c>
-      <c r="AH246" s="1" t="s">
-        <v>2423</v>
       </c>
       <c r="AJ246" s="1" t="s">
         <v>110</v>
@@ -55641,7 +55535,7 @@
         <v>102</v>
       </c>
       <c r="AZ246" s="1" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="BB246" s="1">
         <v>2</v>
@@ -55650,10 +55544,10 @@
         <v>21</v>
       </c>
       <c r="BD246" s="1" t="s">
-        <v>2969</v>
+        <v>2966</v>
       </c>
       <c r="BH246" s="1" t="s">
-        <v>2970</v>
+        <v>2967</v>
       </c>
       <c r="BN246" s="1" t="s">
         <v>117</v>
@@ -55665,13 +55559,13 @@
         <v>118</v>
       </c>
       <c r="BS246" s="1" t="s">
-        <v>2971</v>
+        <v>2968</v>
       </c>
       <c r="BT246" s="3">
         <v>34808</v>
       </c>
       <c r="BU246" s="1" t="s">
-        <v>2972</v>
+        <v>2969</v>
       </c>
       <c r="BV246" s="1" t="s">
         <v>121</v>
@@ -55689,13 +55583,13 @@
         <v>102</v>
       </c>
       <c r="CD246" s="1" t="s">
-        <v>2973</v>
+        <v>2970</v>
       </c>
       <c r="CE246" s="1" t="s">
-        <v>2974</v>
+        <v>2971</v>
       </c>
       <c r="CF246" s="1" t="s">
-        <v>2975</v>
+        <v>2972</v>
       </c>
       <c r="CH246" s="1" t="s">
         <v>1814</v>
@@ -55712,10 +55606,10 @@
         <v>88</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>2976</v>
+        <v>2973</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>2977</v>
+        <v>2974</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>1221</v>
@@ -55739,16 +55633,16 @@
         <v>92</v>
       </c>
       <c r="K247" s="1" t="s">
-        <v>2978</v>
+        <v>2975</v>
       </c>
       <c r="L247" s="1" t="s">
-        <v>2979</v>
+        <v>2976</v>
       </c>
       <c r="M247" s="1" t="s">
-        <v>2847</v>
+        <v>2844</v>
       </c>
       <c r="N247" s="1" t="s">
-        <v>2980</v>
+        <v>2977</v>
       </c>
       <c r="O247" s="1" t="s">
         <v>101</v>
@@ -55802,7 +55696,7 @@
         <v>0</v>
       </c>
       <c r="AN247" s="1" t="s">
-        <v>2981</v>
+        <v>2978</v>
       </c>
       <c r="AO247" s="1">
         <v>0</v>
@@ -55832,7 +55726,7 @@
         <v>102</v>
       </c>
       <c r="AZ247" s="1" t="s">
-        <v>2982</v>
+        <v>2979</v>
       </c>
       <c r="BB247" s="1">
         <v>2</v>
@@ -55841,13 +55735,13 @@
         <v>21</v>
       </c>
       <c r="BD247" s="1" t="s">
-        <v>2983</v>
+        <v>2980</v>
       </c>
       <c r="BN247" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU247" s="1" t="s">
-        <v>2984</v>
+        <v>2981</v>
       </c>
       <c r="BV247" s="1" t="s">
         <v>121</v>
@@ -55865,13 +55759,13 @@
         <v>102</v>
       </c>
       <c r="CD247" s="1" t="s">
-        <v>2985</v>
+        <v>2982</v>
       </c>
       <c r="CE247" s="1" t="s">
-        <v>2986</v>
+        <v>2983</v>
       </c>
       <c r="CF247" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="CH247" s="1" t="s">
         <v>129</v>
@@ -55915,16 +55809,16 @@
         <v>97</v>
       </c>
       <c r="K248" s="1" t="s">
-        <v>2988</v>
+        <v>2985</v>
       </c>
       <c r="L248" s="1" t="s">
-        <v>2989</v>
+        <v>2986</v>
       </c>
       <c r="M248" s="1" t="s">
-        <v>2847</v>
+        <v>2844</v>
       </c>
       <c r="N248" s="1" t="s">
-        <v>2990</v>
+        <v>2987</v>
       </c>
       <c r="O248" s="1" t="s">
         <v>101</v>
@@ -55963,7 +55857,7 @@
         <v>44246</v>
       </c>
       <c r="AD248" s="1" t="s">
-        <v>2991</v>
+        <v>2988</v>
       </c>
       <c r="AF248" s="1" t="s">
         <v>107</v>
@@ -56020,10 +55914,10 @@
         <v>21</v>
       </c>
       <c r="BD248" s="1" t="s">
-        <v>2992</v>
+        <v>2989</v>
       </c>
       <c r="BH248" s="1" t="s">
-        <v>2993</v>
+        <v>2990</v>
       </c>
       <c r="BN248" s="1" t="s">
         <v>117</v>
@@ -56032,7 +55926,7 @@
         <v>106</v>
       </c>
       <c r="BU248" s="1" t="s">
-        <v>2994</v>
+        <v>2991</v>
       </c>
       <c r="BV248" s="1" t="s">
         <v>121</v>
@@ -56056,13 +55950,13 @@
         <v>102</v>
       </c>
       <c r="CD248" s="1" t="s">
-        <v>2995</v>
+        <v>2992</v>
       </c>
       <c r="CE248" s="1" t="s">
         <v>143</v>
       </c>
       <c r="CF248" s="1" t="s">
-        <v>2996</v>
+        <v>2993</v>
       </c>
       <c r="CH248" s="1" t="s">
         <v>129</v>
@@ -56106,16 +56000,16 @@
         <v>97</v>
       </c>
       <c r="K249" s="1" t="s">
-        <v>2997</v>
+        <v>2994</v>
       </c>
       <c r="L249" s="1" t="s">
-        <v>2998</v>
+        <v>2995</v>
       </c>
       <c r="M249" s="1" t="s">
-        <v>2847</v>
+        <v>2844</v>
       </c>
       <c r="N249" s="1" t="s">
-        <v>2999</v>
+        <v>2996</v>
       </c>
       <c r="O249" s="1" t="s">
         <v>101</v>
@@ -56151,7 +56045,7 @@
         <v>44267</v>
       </c>
       <c r="AD249" s="1" t="s">
-        <v>3000</v>
+        <v>2997</v>
       </c>
       <c r="AF249" s="1" t="s">
         <v>107</v>
@@ -56208,10 +56102,10 @@
         <v>21</v>
       </c>
       <c r="BD249" s="1" t="s">
-        <v>3001</v>
+        <v>2998</v>
       </c>
       <c r="BH249" s="1" t="s">
-        <v>3002</v>
+        <v>2999</v>
       </c>
       <c r="BN249" s="1" t="s">
         <v>117</v>
@@ -56223,13 +56117,13 @@
         <v>118</v>
       </c>
       <c r="BS249" s="1" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="BT249" s="3">
         <v>35711</v>
       </c>
       <c r="BU249" s="1" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="BV249" s="1" t="s">
         <v>121</v>
@@ -56253,7 +56147,7 @@
         <v>381</v>
       </c>
       <c r="CF249" s="1" t="s">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="CH249" s="1" t="s">
         <v>129</v>
@@ -56297,16 +56191,16 @@
         <v>97</v>
       </c>
       <c r="K250" s="1" t="s">
-        <v>3006</v>
+        <v>3003</v>
       </c>
       <c r="L250" s="1" t="s">
-        <v>3007</v>
+        <v>3004</v>
       </c>
       <c r="M250" s="1" t="s">
-        <v>2847</v>
+        <v>2844</v>
       </c>
       <c r="N250" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="O250" s="1" t="s">
         <v>101</v>
@@ -56342,16 +56236,16 @@
         <v>44255</v>
       </c>
       <c r="AD250" s="1" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="AF250" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG250" s="1" t="s">
-        <v>2649</v>
+        <v>2647</v>
       </c>
       <c r="AH250" s="1" t="s">
-        <v>2803</v>
+        <v>2800</v>
       </c>
       <c r="AJ250" s="1" t="s">
         <v>110</v>
@@ -56399,16 +56293,16 @@
         <v>21</v>
       </c>
       <c r="BD250" s="1" t="s">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="BE250" s="1" t="s">
-        <v>2946</v>
+        <v>2943</v>
       </c>
       <c r="BF250" s="1" t="s">
-        <v>2947</v>
+        <v>2944</v>
       </c>
       <c r="BH250" s="1" t="s">
-        <v>3011</v>
+        <v>3008</v>
       </c>
       <c r="BN250" s="1" t="s">
         <v>117</v>
@@ -56417,13 +56311,13 @@
         <v>229</v>
       </c>
       <c r="BS250" s="1" t="s">
-        <v>3012</v>
+        <v>3009</v>
       </c>
       <c r="BT250" s="3">
         <v>2302</v>
       </c>
       <c r="BU250" s="1" t="s">
-        <v>3013</v>
+        <v>3010</v>
       </c>
       <c r="BV250" s="1" t="s">
         <v>121</v>
@@ -56447,16 +56341,16 @@
         <v>93</v>
       </c>
       <c r="CD250" s="1" t="s">
+        <v>3011</v>
+      </c>
+      <c r="CE250" s="1" t="s">
+        <v>3012</v>
+      </c>
+      <c r="CF250" s="1" t="s">
+        <v>3013</v>
+      </c>
+      <c r="CH250" s="1" t="s">
         <v>3014</v>
-      </c>
-      <c r="CE250" s="1" t="s">
-        <v>3015</v>
-      </c>
-      <c r="CF250" s="1" t="s">
-        <v>3016</v>
-      </c>
-      <c r="CH250" s="1" t="s">
-        <v>3017</v>
       </c>
       <c r="CI250" s="1" t="s">
         <v>129</v>
@@ -56497,16 +56391,16 @@
         <v>97</v>
       </c>
       <c r="K251" s="1" t="s">
-        <v>3018</v>
+        <v>3015</v>
       </c>
       <c r="L251" s="1" t="s">
-        <v>3019</v>
+        <v>3016</v>
       </c>
       <c r="M251" s="1" t="s">
-        <v>2847</v>
+        <v>2844</v>
       </c>
       <c r="N251" s="1" t="s">
-        <v>3020</v>
+        <v>3017</v>
       </c>
       <c r="O251" s="1" t="s">
         <v>101</v>
@@ -56542,7 +56436,7 @@
         <v>44316</v>
       </c>
       <c r="AD251" s="1" t="s">
-        <v>3021</v>
+        <v>3018</v>
       </c>
       <c r="AF251" s="1" t="s">
         <v>107</v>
@@ -56599,10 +56493,10 @@
         <v>21</v>
       </c>
       <c r="BD251" s="1" t="s">
-        <v>3022</v>
+        <v>3019</v>
       </c>
       <c r="BH251" s="1" t="s">
-        <v>3023</v>
+        <v>3020</v>
       </c>
       <c r="BN251" s="1" t="s">
         <v>117</v>
@@ -56614,13 +56508,13 @@
         <v>229</v>
       </c>
       <c r="BS251" s="1" t="s">
-        <v>3024</v>
+        <v>3021</v>
       </c>
       <c r="BT251" s="3">
         <v>35108</v>
       </c>
       <c r="BU251" s="1" t="s">
-        <v>3025</v>
+        <v>3022</v>
       </c>
       <c r="BV251" s="1" t="s">
         <v>121</v>
@@ -56638,16 +56532,16 @@
         <v>102</v>
       </c>
       <c r="CD251" s="1" t="s">
-        <v>3026</v>
+        <v>3023</v>
       </c>
       <c r="CE251" s="1" t="s">
         <v>1907</v>
       </c>
       <c r="CF251" s="1" t="s">
-        <v>3027</v>
+        <v>3024</v>
       </c>
       <c r="CH251" s="1" t="s">
-        <v>3028</v>
+        <v>3025</v>
       </c>
       <c r="CI251" s="1" t="s">
         <v>129</v>
@@ -56688,16 +56582,16 @@
         <v>97</v>
       </c>
       <c r="K252" s="1" t="s">
-        <v>3029</v>
+        <v>3026</v>
       </c>
       <c r="L252" s="1" t="s">
-        <v>2828</v>
+        <v>2825</v>
       </c>
       <c r="M252" s="1" t="s">
-        <v>2847</v>
+        <v>2844</v>
       </c>
       <c r="N252" s="1" t="s">
-        <v>3030</v>
+        <v>3027</v>
       </c>
       <c r="O252" s="1" t="s">
         <v>101</v>
@@ -56733,16 +56627,16 @@
         <v>44507</v>
       </c>
       <c r="AD252" s="1" t="s">
-        <v>3000</v>
+        <v>2997</v>
       </c>
       <c r="AF252" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG252" s="1" t="s">
-        <v>2649</v>
+        <v>2647</v>
       </c>
       <c r="AH252" s="1" t="s">
-        <v>2803</v>
+        <v>2800</v>
       </c>
       <c r="AI252" s="1" t="s">
         <v>102</v>
@@ -56793,16 +56687,16 @@
         <v>21</v>
       </c>
       <c r="BD252" s="1" t="s">
-        <v>3031</v>
+        <v>3028</v>
       </c>
       <c r="BH252" s="1" t="s">
-        <v>3011</v>
+        <v>3008</v>
       </c>
       <c r="BN252" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU252" s="1" t="s">
-        <v>3032</v>
+        <v>3029</v>
       </c>
       <c r="BV252" s="1" t="s">
         <v>121</v>
@@ -56826,16 +56720,16 @@
         <v>93</v>
       </c>
       <c r="CD252" s="1" t="s">
-        <v>3033</v>
+        <v>3030</v>
       </c>
       <c r="CE252" s="1" t="s">
-        <v>3033</v>
+        <v>3030</v>
       </c>
       <c r="CF252" s="1" t="s">
-        <v>3034</v>
+        <v>3031</v>
       </c>
       <c r="CH252" s="1" t="s">
-        <v>3017</v>
+        <v>3014</v>
       </c>
       <c r="CI252" s="1" t="s">
         <v>129</v>
@@ -56870,22 +56764,22 @@
         <v>95</v>
       </c>
       <c r="I253" s="1" t="s">
-        <v>3035</v>
+        <v>3032</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K253" s="1" t="s">
-        <v>3036</v>
+        <v>3033</v>
       </c>
       <c r="L253" s="1" t="s">
-        <v>2841</v>
+        <v>2838</v>
       </c>
       <c r="M253" s="1" t="s">
-        <v>2847</v>
+        <v>2844</v>
       </c>
       <c r="N253" s="1" t="s">
-        <v>3037</v>
+        <v>3034</v>
       </c>
       <c r="O253" s="1" t="s">
         <v>101</v>
@@ -56918,7 +56812,7 @@
         <v>44701</v>
       </c>
       <c r="AD253" s="1" t="s">
-        <v>3038</v>
+        <v>3035</v>
       </c>
       <c r="AF253" s="1" t="s">
         <v>107</v>
@@ -56966,7 +56860,7 @@
         <v>102</v>
       </c>
       <c r="AZ253" s="1" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="BB253" s="1">
         <v>5</v>
@@ -56975,13 +56869,13 @@
         <v>22</v>
       </c>
       <c r="BD253" s="1" t="s">
-        <v>3039</v>
+        <v>3036</v>
       </c>
       <c r="BH253" s="1" t="s">
-        <v>3040</v>
+        <v>3037</v>
       </c>
       <c r="BI253" s="1" t="s">
-        <v>3041</v>
+        <v>3038</v>
       </c>
       <c r="BN253" s="1" t="s">
         <v>117</v>
@@ -56996,13 +56890,13 @@
         <v>160</v>
       </c>
       <c r="BS253" s="1" t="s">
-        <v>3042</v>
+        <v>3039</v>
       </c>
       <c r="BT253" s="3">
         <v>36825</v>
       </c>
       <c r="BU253" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="BV253" s="1" t="s">
         <v>121</v>
@@ -57017,7 +56911,7 @@
         <v>111</v>
       </c>
       <c r="CA253" s="1" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="CB253" s="1" t="s">
         <v>123</v>
@@ -57026,19 +56920,19 @@
         <v>102</v>
       </c>
       <c r="CD253" s="1" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="CE253" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="CF253" s="1" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="CH253" s="1" t="s">
-        <v>2857</v>
+        <v>2854</v>
       </c>
       <c r="CI253" s="1" t="s">
-        <v>3046</v>
+        <v>3043</v>
       </c>
       <c r="CJ253" s="1" t="s">
         <v>129</v>
@@ -57070,22 +56964,22 @@
         <v>95</v>
       </c>
       <c r="I254" s="1" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K254" s="1" t="s">
-        <v>2896</v>
+        <v>2893</v>
       </c>
       <c r="L254" s="1" t="s">
-        <v>3047</v>
+        <v>3044</v>
       </c>
       <c r="M254" s="1" t="s">
-        <v>2847</v>
+        <v>2844</v>
       </c>
       <c r="N254" s="1" t="s">
-        <v>2898</v>
+        <v>2895</v>
       </c>
       <c r="O254" s="1" t="s">
         <v>101</v>
@@ -57118,7 +57012,7 @@
         <v>44733</v>
       </c>
       <c r="AD254" s="1" t="s">
-        <v>3048</v>
+        <v>3045</v>
       </c>
       <c r="AF254" s="1" t="s">
         <v>107</v>
@@ -57175,10 +57069,10 @@
         <v>22</v>
       </c>
       <c r="BD254" s="1" t="s">
-        <v>3049</v>
+        <v>3046</v>
       </c>
       <c r="BH254" s="1" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="BN254" s="1" t="s">
         <v>117</v>
@@ -57190,13 +57084,13 @@
         <v>229</v>
       </c>
       <c r="BS254" s="1" t="s">
-        <v>3051</v>
+        <v>3048</v>
       </c>
       <c r="BT254" s="3">
         <v>34412</v>
       </c>
       <c r="BU254" s="1" t="s">
-        <v>2903</v>
+        <v>2900</v>
       </c>
       <c r="BV254" s="1" t="s">
         <v>121</v>
@@ -57217,13 +57111,13 @@
         <v>102</v>
       </c>
       <c r="CD254" s="1" t="s">
-        <v>2904</v>
+        <v>2901</v>
       </c>
       <c r="CE254" s="1" t="s">
-        <v>2905</v>
+        <v>2902</v>
       </c>
       <c r="CF254" s="1" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="CH254" s="1" t="s">
         <v>2250</v>
@@ -57261,22 +57155,22 @@
         <v>95</v>
       </c>
       <c r="I255" s="1" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K255" s="1" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="L255" s="1" t="s">
-        <v>3053</v>
+        <v>3050</v>
       </c>
       <c r="M255" s="1" t="s">
-        <v>2847</v>
+        <v>2844</v>
       </c>
       <c r="N255" s="1" t="s">
-        <v>3054</v>
+        <v>3051</v>
       </c>
       <c r="O255" s="1" t="s">
         <v>101</v>
@@ -57309,7 +57203,7 @@
         <v>44561</v>
       </c>
       <c r="AD255" s="1" t="s">
-        <v>3000</v>
+        <v>2997</v>
       </c>
       <c r="AF255" s="1" t="s">
         <v>107</v>
@@ -57366,7 +57260,7 @@
         <v>22</v>
       </c>
       <c r="BD255" s="1" t="s">
-        <v>3055</v>
+        <v>3052</v>
       </c>
       <c r="BN255" s="1" t="s">
         <v>117</v>
@@ -57375,13 +57269,13 @@
         <v>229</v>
       </c>
       <c r="BS255" s="1" t="s">
-        <v>3056</v>
+        <v>3053</v>
       </c>
       <c r="BT255" s="3">
         <v>5480</v>
       </c>
       <c r="BU255" s="1" t="s">
-        <v>3057</v>
+        <v>3054</v>
       </c>
       <c r="BV255" s="1" t="s">
         <v>121</v>
@@ -57408,10 +57302,10 @@
         <v>463</v>
       </c>
       <c r="CE255" s="1" t="s">
-        <v>3058</v>
+        <v>3055</v>
       </c>
       <c r="CF255" s="1" t="s">
-        <v>3059</v>
+        <v>3056</v>
       </c>
       <c r="CH255" s="1" t="s">
         <v>129</v>
@@ -57455,16 +57349,16 @@
         <v>97</v>
       </c>
       <c r="K256" s="1" t="s">
-        <v>3060</v>
+        <v>3057</v>
       </c>
       <c r="L256" s="1" t="s">
-        <v>3061</v>
+        <v>3058</v>
       </c>
       <c r="M256" s="1" t="s">
-        <v>2847</v>
+        <v>2844</v>
       </c>
       <c r="N256" s="1" t="s">
-        <v>3062</v>
+        <v>3059</v>
       </c>
       <c r="O256" s="1" t="s">
         <v>101</v>
@@ -57500,7 +57394,7 @@
         <v>44788</v>
       </c>
       <c r="AD256" s="1" t="s">
-        <v>3063</v>
+        <v>3060</v>
       </c>
       <c r="AF256" s="1" t="s">
         <v>107</v>
@@ -57560,10 +57454,10 @@
         <v>22</v>
       </c>
       <c r="BD256" s="1" t="s">
-        <v>3064</v>
+        <v>3061</v>
       </c>
       <c r="BH256" s="1" t="s">
-        <v>3065</v>
+        <v>3062</v>
       </c>
       <c r="BN256" s="1" t="s">
         <v>117</v>
@@ -57578,13 +57472,13 @@
         <v>160</v>
       </c>
       <c r="BS256" s="1" t="s">
-        <v>3066</v>
+        <v>3063</v>
       </c>
       <c r="BT256" s="3">
         <v>35259</v>
       </c>
       <c r="BU256" s="1" t="s">
-        <v>3067</v>
+        <v>3064</v>
       </c>
       <c r="BV256" s="1" t="s">
         <v>121</v>
@@ -57602,13 +57496,13 @@
         <v>102</v>
       </c>
       <c r="CD256" s="1" t="s">
-        <v>3068</v>
+        <v>3065</v>
       </c>
       <c r="CE256" s="1" t="s">
-        <v>3069</v>
+        <v>3066</v>
       </c>
       <c r="CF256" s="1" t="s">
-        <v>3070</v>
+        <v>3067</v>
       </c>
       <c r="CH256" s="1" t="s">
         <v>129</v>
@@ -57652,16 +57546,16 @@
         <v>97</v>
       </c>
       <c r="K257" s="1" t="s">
-        <v>3071</v>
+        <v>3068</v>
       </c>
       <c r="L257" s="1" t="s">
-        <v>3072</v>
+        <v>3069</v>
       </c>
       <c r="M257" s="1" t="s">
-        <v>2847</v>
+        <v>2844</v>
       </c>
       <c r="N257" s="1" t="s">
-        <v>3073</v>
+        <v>3070</v>
       </c>
       <c r="O257" s="1" t="s">
         <v>101</v>
@@ -57694,16 +57588,16 @@
         <v>44833</v>
       </c>
       <c r="AD257" s="1" t="s">
-        <v>3074</v>
+        <v>3071</v>
       </c>
       <c r="AF257" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG257" s="1" t="s">
-        <v>2838</v>
+        <v>2835</v>
       </c>
       <c r="AH257" s="1" t="s">
-        <v>2803</v>
+        <v>2800</v>
       </c>
       <c r="AI257" s="1" t="s">
         <v>102</v>
@@ -57754,16 +57648,16 @@
         <v>22</v>
       </c>
       <c r="BD257" s="1" t="s">
-        <v>3075</v>
+        <v>3072</v>
       </c>
       <c r="BH257" s="1" t="s">
-        <v>3076</v>
+        <v>3073</v>
       </c>
       <c r="BN257" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU257" s="1" t="s">
-        <v>3077</v>
+        <v>3074</v>
       </c>
       <c r="BV257" s="1" t="s">
         <v>121</v>
@@ -57775,7 +57669,7 @@
         <v>111</v>
       </c>
       <c r="CA257" s="1" t="s">
-        <v>3078</v>
+        <v>3075</v>
       </c>
       <c r="CB257" s="1" t="s">
         <v>123</v>
@@ -57784,16 +57678,16 @@
         <v>93</v>
       </c>
       <c r="CD257" s="1" t="s">
-        <v>3079</v>
+        <v>3076</v>
       </c>
       <c r="CE257" s="1" t="s">
-        <v>3080</v>
+        <v>3077</v>
       </c>
       <c r="CF257" s="1" t="s">
-        <v>3081</v>
+        <v>3078</v>
       </c>
       <c r="CH257" s="1" t="s">
-        <v>3017</v>
+        <v>3014</v>
       </c>
       <c r="CI257" s="1" t="s">
         <v>129</v>
@@ -57834,16 +57728,16 @@
         <v>97</v>
       </c>
       <c r="K258" s="1" t="s">
-        <v>3082</v>
+        <v>3079</v>
       </c>
       <c r="L258" s="1" t="s">
-        <v>3083</v>
+        <v>3080</v>
       </c>
       <c r="M258" s="1" t="s">
-        <v>2847</v>
+        <v>2844</v>
       </c>
       <c r="N258" s="1" t="s">
-        <v>3084</v>
+        <v>3081</v>
       </c>
       <c r="O258" s="1" t="s">
         <v>101</v>
@@ -57879,16 +57773,16 @@
         <v>44895</v>
       </c>
       <c r="AD258" s="1" t="s">
-        <v>3000</v>
+        <v>2997</v>
       </c>
       <c r="AF258" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG258" s="1" t="s">
-        <v>2838</v>
+        <v>2835</v>
       </c>
       <c r="AH258" s="1" t="s">
-        <v>2803</v>
+        <v>2800</v>
       </c>
       <c r="AJ258" s="1" t="s">
         <v>110</v>
@@ -57933,10 +57827,10 @@
         <v>22</v>
       </c>
       <c r="BD258" s="1" t="s">
-        <v>2839</v>
+        <v>2836</v>
       </c>
       <c r="BH258" s="1" t="s">
-        <v>3076</v>
+        <v>3073</v>
       </c>
       <c r="BN258" s="1" t="s">
         <v>117</v>
@@ -57945,13 +57839,13 @@
         <v>118</v>
       </c>
       <c r="BS258" s="1" t="s">
-        <v>3085</v>
+        <v>3082</v>
       </c>
       <c r="BT258" s="3">
         <v>34170</v>
       </c>
       <c r="BU258" s="1" t="s">
-        <v>3086</v>
+        <v>3083</v>
       </c>
       <c r="BV258" s="1" t="s">
         <v>121</v>
@@ -57972,16 +57866,16 @@
         <v>93</v>
       </c>
       <c r="CD258" s="1" t="s">
-        <v>2680</v>
+        <v>2678</v>
       </c>
       <c r="CE258" s="1" t="s">
-        <v>3087</v>
+        <v>3084</v>
       </c>
       <c r="CF258" s="1" t="s">
-        <v>3088</v>
+        <v>3085</v>
       </c>
       <c r="CH258" s="1" t="s">
-        <v>3017</v>
+        <v>3014</v>
       </c>
       <c r="CI258" s="1" t="s">
         <v>129</v>
@@ -58022,13 +57916,13 @@
         <v>97</v>
       </c>
       <c r="K259" s="1" t="s">
-        <v>3089</v>
+        <v>3086</v>
       </c>
       <c r="L259" s="1" t="s">
-        <v>3090</v>
+        <v>3087</v>
       </c>
       <c r="N259" s="1" t="s">
-        <v>3091</v>
+        <v>3088</v>
       </c>
       <c r="O259" s="1" t="s">
         <v>101</v>
@@ -58115,13 +58009,13 @@
         <v>23</v>
       </c>
       <c r="BD259" s="1" t="s">
-        <v>3092</v>
+        <v>3089</v>
       </c>
       <c r="BG259" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH259" s="1" t="s">
-        <v>3093</v>
+        <v>3090</v>
       </c>
       <c r="BN259" s="1" t="s">
         <v>117</v>
@@ -58130,7 +58024,7 @@
         <v>106</v>
       </c>
       <c r="BU259" s="1" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
       <c r="BV259" s="1" t="s">
         <v>121</v>
@@ -58151,16 +58045,16 @@
         <v>102</v>
       </c>
       <c r="CD259" s="1" t="s">
+        <v>3092</v>
+      </c>
+      <c r="CE259" s="1" t="s">
+        <v>3093</v>
+      </c>
+      <c r="CF259" s="1" t="s">
+        <v>3094</v>
+      </c>
+      <c r="CH259" s="1" t="s">
         <v>3095</v>
-      </c>
-      <c r="CE259" s="1" t="s">
-        <v>3096</v>
-      </c>
-      <c r="CF259" s="1" t="s">
-        <v>3097</v>
-      </c>
-      <c r="CH259" s="1" t="s">
-        <v>3098</v>
       </c>
       <c r="CI259" s="1" t="s">
         <v>129</v>
@@ -58201,16 +58095,16 @@
         <v>97</v>
       </c>
       <c r="K260" s="1" t="s">
-        <v>3036</v>
+        <v>3033</v>
       </c>
       <c r="L260" s="1" t="s">
-        <v>3099</v>
+        <v>3096</v>
       </c>
       <c r="M260" s="1" t="s">
-        <v>2847</v>
+        <v>2844</v>
       </c>
       <c r="N260" s="1" t="s">
-        <v>3037</v>
+        <v>3034</v>
       </c>
       <c r="O260" s="1" t="s">
         <v>101</v>
@@ -58243,7 +58137,7 @@
         <v>45007</v>
       </c>
       <c r="AD260" s="1" t="s">
-        <v>3100</v>
+        <v>3097</v>
       </c>
       <c r="AF260" s="1" t="s">
         <v>107</v>
@@ -58297,10 +58191,10 @@
         <v>23</v>
       </c>
       <c r="BD260" s="1" t="s">
-        <v>2842</v>
+        <v>2839</v>
       </c>
       <c r="BH260" s="1" t="s">
-        <v>3101</v>
+        <v>3098</v>
       </c>
       <c r="BN260" s="1" t="s">
         <v>117</v>
@@ -58309,13 +58203,13 @@
         <v>103</v>
       </c>
       <c r="BS260" s="1" t="s">
-        <v>3042</v>
+        <v>3039</v>
       </c>
       <c r="BT260" s="3">
         <v>300</v>
       </c>
       <c r="BU260" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="BV260" s="1" t="s">
         <v>121</v>
@@ -58336,13 +58230,13 @@
         <v>102</v>
       </c>
       <c r="CD260" s="1" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="CE260" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="CF260" s="1" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="CH260" s="1" t="s">
         <v>1814</v>
@@ -58359,10 +58253,10 @@
         <v>88</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>2976</v>
+        <v>2973</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>2977</v>
+        <v>2974</v>
       </c>
       <c r="D261" s="1" t="s">
         <v>1221</v>
@@ -58377,7 +58271,7 @@
         <v>94</v>
       </c>
       <c r="H261" s="1" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="I261" s="1" t="s">
         <v>1221</v>
@@ -58386,13 +58280,13 @@
         <v>92</v>
       </c>
       <c r="K261" s="1" t="s">
-        <v>3103</v>
+        <v>3100</v>
       </c>
       <c r="L261" s="1" t="s">
-        <v>3104</v>
+        <v>3101</v>
       </c>
       <c r="N261" s="1" t="s">
-        <v>3105</v>
+        <v>3102</v>
       </c>
       <c r="O261" s="1" t="s">
         <v>101</v>
@@ -58446,7 +58340,7 @@
         <v>0</v>
       </c>
       <c r="AN261" s="1" t="s">
-        <v>3106</v>
+        <v>3103</v>
       </c>
       <c r="AO261" s="1">
         <v>0</v>
@@ -58479,19 +58373,19 @@
         <v>23</v>
       </c>
       <c r="BD261" s="1" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="BG261" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH261" s="1" t="s">
-        <v>3108</v>
+        <v>3105</v>
       </c>
       <c r="BN261" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU261" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="BV261" s="1" t="s">
         <v>121</v>
@@ -58509,16 +58403,16 @@
         <v>102</v>
       </c>
       <c r="CD261" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="CE261" s="1" t="s">
         <v>311</v>
       </c>
       <c r="CF261" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="CH261" s="1" t="s">
-        <v>3112</v>
+        <v>3109</v>
       </c>
       <c r="CI261" s="1" t="s">
         <v>129</v>
@@ -58532,10 +58426,10 @@
         <v>88</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>2976</v>
+        <v>2973</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>2977</v>
+        <v>2974</v>
       </c>
       <c r="D262" s="1" t="s">
         <v>1221</v>
@@ -58550,7 +58444,7 @@
         <v>94</v>
       </c>
       <c r="H262" s="1" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="I262" s="1" t="s">
         <v>1221</v>
@@ -58559,13 +58453,13 @@
         <v>92</v>
       </c>
       <c r="K262" s="1" t="s">
-        <v>3113</v>
+        <v>3110</v>
       </c>
       <c r="L262" s="1" t="s">
-        <v>3114</v>
+        <v>3111</v>
       </c>
       <c r="N262" s="1" t="s">
-        <v>3115</v>
+        <v>3112</v>
       </c>
       <c r="O262" s="1" t="s">
         <v>101</v>
@@ -58616,7 +58510,7 @@
         <v>0</v>
       </c>
       <c r="AN262" s="1" t="s">
-        <v>3116</v>
+        <v>3113</v>
       </c>
       <c r="AO262" s="1">
         <v>0</v>
@@ -58652,19 +58546,19 @@
         <v>23</v>
       </c>
       <c r="BD262" s="1" t="s">
-        <v>3117</v>
+        <v>3114</v>
       </c>
       <c r="BG262" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH262" s="1" t="s">
-        <v>3118</v>
+        <v>3115</v>
       </c>
       <c r="BN262" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU262" s="1" t="s">
-        <v>3119</v>
+        <v>3116</v>
       </c>
       <c r="BV262" s="1" t="s">
         <v>121</v>
@@ -58691,10 +58585,10 @@
         <v>1051</v>
       </c>
       <c r="CF262" s="1" t="s">
-        <v>3120</v>
+        <v>3117</v>
       </c>
       <c r="CH262" s="1" t="s">
-        <v>3121</v>
+        <v>3118</v>
       </c>
       <c r="CI262" s="1" t="s">
         <v>129</v>
@@ -58708,10 +58602,10 @@
         <v>88</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>2976</v>
+        <v>2973</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>2977</v>
+        <v>2974</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>1221</v>
@@ -58726,7 +58620,7 @@
         <v>94</v>
       </c>
       <c r="H263" s="1" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="I263" s="1" t="s">
         <v>1221</v>
@@ -58735,13 +58629,13 @@
         <v>92</v>
       </c>
       <c r="K263" s="1" t="s">
-        <v>3122</v>
+        <v>3119</v>
       </c>
       <c r="L263" s="1" t="s">
-        <v>3123</v>
+        <v>3120</v>
       </c>
       <c r="N263" s="1" t="s">
-        <v>3124</v>
+        <v>3121</v>
       </c>
       <c r="O263" s="1" t="s">
         <v>101</v>
@@ -58792,7 +58686,7 @@
         <v>0</v>
       </c>
       <c r="AN263" s="1" t="s">
-        <v>3125</v>
+        <v>3122</v>
       </c>
       <c r="AO263" s="1">
         <v>0</v>
@@ -58828,19 +58722,19 @@
         <v>23</v>
       </c>
       <c r="BD263" s="1" t="s">
-        <v>3126</v>
+        <v>3123</v>
       </c>
       <c r="BG263" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH263" s="1" t="s">
-        <v>3127</v>
+        <v>3124</v>
       </c>
       <c r="BN263" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU263" s="1" t="s">
-        <v>3128</v>
+        <v>3125</v>
       </c>
       <c r="BV263" s="1" t="s">
         <v>121</v>
@@ -58861,16 +58755,16 @@
         <v>102</v>
       </c>
       <c r="CD263" s="1" t="s">
+        <v>3126</v>
+      </c>
+      <c r="CE263" s="1" t="s">
+        <v>3127</v>
+      </c>
+      <c r="CF263" s="1" t="s">
+        <v>3128</v>
+      </c>
+      <c r="CH263" s="1" t="s">
         <v>3129</v>
-      </c>
-      <c r="CE263" s="1" t="s">
-        <v>3130</v>
-      </c>
-      <c r="CF263" s="1" t="s">
-        <v>3131</v>
-      </c>
-      <c r="CH263" s="1" t="s">
-        <v>3132</v>
       </c>
       <c r="CI263" s="1" t="s">
         <v>129</v>
@@ -58884,10 +58778,10 @@
         <v>88</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>2976</v>
+        <v>2973</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>2977</v>
+        <v>2974</v>
       </c>
       <c r="D264" s="1" t="s">
         <v>1221</v>
@@ -58902,7 +58796,7 @@
         <v>94</v>
       </c>
       <c r="H264" s="1" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="I264" s="1" t="s">
         <v>1221</v>
@@ -58911,13 +58805,13 @@
         <v>92</v>
       </c>
       <c r="K264" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="L264" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="N264" s="1" t="s">
-        <v>3135</v>
+        <v>3132</v>
       </c>
       <c r="O264" s="1" t="s">
         <v>101</v>
@@ -59004,19 +58898,19 @@
         <v>23</v>
       </c>
       <c r="BD264" s="1" t="s">
-        <v>3136</v>
+        <v>3133</v>
       </c>
       <c r="BG264" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH264" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="BN264" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU264" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="BV264" s="1" t="s">
         <v>121</v>
@@ -59037,7 +58931,7 @@
         <v>102</v>
       </c>
       <c r="CD264" s="1" t="s">
-        <v>3139</v>
+        <v>3136</v>
       </c>
       <c r="CE264" s="1" t="s">
         <v>586</v>
@@ -59046,7 +58940,7 @@
         <v>492</v>
       </c>
       <c r="CH264" s="1" t="s">
-        <v>3140</v>
+        <v>3137</v>
       </c>
       <c r="CI264" s="1" t="s">
         <v>129</v>
@@ -59060,10 +58954,10 @@
         <v>88</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>2976</v>
+        <v>2973</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>2977</v>
+        <v>2974</v>
       </c>
       <c r="D265" s="1" t="s">
         <v>1221</v>
@@ -59078,7 +58972,7 @@
         <v>94</v>
       </c>
       <c r="H265" s="1" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="I265" s="1" t="s">
         <v>1221</v>
@@ -59087,13 +58981,13 @@
         <v>92</v>
       </c>
       <c r="K265" s="1" t="s">
-        <v>3141</v>
+        <v>3138</v>
       </c>
       <c r="L265" s="1" t="s">
-        <v>3142</v>
+        <v>3139</v>
       </c>
       <c r="N265" s="1" t="s">
-        <v>3143</v>
+        <v>3140</v>
       </c>
       <c r="O265" s="1" t="s">
         <v>101</v>
@@ -59147,7 +59041,7 @@
         <v>0</v>
       </c>
       <c r="AN265" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="AO265" s="1">
         <v>0</v>
@@ -59183,19 +59077,19 @@
         <v>23</v>
       </c>
       <c r="BD265" s="1" t="s">
-        <v>3145</v>
+        <v>3142</v>
       </c>
       <c r="BG265" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH265" s="1" t="s">
-        <v>3146</v>
+        <v>3143</v>
       </c>
       <c r="BN265" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU265" s="1" t="s">
-        <v>3147</v>
+        <v>3144</v>
       </c>
       <c r="BV265" s="1" t="s">
         <v>121</v>
@@ -59219,13 +59113,13 @@
         <v>476</v>
       </c>
       <c r="CE265" s="1" t="s">
-        <v>3148</v>
+        <v>3145</v>
       </c>
       <c r="CF265" s="1" t="s">
-        <v>3149</v>
+        <v>3146</v>
       </c>
       <c r="CH265" s="1" t="s">
-        <v>3150</v>
+        <v>3147</v>
       </c>
       <c r="CI265" s="1" t="s">
         <v>129</v>
@@ -59239,10 +59133,10 @@
         <v>88</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>2976</v>
+        <v>2973</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>2977</v>
+        <v>2974</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>1221</v>
@@ -59257,7 +59151,7 @@
         <v>94</v>
       </c>
       <c r="H266" s="1" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="I266" s="1" t="s">
         <v>1221</v>
@@ -59266,13 +59160,13 @@
         <v>92</v>
       </c>
       <c r="K266" s="1" t="s">
-        <v>3151</v>
+        <v>3148</v>
       </c>
       <c r="L266" s="1" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="N266" s="1" t="s">
-        <v>3153</v>
+        <v>3150</v>
       </c>
       <c r="O266" s="1" t="s">
         <v>101</v>
@@ -59359,19 +59253,19 @@
         <v>23</v>
       </c>
       <c r="BD266" s="1" t="s">
-        <v>3154</v>
+        <v>3151</v>
       </c>
       <c r="BG266" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH266" s="1" t="s">
-        <v>3155</v>
+        <v>3152</v>
       </c>
       <c r="BN266" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU266" s="1" t="s">
-        <v>3156</v>
+        <v>3153</v>
       </c>
       <c r="BV266" s="1" t="s">
         <v>121</v>
@@ -59392,16 +59286,16 @@
         <v>102</v>
       </c>
       <c r="CD266" s="1" t="s">
-        <v>3157</v>
+        <v>3154</v>
       </c>
       <c r="CE266" s="1" t="s">
         <v>597</v>
       </c>
       <c r="CF266" s="1" t="s">
-        <v>3158</v>
+        <v>3155</v>
       </c>
       <c r="CH266" s="1" t="s">
-        <v>3159</v>
+        <v>3156</v>
       </c>
       <c r="CI266" s="1" t="s">
         <v>129</v>
@@ -59415,10 +59309,10 @@
         <v>88</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>2976</v>
+        <v>2973</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>2977</v>
+        <v>2974</v>
       </c>
       <c r="D267" s="1" t="s">
         <v>1221</v>
@@ -59433,7 +59327,7 @@
         <v>94</v>
       </c>
       <c r="H267" s="1" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="I267" s="1" t="s">
         <v>1221</v>
@@ -59442,13 +59336,13 @@
         <v>92</v>
       </c>
       <c r="K267" s="1" t="s">
-        <v>3160</v>
+        <v>3157</v>
       </c>
       <c r="L267" s="1" t="s">
-        <v>3161</v>
+        <v>3158</v>
       </c>
       <c r="N267" s="1" t="s">
-        <v>3162</v>
+        <v>3159</v>
       </c>
       <c r="O267" s="1" t="s">
         <v>101</v>
@@ -59502,7 +59396,7 @@
         <v>0</v>
       </c>
       <c r="AN267" s="1" t="s">
-        <v>3163</v>
+        <v>3160</v>
       </c>
       <c r="AO267" s="1">
         <v>0</v>
@@ -59538,19 +59432,19 @@
         <v>23</v>
       </c>
       <c r="BD267" s="1" t="s">
-        <v>3164</v>
+        <v>3161</v>
       </c>
       <c r="BG267" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH267" s="1" t="s">
-        <v>3165</v>
+        <v>3162</v>
       </c>
       <c r="BN267" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU267" s="1" t="s">
-        <v>3166</v>
+        <v>3163</v>
       </c>
       <c r="BV267" s="1" t="s">
         <v>121</v>
@@ -59571,16 +59465,16 @@
         <v>102</v>
       </c>
       <c r="CD267" s="1" t="s">
-        <v>3167</v>
+        <v>3164</v>
       </c>
       <c r="CE267" s="1" t="s">
         <v>981</v>
       </c>
       <c r="CF267" s="1" t="s">
-        <v>3168</v>
+        <v>3165</v>
       </c>
       <c r="CH267" s="1" t="s">
-        <v>3169</v>
+        <v>3166</v>
       </c>
       <c r="CI267" s="1" t="s">
         <v>129</v>
@@ -59594,10 +59488,10 @@
         <v>88</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>2976</v>
+        <v>2973</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>2977</v>
+        <v>2974</v>
       </c>
       <c r="D268" s="1" t="s">
         <v>1221</v>
@@ -59612,7 +59506,7 @@
         <v>94</v>
       </c>
       <c r="H268" s="1" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="I268" s="1" t="s">
         <v>1221</v>
@@ -59621,13 +59515,13 @@
         <v>92</v>
       </c>
       <c r="K268" s="1" t="s">
-        <v>3170</v>
+        <v>3167</v>
       </c>
       <c r="L268" s="1" t="s">
-        <v>3171</v>
+        <v>3168</v>
       </c>
       <c r="N268" s="1" t="s">
-        <v>3172</v>
+        <v>3169</v>
       </c>
       <c r="O268" s="1" t="s">
         <v>101</v>
@@ -59681,7 +59575,7 @@
         <v>0</v>
       </c>
       <c r="AN268" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="AO268" s="1">
         <v>0</v>
@@ -59717,19 +59611,19 @@
         <v>23</v>
       </c>
       <c r="BD268" s="1" t="s">
-        <v>3173</v>
+        <v>3170</v>
       </c>
       <c r="BG268" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH268" s="1" t="s">
-        <v>3174</v>
+        <v>3171</v>
       </c>
       <c r="BN268" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU268" s="1" t="s">
-        <v>3175</v>
+        <v>3172</v>
       </c>
       <c r="BV268" s="1" t="s">
         <v>121</v>
@@ -59753,13 +59647,13 @@
         <v>967</v>
       </c>
       <c r="CE268" s="1" t="s">
-        <v>3176</v>
+        <v>3173</v>
       </c>
       <c r="CF268" s="1" t="s">
-        <v>3177</v>
+        <v>3174</v>
       </c>
       <c r="CH268" s="1" t="s">
-        <v>3178</v>
+        <v>3175</v>
       </c>
       <c r="CI268" s="1" t="s">
         <v>129</v>
@@ -59773,10 +59667,10 @@
         <v>88</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>2976</v>
+        <v>2973</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>2977</v>
+        <v>2974</v>
       </c>
       <c r="D269" s="1" t="s">
         <v>1221</v>
@@ -59791,7 +59685,7 @@
         <v>94</v>
       </c>
       <c r="H269" s="1" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="I269" s="1" t="s">
         <v>1221</v>
@@ -59800,10 +59694,10 @@
         <v>92</v>
       </c>
       <c r="K269" s="1" t="s">
-        <v>3179</v>
+        <v>3176</v>
       </c>
       <c r="L269" s="1" t="s">
-        <v>3180</v>
+        <v>3177</v>
       </c>
       <c r="O269" s="1" t="s">
         <v>101</v>
@@ -59845,7 +59739,7 @@
         <v>0</v>
       </c>
       <c r="AN269" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="AO269" s="1">
         <v>0</v>
@@ -59881,7 +59775,7 @@
         <v>21</v>
       </c>
       <c r="BD269" s="1" t="s">
-        <v>3181</v>
+        <v>3178</v>
       </c>
       <c r="BN269" s="1" t="s">
         <v>117</v>
@@ -59905,7 +59799,7 @@
         <v>102</v>
       </c>
       <c r="CD269" s="1" t="s">
-        <v>3179</v>
+        <v>3176</v>
       </c>
       <c r="CH269" s="1" t="s">
         <v>129</v>
@@ -59922,10 +59816,10 @@
         <v>88</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>2976</v>
+        <v>2973</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>2977</v>
+        <v>2974</v>
       </c>
       <c r="D270" s="1" t="s">
         <v>1221</v>
@@ -59940,7 +59834,7 @@
         <v>94</v>
       </c>
       <c r="H270" s="1" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="I270" s="1" t="s">
         <v>1221</v>
@@ -59949,13 +59843,13 @@
         <v>92</v>
       </c>
       <c r="K270" s="1" t="s">
-        <v>3182</v>
+        <v>3179</v>
       </c>
       <c r="L270" s="1" t="s">
         <v>2199</v>
       </c>
       <c r="N270" s="1" t="s">
-        <v>3183</v>
+        <v>3180</v>
       </c>
       <c r="O270" s="1" t="s">
         <v>101</v>
@@ -60006,7 +59900,7 @@
         <v>0</v>
       </c>
       <c r="AN270" s="1" t="s">
-        <v>3184</v>
+        <v>3181</v>
       </c>
       <c r="AO270" s="1">
         <v>0</v>
@@ -60039,19 +59933,19 @@
         <v>23</v>
       </c>
       <c r="BD270" s="1" t="s">
-        <v>3185</v>
+        <v>3182</v>
       </c>
       <c r="BG270" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH270" s="1" t="s">
-        <v>3186</v>
+        <v>3183</v>
       </c>
       <c r="BN270" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU270" s="1" t="s">
-        <v>3187</v>
+        <v>3184</v>
       </c>
       <c r="BV270" s="1" t="s">
         <v>121</v>
@@ -60069,16 +59963,16 @@
         <v>102</v>
       </c>
       <c r="CD270" s="1" t="s">
+        <v>3185</v>
+      </c>
+      <c r="CE270" s="1" t="s">
+        <v>3186</v>
+      </c>
+      <c r="CF270" s="1" t="s">
+        <v>3187</v>
+      </c>
+      <c r="CH270" s="1" t="s">
         <v>3188</v>
-      </c>
-      <c r="CE270" s="1" t="s">
-        <v>3189</v>
-      </c>
-      <c r="CF270" s="1" t="s">
-        <v>3190</v>
-      </c>
-      <c r="CH270" s="1" t="s">
-        <v>3191</v>
       </c>
       <c r="CI270" s="1" t="s">
         <v>129</v>
@@ -60092,10 +59986,10 @@
         <v>88</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>2976</v>
+        <v>2973</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>2977</v>
+        <v>2974</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>1221</v>
@@ -60110,7 +60004,7 @@
         <v>94</v>
       </c>
       <c r="H271" s="1" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="I271" s="1" t="s">
         <v>1221</v>
@@ -60119,19 +60013,19 @@
         <v>92</v>
       </c>
       <c r="K271" s="1" t="s">
-        <v>3192</v>
+        <v>3189</v>
       </c>
       <c r="L271" s="1" t="s">
-        <v>3007</v>
+        <v>3004</v>
       </c>
       <c r="N271" s="1" t="s">
-        <v>3193</v>
+        <v>3190</v>
       </c>
       <c r="O271" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P271" s="1" t="s">
-        <v>3194</v>
+        <v>3191</v>
       </c>
       <c r="Q271" s="3">
         <v>16452</v>
@@ -60209,19 +60103,19 @@
         <v>23</v>
       </c>
       <c r="BD271" s="1" t="s">
-        <v>3195</v>
+        <v>3192</v>
       </c>
       <c r="BG271" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH271" s="1" t="s">
-        <v>3196</v>
+        <v>3193</v>
       </c>
       <c r="BN271" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU271" s="1" t="s">
-        <v>3197</v>
+        <v>3194</v>
       </c>
       <c r="BV271" s="1" t="s">
         <v>121</v>
@@ -60242,16 +60136,16 @@
         <v>2135</v>
       </c>
       <c r="CD271" s="1" t="s">
+        <v>3195</v>
+      </c>
+      <c r="CE271" s="1" t="s">
+        <v>3196</v>
+      </c>
+      <c r="CF271" s="1" t="s">
+        <v>3197</v>
+      </c>
+      <c r="CH271" s="1" t="s">
         <v>3198</v>
-      </c>
-      <c r="CE271" s="1" t="s">
-        <v>3199</v>
-      </c>
-      <c r="CF271" s="1" t="s">
-        <v>3200</v>
-      </c>
-      <c r="CH271" s="1" t="s">
-        <v>3201</v>
       </c>
       <c r="CI271" s="1" t="s">
         <v>129</v>
@@ -60265,10 +60159,10 @@
         <v>88</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>2976</v>
+        <v>2973</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>2977</v>
+        <v>2974</v>
       </c>
       <c r="D272" s="1" t="s">
         <v>1221</v>
@@ -60283,7 +60177,7 @@
         <v>94</v>
       </c>
       <c r="H272" s="1" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="I272" s="1" t="s">
         <v>1221</v>
@@ -60292,13 +60186,13 @@
         <v>92</v>
       </c>
       <c r="K272" s="1" t="s">
-        <v>3202</v>
+        <v>3199</v>
       </c>
       <c r="L272" s="1" t="s">
-        <v>3203</v>
+        <v>3200</v>
       </c>
       <c r="N272" s="1" t="s">
-        <v>3204</v>
+        <v>3201</v>
       </c>
       <c r="O272" s="1" t="s">
         <v>101</v>
@@ -60352,7 +60246,7 @@
         <v>0</v>
       </c>
       <c r="AN272" s="1" t="s">
-        <v>3205</v>
+        <v>3202</v>
       </c>
       <c r="AO272" s="1">
         <v>0</v>
@@ -60388,19 +60282,19 @@
         <v>23</v>
       </c>
       <c r="BD272" s="1" t="s">
-        <v>3206</v>
+        <v>3203</v>
       </c>
       <c r="BG272" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH272" s="1" t="s">
-        <v>3207</v>
+        <v>3204</v>
       </c>
       <c r="BN272" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU272" s="1" t="s">
-        <v>3208</v>
+        <v>3205</v>
       </c>
       <c r="BV272" s="1" t="s">
         <v>121</v>
@@ -60421,16 +60315,16 @@
         <v>102</v>
       </c>
       <c r="CD272" s="1" t="s">
-        <v>3198</v>
+        <v>3195</v>
       </c>
       <c r="CE272" s="1" t="s">
-        <v>3209</v>
+        <v>3206</v>
       </c>
       <c r="CF272" s="1" t="s">
-        <v>3210</v>
+        <v>3207</v>
       </c>
       <c r="CH272" s="1" t="s">
-        <v>3211</v>
+        <v>3208</v>
       </c>
       <c r="CI272" s="1" t="s">
         <v>129</v>
@@ -60444,10 +60338,10 @@
         <v>88</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>2976</v>
+        <v>2973</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>2977</v>
+        <v>2974</v>
       </c>
       <c r="D273" s="1" t="s">
         <v>1221</v>
@@ -60462,7 +60356,7 @@
         <v>94</v>
       </c>
       <c r="H273" s="1" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="I273" s="1" t="s">
         <v>1221</v>
@@ -60471,10 +60365,10 @@
         <v>92</v>
       </c>
       <c r="K273" s="1" t="s">
-        <v>3212</v>
+        <v>3209</v>
       </c>
       <c r="L273" s="1" t="s">
-        <v>3213</v>
+        <v>3210</v>
       </c>
       <c r="O273" s="1" t="s">
         <v>101</v>
@@ -60516,7 +60410,7 @@
         <v>0</v>
       </c>
       <c r="AN273" s="1" t="s">
-        <v>3036</v>
+        <v>3033</v>
       </c>
       <c r="AO273" s="1">
         <v>0</v>
@@ -60552,7 +60446,7 @@
         <v>22</v>
       </c>
       <c r="BD273" s="1" t="s">
-        <v>3214</v>
+        <v>3211</v>
       </c>
       <c r="BN273" s="1" t="s">
         <v>117</v>
@@ -60576,7 +60470,7 @@
         <v>102</v>
       </c>
       <c r="CD273" s="1" t="s">
-        <v>3212</v>
+        <v>3209</v>
       </c>
       <c r="CH273" s="1" t="s">
         <v>129</v>
@@ -60593,10 +60487,10 @@
         <v>88</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>2976</v>
+        <v>2973</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>2977</v>
+        <v>2974</v>
       </c>
       <c r="D274" s="1" t="s">
         <v>1221</v>
@@ -60611,7 +60505,7 @@
         <v>94</v>
       </c>
       <c r="H274" s="1" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="I274" s="1" t="s">
         <v>1221</v>
@@ -60620,10 +60514,10 @@
         <v>92</v>
       </c>
       <c r="K274" s="1" t="s">
-        <v>3215</v>
+        <v>3212</v>
       </c>
       <c r="L274" s="1" t="s">
-        <v>3216</v>
+        <v>3213</v>
       </c>
       <c r="O274" s="1" t="s">
         <v>101</v>
@@ -60665,7 +60559,7 @@
         <v>0</v>
       </c>
       <c r="AN274" s="1" t="s">
-        <v>3036</v>
+        <v>3033</v>
       </c>
       <c r="AO274" s="1">
         <v>0</v>
@@ -60701,7 +60595,7 @@
         <v>22</v>
       </c>
       <c r="BD274" s="1" t="s">
-        <v>3217</v>
+        <v>3214</v>
       </c>
       <c r="BN274" s="1" t="s">
         <v>117</v>
@@ -60725,7 +60619,7 @@
         <v>102</v>
       </c>
       <c r="CD274" s="1" t="s">
-        <v>3215</v>
+        <v>3212</v>
       </c>
       <c r="CH274" s="1" t="s">
         <v>129</v>
@@ -60742,10 +60636,10 @@
         <v>88</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>2976</v>
+        <v>2973</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>2977</v>
+        <v>2974</v>
       </c>
       <c r="D275" s="1" t="s">
         <v>1221</v>
@@ -60760,7 +60654,7 @@
         <v>94</v>
       </c>
       <c r="H275" s="1" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="I275" s="1" t="s">
         <v>1221</v>
@@ -60769,13 +60663,13 @@
         <v>92</v>
       </c>
       <c r="K275" s="1" t="s">
-        <v>3218</v>
+        <v>3215</v>
       </c>
       <c r="L275" s="1" t="s">
-        <v>3219</v>
+        <v>3216</v>
       </c>
       <c r="N275" s="1" t="s">
-        <v>3220</v>
+        <v>3217</v>
       </c>
       <c r="O275" s="1" t="s">
         <v>101</v>
@@ -60868,7 +60762,7 @@
         <v>23</v>
       </c>
       <c r="BD275" s="1" t="s">
-        <v>3221</v>
+        <v>3218</v>
       </c>
       <c r="BG275" s="1" t="s">
         <v>114</v>
@@ -60895,10 +60789,10 @@
         <v>102</v>
       </c>
       <c r="CD275" s="1" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="CE275" s="1" t="s">
-        <v>3222</v>
+        <v>3219</v>
       </c>
       <c r="CF275" s="1" t="s">
         <v>216</v>
@@ -60918,10 +60812,10 @@
         <v>88</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>2976</v>
+        <v>2973</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>2977</v>
+        <v>2974</v>
       </c>
       <c r="D276" s="1" t="s">
         <v>1221</v>
@@ -60936,7 +60830,7 @@
         <v>94</v>
       </c>
       <c r="H276" s="1" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="I276" s="1" t="s">
         <v>1221</v>
@@ -60945,10 +60839,10 @@
         <v>92</v>
       </c>
       <c r="K276" s="1" t="s">
-        <v>3223</v>
+        <v>3220</v>
       </c>
       <c r="L276" s="1" t="s">
-        <v>3224</v>
+        <v>3221</v>
       </c>
       <c r="O276" s="1" t="s">
         <v>101</v>
@@ -60990,7 +60884,7 @@
         <v>0</v>
       </c>
       <c r="AN276" s="1" t="s">
-        <v>3036</v>
+        <v>3033</v>
       </c>
       <c r="AO276" s="1">
         <v>0</v>
@@ -61026,7 +60920,7 @@
         <v>22</v>
       </c>
       <c r="BD276" s="1" t="s">
-        <v>3225</v>
+        <v>3222</v>
       </c>
       <c r="BN276" s="1" t="s">
         <v>117</v>
@@ -61035,7 +60929,7 @@
         <v>121</v>
       </c>
       <c r="BX276" s="1" t="s">
-        <v>3226</v>
+        <v>3223</v>
       </c>
       <c r="BY276" s="1">
         <v>0</v>
@@ -61053,7 +60947,7 @@
         <v>102</v>
       </c>
       <c r="CD276" s="1" t="s">
-        <v>3223</v>
+        <v>3220</v>
       </c>
       <c r="CH276" s="1" t="s">
         <v>129</v>
@@ -61070,10 +60964,10 @@
         <v>88</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>2976</v>
+        <v>2973</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>2977</v>
+        <v>2974</v>
       </c>
       <c r="D277" s="1" t="s">
         <v>1221</v>
@@ -61088,7 +60982,7 @@
         <v>94</v>
       </c>
       <c r="H277" s="1" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="I277" s="1" t="s">
         <v>1221</v>
@@ -61097,13 +60991,13 @@
         <v>92</v>
       </c>
       <c r="K277" s="1" t="s">
-        <v>3227</v>
+        <v>3224</v>
       </c>
       <c r="L277" s="1" t="s">
-        <v>3228</v>
+        <v>3225</v>
       </c>
       <c r="N277" s="1" t="s">
-        <v>3229</v>
+        <v>3226</v>
       </c>
       <c r="O277" s="1" t="s">
         <v>101</v>
@@ -61154,7 +61048,7 @@
         <v>0</v>
       </c>
       <c r="AN277" s="1" t="s">
-        <v>3230</v>
+        <v>3227</v>
       </c>
       <c r="AO277" s="1">
         <v>0</v>
@@ -61190,19 +61084,19 @@
         <v>23</v>
       </c>
       <c r="BD277" s="1" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="BG277" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH277" s="1" t="s">
-        <v>3232</v>
+        <v>3229</v>
       </c>
       <c r="BN277" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU277" s="1" t="s">
-        <v>3233</v>
+        <v>3230</v>
       </c>
       <c r="BV277" s="1" t="s">
         <v>121</v>
@@ -61223,16 +61117,16 @@
         <v>102</v>
       </c>
       <c r="CD277" s="1" t="s">
-        <v>3234</v>
+        <v>3231</v>
       </c>
       <c r="CE277" s="1" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="CF277" s="1" t="s">
-        <v>3235</v>
+        <v>3232</v>
       </c>
       <c r="CH277" s="1" t="s">
-        <v>3236</v>
+        <v>3233</v>
       </c>
       <c r="CI277" s="1" t="s">
         <v>129</v>
@@ -61246,10 +61140,10 @@
         <v>88</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>2976</v>
+        <v>2973</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>2977</v>
+        <v>2974</v>
       </c>
       <c r="D278" s="1" t="s">
         <v>1221</v>
@@ -61264,7 +61158,7 @@
         <v>94</v>
       </c>
       <c r="H278" s="1" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="I278" s="1" t="s">
         <v>1221</v>
@@ -61273,13 +61167,13 @@
         <v>92</v>
       </c>
       <c r="K278" s="1" t="s">
-        <v>3237</v>
+        <v>3234</v>
       </c>
       <c r="L278" s="1" t="s">
-        <v>3238</v>
+        <v>3235</v>
       </c>
       <c r="N278" s="1" t="s">
-        <v>3239</v>
+        <v>3236</v>
       </c>
       <c r="O278" s="1" t="s">
         <v>101</v>
@@ -61309,7 +61203,7 @@
         <v>107</v>
       </c>
       <c r="AG278" s="1" t="s">
-        <v>2652</v>
+        <v>2650</v>
       </c>
       <c r="AH278" s="1" t="s">
         <v>373</v>
@@ -61324,7 +61218,7 @@
         <v>0</v>
       </c>
       <c r="AN278" s="1" t="s">
-        <v>3240</v>
+        <v>3237</v>
       </c>
       <c r="AO278" s="1">
         <v>0</v>
@@ -61354,19 +61248,19 @@
         <v>23</v>
       </c>
       <c r="BD278" s="1" t="s">
-        <v>3241</v>
+        <v>3238</v>
       </c>
       <c r="BG278" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH278" s="1" t="s">
-        <v>3242</v>
+        <v>3239</v>
       </c>
       <c r="BN278" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU278" s="1" t="s">
-        <v>3243</v>
+        <v>3240</v>
       </c>
       <c r="BV278" s="1" t="s">
         <v>121</v>
@@ -61384,16 +61278,16 @@
         <v>102</v>
       </c>
       <c r="CD278" s="1" t="s">
-        <v>3244</v>
+        <v>3241</v>
       </c>
       <c r="CE278" s="1" t="s">
         <v>311</v>
       </c>
       <c r="CF278" s="1" t="s">
-        <v>3245</v>
+        <v>3242</v>
       </c>
       <c r="CH278" s="1" t="s">
-        <v>3246</v>
+        <v>3243</v>
       </c>
       <c r="CI278" s="1" t="s">
         <v>129</v>
@@ -61407,10 +61301,10 @@
         <v>88</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>2976</v>
+        <v>2973</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>2977</v>
+        <v>2974</v>
       </c>
       <c r="D279" s="1" t="s">
         <v>1221</v>
@@ -61425,7 +61319,7 @@
         <v>94</v>
       </c>
       <c r="H279" s="1" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="I279" s="1" t="s">
         <v>1221</v>
@@ -61434,13 +61328,13 @@
         <v>92</v>
       </c>
       <c r="K279" s="1" t="s">
-        <v>3247</v>
+        <v>3244</v>
       </c>
       <c r="L279" s="1" t="s">
-        <v>3248</v>
+        <v>3245</v>
       </c>
       <c r="N279" s="1" t="s">
-        <v>3249</v>
+        <v>3246</v>
       </c>
       <c r="O279" s="1" t="s">
         <v>101</v>
@@ -61524,19 +61418,19 @@
         <v>23</v>
       </c>
       <c r="BD279" s="1" t="s">
-        <v>3250</v>
+        <v>3247</v>
       </c>
       <c r="BG279" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH279" s="1" t="s">
-        <v>3251</v>
+        <v>3248</v>
       </c>
       <c r="BN279" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU279" s="1" t="s">
-        <v>3252</v>
+        <v>3249</v>
       </c>
       <c r="BV279" s="1" t="s">
         <v>121</v>
@@ -61554,16 +61448,16 @@
         <v>102</v>
       </c>
       <c r="CD279" s="1" t="s">
+        <v>3250</v>
+      </c>
+      <c r="CE279" s="1" t="s">
+        <v>3251</v>
+      </c>
+      <c r="CF279" s="1" t="s">
+        <v>3252</v>
+      </c>
+      <c r="CH279" s="1" t="s">
         <v>3253</v>
-      </c>
-      <c r="CE279" s="1" t="s">
-        <v>3254</v>
-      </c>
-      <c r="CF279" s="1" t="s">
-        <v>3255</v>
-      </c>
-      <c r="CH279" s="1" t="s">
-        <v>3256</v>
       </c>
       <c r="CI279" s="1" t="s">
         <v>129</v>
@@ -61577,10 +61471,10 @@
         <v>88</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>2976</v>
+        <v>2973</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>2977</v>
+        <v>2974</v>
       </c>
       <c r="D280" s="1" t="s">
         <v>1221</v>
@@ -61595,7 +61489,7 @@
         <v>94</v>
       </c>
       <c r="H280" s="1" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="I280" s="1" t="s">
         <v>1221</v>
@@ -61604,13 +61498,13 @@
         <v>92</v>
       </c>
       <c r="K280" s="1" t="s">
-        <v>3257</v>
+        <v>3254</v>
       </c>
       <c r="L280" s="1" t="s">
-        <v>3258</v>
+        <v>3255</v>
       </c>
       <c r="N280" s="1" t="s">
-        <v>3259</v>
+        <v>3256</v>
       </c>
       <c r="O280" s="1" t="s">
         <v>101</v>
@@ -61697,19 +61591,19 @@
         <v>23</v>
       </c>
       <c r="BD280" s="1" t="s">
-        <v>3260</v>
+        <v>3257</v>
       </c>
       <c r="BG280" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH280" s="1" t="s">
-        <v>3261</v>
+        <v>3258</v>
       </c>
       <c r="BN280" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU280" s="1" t="s">
-        <v>3262</v>
+        <v>3259</v>
       </c>
       <c r="BV280" s="1" t="s">
         <v>121</v>
@@ -61727,16 +61621,16 @@
         <v>102</v>
       </c>
       <c r="CD280" s="1" t="s">
+        <v>3260</v>
+      </c>
+      <c r="CE280" s="1" t="s">
+        <v>3261</v>
+      </c>
+      <c r="CF280" s="1" t="s">
+        <v>3262</v>
+      </c>
+      <c r="CH280" s="1" t="s">
         <v>3263</v>
-      </c>
-      <c r="CE280" s="1" t="s">
-        <v>3264</v>
-      </c>
-      <c r="CF280" s="1" t="s">
-        <v>3265</v>
-      </c>
-      <c r="CH280" s="1" t="s">
-        <v>3266</v>
       </c>
       <c r="CI280" s="1" t="s">
         <v>129</v>
@@ -61750,10 +61644,10 @@
         <v>88</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>2976</v>
+        <v>2973</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>2977</v>
+        <v>2974</v>
       </c>
       <c r="D281" s="1" t="s">
         <v>1221</v>
@@ -61768,7 +61662,7 @@
         <v>94</v>
       </c>
       <c r="H281" s="1" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="I281" s="1" t="s">
         <v>1221</v>
@@ -61777,13 +61671,13 @@
         <v>92</v>
       </c>
       <c r="K281" s="1" t="s">
-        <v>3267</v>
+        <v>3264</v>
       </c>
       <c r="L281" s="1" t="s">
-        <v>3268</v>
+        <v>3265</v>
       </c>
       <c r="N281" s="1" t="s">
-        <v>3269</v>
+        <v>3266</v>
       </c>
       <c r="O281" s="1" t="s">
         <v>101</v>
@@ -61792,7 +61686,7 @@
         <v>102</v>
       </c>
       <c r="Q281" t="s">
-        <v>3270</v>
+        <v>3267</v>
       </c>
       <c r="R281" s="1" t="s">
         <v>134</v>
@@ -61834,7 +61728,7 @@
         <v>0</v>
       </c>
       <c r="AN281" s="1" t="s">
-        <v>3106</v>
+        <v>3103</v>
       </c>
       <c r="AO281" s="1">
         <v>0</v>
@@ -61867,19 +61761,19 @@
         <v>23</v>
       </c>
       <c r="BD281" s="1" t="s">
-        <v>3271</v>
+        <v>3268</v>
       </c>
       <c r="BG281" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH281" s="1" t="s">
-        <v>3272</v>
+        <v>3269</v>
       </c>
       <c r="BN281" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU281" s="1" t="s">
-        <v>3273</v>
+        <v>3270</v>
       </c>
       <c r="BV281" s="1" t="s">
         <v>121</v>
@@ -61897,16 +61791,16 @@
         <v>102</v>
       </c>
       <c r="CD281" s="1" t="s">
+        <v>3271</v>
+      </c>
+      <c r="CE281" s="1" t="s">
+        <v>3272</v>
+      </c>
+      <c r="CF281" s="1" t="s">
+        <v>3273</v>
+      </c>
+      <c r="CH281" s="1" t="s">
         <v>3274</v>
-      </c>
-      <c r="CE281" s="1" t="s">
-        <v>3275</v>
-      </c>
-      <c r="CF281" s="1" t="s">
-        <v>3276</v>
-      </c>
-      <c r="CH281" s="1" t="s">
-        <v>3277</v>
       </c>
       <c r="CI281" s="1" t="s">
         <v>129</v>
@@ -61920,10 +61814,10 @@
         <v>88</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>2976</v>
+        <v>2973</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>2977</v>
+        <v>2974</v>
       </c>
       <c r="D282" s="1" t="s">
         <v>1221</v>
@@ -61938,7 +61832,7 @@
         <v>94</v>
       </c>
       <c r="H282" s="1" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="I282" s="1" t="s">
         <v>1221</v>
@@ -61947,13 +61841,13 @@
         <v>92</v>
       </c>
       <c r="K282" s="1" t="s">
-        <v>3278</v>
+        <v>3275</v>
       </c>
       <c r="L282" s="1" t="s">
-        <v>3279</v>
+        <v>3276</v>
       </c>
       <c r="N282" s="1" t="s">
-        <v>3280</v>
+        <v>3277</v>
       </c>
       <c r="O282" s="1" t="s">
         <v>101</v>
@@ -62007,7 +61901,7 @@
         <v>0</v>
       </c>
       <c r="AN282" s="1" t="s">
-        <v>3281</v>
+        <v>3278</v>
       </c>
       <c r="AO282" s="1">
         <v>0</v>
@@ -62043,19 +61937,19 @@
         <v>23</v>
       </c>
       <c r="BD282" s="1" t="s">
-        <v>3282</v>
+        <v>3279</v>
       </c>
       <c r="BG282" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH282" s="1" t="s">
-        <v>3283</v>
+        <v>3280</v>
       </c>
       <c r="BN282" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU282" s="1" t="s">
-        <v>3284</v>
+        <v>3281</v>
       </c>
       <c r="BV282" s="1" t="s">
         <v>121</v>
@@ -62082,10 +61976,10 @@
         <v>1462</v>
       </c>
       <c r="CF282" s="1" t="s">
-        <v>3285</v>
+        <v>3282</v>
       </c>
       <c r="CH282" s="1" t="s">
-        <v>3286</v>
+        <v>3283</v>
       </c>
       <c r="CI282" s="1" t="s">
         <v>129</v>
@@ -62099,10 +61993,10 @@
         <v>88</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>2976</v>
+        <v>2973</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>2977</v>
+        <v>2974</v>
       </c>
       <c r="D283" s="1" t="s">
         <v>1221</v>
@@ -62117,7 +62011,7 @@
         <v>94</v>
       </c>
       <c r="H283" s="1" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="I283" s="1" t="s">
         <v>1221</v>
@@ -62126,10 +62020,10 @@
         <v>92</v>
       </c>
       <c r="K283" s="1" t="s">
-        <v>3212</v>
+        <v>3209</v>
       </c>
       <c r="L283" s="1" t="s">
-        <v>3213</v>
+        <v>3210</v>
       </c>
       <c r="O283" s="1" t="s">
         <v>101</v>
@@ -62174,7 +62068,7 @@
         <v>0</v>
       </c>
       <c r="AN283" s="1" t="s">
-        <v>3036</v>
+        <v>3033</v>
       </c>
       <c r="AO283" s="1">
         <v>0</v>
@@ -62210,7 +62104,7 @@
         <v>23</v>
       </c>
       <c r="BD283" s="1" t="s">
-        <v>3287</v>
+        <v>3284</v>
       </c>
       <c r="BN283" s="1" t="s">
         <v>117</v>
@@ -62234,7 +62128,7 @@
         <v>102</v>
       </c>
       <c r="CD283" s="1" t="s">
-        <v>3212</v>
+        <v>3209</v>
       </c>
       <c r="CH283" s="1" t="s">
         <v>129</v>
@@ -62251,10 +62145,10 @@
         <v>88</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>2976</v>
+        <v>2973</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>2977</v>
+        <v>2974</v>
       </c>
       <c r="D284" s="1" t="s">
         <v>1221</v>
@@ -62269,7 +62163,7 @@
         <v>94</v>
       </c>
       <c r="H284" s="1" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="I284" s="1" t="s">
         <v>1221</v>
@@ -62278,10 +62172,10 @@
         <v>92</v>
       </c>
       <c r="K284" s="1" t="s">
-        <v>3215</v>
+        <v>3212</v>
       </c>
       <c r="L284" s="1" t="s">
-        <v>3216</v>
+        <v>3213</v>
       </c>
       <c r="O284" s="1" t="s">
         <v>101</v>
@@ -62326,7 +62220,7 @@
         <v>0</v>
       </c>
       <c r="AN284" s="1" t="s">
-        <v>3036</v>
+        <v>3033</v>
       </c>
       <c r="AO284" s="1">
         <v>0</v>
@@ -62362,7 +62256,7 @@
         <v>23</v>
       </c>
       <c r="BD284" s="1" t="s">
-        <v>3288</v>
+        <v>3285</v>
       </c>
       <c r="BN284" s="1" t="s">
         <v>117</v>
@@ -62386,7 +62280,7 @@
         <v>102</v>
       </c>
       <c r="CD284" s="1" t="s">
-        <v>3215</v>
+        <v>3212</v>
       </c>
       <c r="CH284" s="1" t="s">
         <v>129</v>
@@ -62403,10 +62297,10 @@
         <v>88</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>2976</v>
+        <v>2973</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>2977</v>
+        <v>2974</v>
       </c>
       <c r="D285" s="1" t="s">
         <v>1221</v>
@@ -62421,7 +62315,7 @@
         <v>94</v>
       </c>
       <c r="H285" s="1" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="I285" s="1" t="s">
         <v>1221</v>
@@ -62430,10 +62324,10 @@
         <v>92</v>
       </c>
       <c r="K285" s="1" t="s">
-        <v>3223</v>
+        <v>3220</v>
       </c>
       <c r="L285" s="1" t="s">
-        <v>3224</v>
+        <v>3221</v>
       </c>
       <c r="O285" s="1" t="s">
         <v>101</v>
@@ -62478,7 +62372,7 @@
         <v>0</v>
       </c>
       <c r="AN285" s="1" t="s">
-        <v>3036</v>
+        <v>3033</v>
       </c>
       <c r="AO285" s="1">
         <v>0</v>
@@ -62514,7 +62408,7 @@
         <v>23</v>
       </c>
       <c r="BD285" s="1" t="s">
-        <v>3289</v>
+        <v>3286</v>
       </c>
       <c r="BN285" s="1" t="s">
         <v>117</v>
@@ -62538,7 +62432,7 @@
         <v>102</v>
       </c>
       <c r="CD285" s="1" t="s">
-        <v>3223</v>
+        <v>3220</v>
       </c>
       <c r="CH285" s="1" t="s">
         <v>129</v>
@@ -62551,6 +62445,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CJ285" xr:uid="{4F1C6797-0D82-4ACB-B838-83F452F8C6C1}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>